--- a/tmp_client/doc/TMP_EIT_suites/radiant/silicon_06_jedi_d1.xlsx
+++ b/tmp_client/doc/TMP_EIT_suites/radiant/silicon_06_jedi_d1.xlsx
@@ -19,22 +19,22 @@
     <sheet name="comments" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">case!$A$2:$AD$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">case!$A$2:$AD$100</definedName>
     <definedName name="Z_16B2C8B3_13FA_43FB_96C1_3763C72619A6_.wvu.FilterData" localSheetId="1" hidden="1">case!$A$2:$AD$2</definedName>
     <definedName name="Z_179F0E1F_F6F7_410E_B883_54B8A90BA550_.wvu.FilterData" localSheetId="1" hidden="1">case!$A$2:$AD$2</definedName>
-    <definedName name="Z_E811CF45_D5B3_4449_84AE_1514F9E9258F_.wvu.FilterData" localSheetId="1" hidden="1">case!$A$2:$AD$36</definedName>
+    <definedName name="Z_E811CF45_D5B3_4449_84AE_1514F9E9258F_.wvu.FilterData" localSheetId="1" hidden="1">case!$A$2:$AD$35</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" calcOnSave="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Cherry Xu - Personal View" guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" personalView="1" maximized="1" windowWidth="1916" windowHeight="835" activeSheetId="2"/>
+    <customWorkbookView name="Xueying Li - Personal View" guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}" personalView="1" yWindow="337" windowWidth="1878" windowHeight="703" activeSheetId="1"/>
     <customWorkbookView name="Jason Wang - Personal View" guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="2"/>
-    <customWorkbookView name="Xueying Li - Personal View" guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}" personalView="1" yWindow="337" windowWidth="1878" windowHeight="703" activeSheetId="1"/>
-    <customWorkbookView name="Cherry Xu - Personal View" guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" personalView="1" maximized="1" windowWidth="1916" windowHeight="835" activeSheetId="2"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="344">
   <si>
     <t>[suite_info]</t>
   </si>
@@ -753,9 +753,6 @@
     <t>00_primitive/00_common/09_FD1P3JX</t>
   </si>
   <si>
-    <t>00_primitive/00_common/10_FL1P3AZ</t>
-  </si>
-  <si>
     <t>00_primitive/00_common/11_IFD1P3BX</t>
   </si>
   <si>
@@ -1071,10 +1068,10 @@
     <t>9</t>
   </si>
   <si>
-    <t>silicon_06_jedi_d1_v2.01</t>
-  </si>
-  <si>
     <t>radiant=sd_ng3_0.5</t>
+  </si>
+  <si>
+    <t>silicon_06_jedi_d1_v2.02</t>
   </si>
 </sst>
 </file>
@@ -1895,106 +1892,106 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="35" xfId="4" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -4794,7 +4791,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="61" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4802,7 +4799,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="61" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4818,12 +4815,12 @@
         <v>3</v>
       </c>
       <c r="B4" s="61" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" s="61" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4831,7 +4828,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="76" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4839,7 +4836,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="61" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4847,7 +4844,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="61" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4887,7 +4884,7 @@
         <v>24</v>
       </c>
       <c r="C15" s="61" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -4898,7 +4895,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="61" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -4909,7 +4906,7 @@
         <v>5</v>
       </c>
       <c r="C17" s="61" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -4936,7 +4933,7 @@
         <v>24</v>
       </c>
       <c r="C21" s="61" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -4947,7 +4944,7 @@
         <v>15</v>
       </c>
       <c r="C22" s="61" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -4958,7 +4955,7 @@
         <v>5</v>
       </c>
       <c r="C23" s="61" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -4969,7 +4966,8 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BrxOpSv5Qn+u2wRjM+utC6UYLrvUI+Gay+w6zPQp8zz+/5I1udizjqbZ6brqgp9h1Ud3zJVEOn/q/bgrm9i81A==" saltValue="wt9VphKaQ5GnARCLMZGRjA==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <customSheetViews>
-    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
+    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}">
+      <selection activeCell="B35" sqref="B35"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
     </customSheetView>
@@ -4978,8 +4976,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
     </customSheetView>
-    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}">
-      <selection activeCell="B35" sqref="B35"/>
+    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
     </customSheetView>
@@ -4991,13 +4988,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD101"/>
+  <dimension ref="A1:AD100"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomRight" activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5165,7 +5162,7 @@
         <v>230</v>
       </c>
       <c r="S3" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD3" s="61" t="s">
         <v>229</v>
@@ -5179,7 +5176,7 @@
         <v>231</v>
       </c>
       <c r="S4" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD4" s="61" t="s">
         <v>229</v>
@@ -5193,7 +5190,7 @@
         <v>232</v>
       </c>
       <c r="S5" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD5" s="61" t="s">
         <v>228</v>
@@ -5204,10 +5201,10 @@
         <v>4</v>
       </c>
       <c r="E6" s="61" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="S6" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD6" s="61" t="s">
         <v>228</v>
@@ -5221,7 +5218,7 @@
         <v>233</v>
       </c>
       <c r="S7" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD7" s="61" t="s">
         <v>229</v>
@@ -5235,7 +5232,7 @@
         <v>234</v>
       </c>
       <c r="S8" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD8" s="61" t="s">
         <v>229</v>
@@ -5249,7 +5246,7 @@
         <v>235</v>
       </c>
       <c r="S9" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD9" s="61" t="s">
         <v>229</v>
@@ -5263,7 +5260,7 @@
         <v>236</v>
       </c>
       <c r="S10" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD10" s="61" t="s">
         <v>229</v>
@@ -5277,7 +5274,7 @@
         <v>237</v>
       </c>
       <c r="S11" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD11" s="61" t="s">
         <v>229</v>
@@ -5291,7 +5288,7 @@
         <v>238</v>
       </c>
       <c r="S12" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD12" s="61" t="s">
         <v>229</v>
@@ -5305,7 +5302,7 @@
         <v>239</v>
       </c>
       <c r="S13" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD13" s="61" t="s">
         <v>229</v>
@@ -5319,7 +5316,7 @@
         <v>240</v>
       </c>
       <c r="S14" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD14" s="61" t="s">
         <v>229</v>
@@ -5333,7 +5330,7 @@
         <v>241</v>
       </c>
       <c r="S15" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD15" s="61" t="s">
         <v>229</v>
@@ -5347,7 +5344,7 @@
         <v>242</v>
       </c>
       <c r="S16" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD16" s="61" t="s">
         <v>229</v>
@@ -5361,7 +5358,7 @@
         <v>243</v>
       </c>
       <c r="S17" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD17" s="61" t="s">
         <v>229</v>
@@ -5375,7 +5372,7 @@
         <v>244</v>
       </c>
       <c r="S18" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD18" s="61" t="s">
         <v>229</v>
@@ -5389,7 +5386,7 @@
         <v>245</v>
       </c>
       <c r="S19" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD19" s="61" t="s">
         <v>229</v>
@@ -5403,7 +5400,7 @@
         <v>246</v>
       </c>
       <c r="S20" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD20" s="61" t="s">
         <v>229</v>
@@ -5417,7 +5414,7 @@
         <v>247</v>
       </c>
       <c r="S21" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD21" s="61" t="s">
         <v>229</v>
@@ -5431,10 +5428,10 @@
         <v>248</v>
       </c>
       <c r="S22" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD22" s="61" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:30">
@@ -5445,10 +5442,10 @@
         <v>249</v>
       </c>
       <c r="S23" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD23" s="61" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24" spans="1:30">
@@ -5459,10 +5456,10 @@
         <v>250</v>
       </c>
       <c r="S24" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD24" s="61" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25" spans="1:30">
@@ -5473,7 +5470,7 @@
         <v>251</v>
       </c>
       <c r="S25" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD25" s="61" t="s">
         <v>228</v>
@@ -5487,7 +5484,7 @@
         <v>252</v>
       </c>
       <c r="S26" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD26" s="61" t="s">
         <v>228</v>
@@ -5501,10 +5498,10 @@
         <v>253</v>
       </c>
       <c r="S27" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD27" s="61" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28" spans="1:30">
@@ -5515,7 +5512,7 @@
         <v>254</v>
       </c>
       <c r="S28" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD28" s="61" t="s">
         <v>229</v>
@@ -5529,7 +5526,7 @@
         <v>255</v>
       </c>
       <c r="S29" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD29" s="61" t="s">
         <v>229</v>
@@ -5542,8 +5539,11 @@
       <c r="E30" s="61" t="s">
         <v>256</v>
       </c>
+      <c r="O30" s="61" t="s">
+        <v>322</v>
+      </c>
       <c r="S30" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD30" s="61" t="s">
         <v>229</v>
@@ -5556,11 +5556,8 @@
       <c r="E31" s="61" t="s">
         <v>257</v>
       </c>
-      <c r="O31" s="61" t="s">
-        <v>323</v>
-      </c>
       <c r="S31" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD31" s="61" t="s">
         <v>229</v>
@@ -5574,7 +5571,7 @@
         <v>258</v>
       </c>
       <c r="S32" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD32" s="61" t="s">
         <v>229</v>
@@ -5588,7 +5585,7 @@
         <v>259</v>
       </c>
       <c r="S33" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD33" s="61" t="s">
         <v>229</v>
@@ -5602,10 +5599,10 @@
         <v>260</v>
       </c>
       <c r="S34" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD34" s="61" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="35" spans="1:30">
@@ -5616,10 +5613,10 @@
         <v>261</v>
       </c>
       <c r="S35" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD35" s="61" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="36" spans="1:30">
@@ -5630,7 +5627,7 @@
         <v>262</v>
       </c>
       <c r="S36" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD36" s="61" t="s">
         <v>229</v>
@@ -5644,7 +5641,7 @@
         <v>263</v>
       </c>
       <c r="S37" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD37" s="61" t="s">
         <v>229</v>
@@ -5658,7 +5655,7 @@
         <v>264</v>
       </c>
       <c r="S38" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD38" s="61" t="s">
         <v>229</v>
@@ -5672,7 +5669,7 @@
         <v>265</v>
       </c>
       <c r="S39" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD39" s="61" t="s">
         <v>229</v>
@@ -5686,7 +5683,7 @@
         <v>266</v>
       </c>
       <c r="S40" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD40" s="61" t="s">
         <v>229</v>
@@ -5700,7 +5697,7 @@
         <v>267</v>
       </c>
       <c r="S41" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD41" s="61" t="s">
         <v>229</v>
@@ -5714,7 +5711,7 @@
         <v>268</v>
       </c>
       <c r="S42" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD42" s="61" t="s">
         <v>229</v>
@@ -5728,7 +5725,7 @@
         <v>269</v>
       </c>
       <c r="S43" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD43" s="61" t="s">
         <v>229</v>
@@ -5742,7 +5739,7 @@
         <v>270</v>
       </c>
       <c r="S44" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD44" s="61" t="s">
         <v>229</v>
@@ -5756,7 +5753,7 @@
         <v>271</v>
       </c>
       <c r="S45" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD45" s="61" t="s">
         <v>229</v>
@@ -5770,7 +5767,7 @@
         <v>272</v>
       </c>
       <c r="S46" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD46" s="61" t="s">
         <v>229</v>
@@ -5784,7 +5781,7 @@
         <v>273</v>
       </c>
       <c r="S47" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD47" s="61" t="s">
         <v>229</v>
@@ -5798,7 +5795,7 @@
         <v>274</v>
       </c>
       <c r="S48" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD48" s="61" t="s">
         <v>229</v>
@@ -5812,7 +5809,7 @@
         <v>275</v>
       </c>
       <c r="S49" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD49" s="61" t="s">
         <v>229</v>
@@ -5826,7 +5823,7 @@
         <v>276</v>
       </c>
       <c r="S50" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD50" s="61" t="s">
         <v>229</v>
@@ -5840,7 +5837,7 @@
         <v>277</v>
       </c>
       <c r="S51" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD51" s="61" t="s">
         <v>229</v>
@@ -5854,7 +5851,7 @@
         <v>278</v>
       </c>
       <c r="S52" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD52" s="61" t="s">
         <v>229</v>
@@ -5868,7 +5865,7 @@
         <v>279</v>
       </c>
       <c r="S53" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD53" s="61" t="s">
         <v>229</v>
@@ -5882,7 +5879,7 @@
         <v>280</v>
       </c>
       <c r="S54" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD54" s="61" t="s">
         <v>229</v>
@@ -5896,7 +5893,7 @@
         <v>281</v>
       </c>
       <c r="S55" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD55" s="61" t="s">
         <v>229</v>
@@ -5910,7 +5907,7 @@
         <v>282</v>
       </c>
       <c r="S56" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD56" s="61" t="s">
         <v>229</v>
@@ -5924,7 +5921,7 @@
         <v>283</v>
       </c>
       <c r="S57" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD57" s="61" t="s">
         <v>229</v>
@@ -5938,10 +5935,10 @@
         <v>284</v>
       </c>
       <c r="S58" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD58" s="61" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="59" spans="1:30">
@@ -5952,10 +5949,10 @@
         <v>285</v>
       </c>
       <c r="S59" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD59" s="61" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="60" spans="1:30">
@@ -5963,10 +5960,10 @@
         <v>58</v>
       </c>
       <c r="E60" s="61" t="s">
-        <v>286</v>
+        <v>331</v>
       </c>
       <c r="S60" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD60" s="61" t="s">
         <v>229</v>
@@ -5977,10 +5974,10 @@
         <v>59</v>
       </c>
       <c r="E61" s="61" t="s">
-        <v>332</v>
+        <v>286</v>
       </c>
       <c r="S61" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD61" s="61" t="s">
         <v>229</v>
@@ -5994,7 +5991,7 @@
         <v>287</v>
       </c>
       <c r="S62" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD62" s="61" t="s">
         <v>229</v>
@@ -6008,7 +6005,7 @@
         <v>288</v>
       </c>
       <c r="S63" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD63" s="61" t="s">
         <v>229</v>
@@ -6022,7 +6019,7 @@
         <v>289</v>
       </c>
       <c r="S64" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD64" s="61" t="s">
         <v>229</v>
@@ -6036,7 +6033,7 @@
         <v>290</v>
       </c>
       <c r="S65" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD65" s="61" t="s">
         <v>229</v>
@@ -6047,10 +6044,10 @@
         <v>64</v>
       </c>
       <c r="E66" s="61" t="s">
-        <v>291</v>
+        <v>332</v>
       </c>
       <c r="S66" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD66" s="61" t="s">
         <v>229</v>
@@ -6061,10 +6058,10 @@
         <v>65</v>
       </c>
       <c r="E67" s="61" t="s">
-        <v>333</v>
+        <v>291</v>
       </c>
       <c r="S67" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD67" s="61" t="s">
         <v>229</v>
@@ -6078,9 +6075,9 @@
         <v>292</v>
       </c>
       <c r="S68" s="61" t="s">
-        <v>324</v>
-      </c>
-      <c r="AD68" s="61" t="s">
+        <v>323</v>
+      </c>
+      <c r="AD68" s="75" t="s">
         <v>229</v>
       </c>
     </row>
@@ -6092,9 +6089,9 @@
         <v>293</v>
       </c>
       <c r="S69" s="61" t="s">
-        <v>324</v>
-      </c>
-      <c r="AD69" s="75" t="s">
+        <v>323</v>
+      </c>
+      <c r="AD69" s="61" t="s">
         <v>229</v>
       </c>
     </row>
@@ -6106,7 +6103,7 @@
         <v>294</v>
       </c>
       <c r="S70" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD70" s="61" t="s">
         <v>229</v>
@@ -6120,7 +6117,7 @@
         <v>295</v>
       </c>
       <c r="S71" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD71" s="61" t="s">
         <v>229</v>
@@ -6134,7 +6131,7 @@
         <v>296</v>
       </c>
       <c r="S72" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD72" s="61" t="s">
         <v>229</v>
@@ -6148,7 +6145,7 @@
         <v>297</v>
       </c>
       <c r="S73" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD73" s="61" t="s">
         <v>229</v>
@@ -6162,7 +6159,7 @@
         <v>298</v>
       </c>
       <c r="S74" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD74" s="61" t="s">
         <v>229</v>
@@ -6176,7 +6173,7 @@
         <v>299</v>
       </c>
       <c r="S75" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD75" s="61" t="s">
         <v>229</v>
@@ -6190,7 +6187,7 @@
         <v>300</v>
       </c>
       <c r="S76" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD76" s="61" t="s">
         <v>229</v>
@@ -6204,7 +6201,7 @@
         <v>301</v>
       </c>
       <c r="S77" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD77" s="61" t="s">
         <v>229</v>
@@ -6218,7 +6215,7 @@
         <v>302</v>
       </c>
       <c r="S78" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD78" s="61" t="s">
         <v>229</v>
@@ -6232,7 +6229,7 @@
         <v>303</v>
       </c>
       <c r="S79" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD79" s="61" t="s">
         <v>229</v>
@@ -6246,7 +6243,7 @@
         <v>304</v>
       </c>
       <c r="S80" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD80" s="61" t="s">
         <v>229</v>
@@ -6260,7 +6257,7 @@
         <v>305</v>
       </c>
       <c r="S81" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD81" s="61" t="s">
         <v>229</v>
@@ -6274,7 +6271,7 @@
         <v>306</v>
       </c>
       <c r="S82" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD82" s="61" t="s">
         <v>229</v>
@@ -6287,11 +6284,14 @@
       <c r="E83" s="61" t="s">
         <v>307</v>
       </c>
+      <c r="O83" s="61" t="s">
+        <v>328</v>
+      </c>
       <c r="S83" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD83" s="61" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="84" spans="1:30">
@@ -6301,14 +6301,11 @@
       <c r="E84" s="61" t="s">
         <v>308</v>
       </c>
-      <c r="O84" s="61" t="s">
-        <v>329</v>
-      </c>
       <c r="S84" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD84" s="61" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="85" spans="1:30">
@@ -6318,8 +6315,9 @@
       <c r="E85" s="61" t="s">
         <v>309</v>
       </c>
+      <c r="H85" s="74"/>
       <c r="S85" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD85" s="61" t="s">
         <v>229</v>
@@ -6332,9 +6330,8 @@
       <c r="E86" s="61" t="s">
         <v>310</v>
       </c>
-      <c r="H86" s="74"/>
       <c r="S86" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD86" s="61" t="s">
         <v>229</v>
@@ -6348,7 +6345,7 @@
         <v>311</v>
       </c>
       <c r="S87" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD87" s="61" t="s">
         <v>229</v>
@@ -6362,10 +6359,10 @@
         <v>312</v>
       </c>
       <c r="S88" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD88" s="61" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="89" spans="1:30">
@@ -6376,10 +6373,10 @@
         <v>313</v>
       </c>
       <c r="S89" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD89" s="61" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="90" spans="1:30">
@@ -6390,7 +6387,7 @@
         <v>314</v>
       </c>
       <c r="S90" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD90" s="61" t="s">
         <v>229</v>
@@ -6404,7 +6401,7 @@
         <v>315</v>
       </c>
       <c r="S91" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD91" s="61" t="s">
         <v>229</v>
@@ -6418,7 +6415,7 @@
         <v>316</v>
       </c>
       <c r="S92" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD92" s="61" t="s">
         <v>229</v>
@@ -6432,10 +6429,10 @@
         <v>317</v>
       </c>
       <c r="S93" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD93" s="61" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="94" spans="1:30">
@@ -6446,10 +6443,10 @@
         <v>318</v>
       </c>
       <c r="S94" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD94" s="61" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="95" spans="1:30">
@@ -6460,7 +6457,7 @@
         <v>319</v>
       </c>
       <c r="S95" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD95" s="61" t="s">
         <v>229</v>
@@ -6474,10 +6471,10 @@
         <v>320</v>
       </c>
       <c r="S96" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD96" s="61" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="97" spans="1:30">
@@ -6485,13 +6482,13 @@
         <v>95</v>
       </c>
       <c r="E97" s="61" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="S97" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD97" s="61" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="98" spans="1:30">
@@ -6499,27 +6496,27 @@
         <v>96</v>
       </c>
       <c r="E98" s="61" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="S98" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD98" s="61" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="99" spans="1:30">
       <c r="A99" s="61">
         <v>97</v>
       </c>
-      <c r="E99" s="61" t="s">
-        <v>322</v>
+      <c r="E99" s="75" t="s">
+        <v>334</v>
       </c>
       <c r="S99" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD99" s="61" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="100" spans="1:30">
@@ -6530,36 +6527,22 @@
         <v>335</v>
       </c>
       <c r="S100" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AD100" s="61" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="101" spans="1:30">
-      <c r="A101" s="61">
-        <v>99</v>
-      </c>
-      <c r="E101" s="75" t="s">
-        <v>336</v>
-      </c>
-      <c r="S101" s="61" t="s">
-        <v>324</v>
-      </c>
-      <c r="AD101" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
   </sheetData>
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <autoFilter ref="A2:AD101"/>
+  <autoFilter ref="A2:AD100"/>
   <customSheetViews>
-    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" scale="85" showAutoFilter="1">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="M38" sqref="M38"/>
+    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" scale="85" showAutoFilter="1">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" state="frozen"/>
+      <selection activeCell="C23" sqref="C23"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
-      <autoFilter ref="A2:AD46"/>
+      <autoFilter ref="A2:Y2"/>
     </customSheetView>
     <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}" scale="85" showAutoFilter="1">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" state="frozen"/>
@@ -6568,23 +6551,20 @@
       <pageSetup paperSize="9" orientation="portrait"/>
       <autoFilter ref="A2:Y2"/>
     </customSheetView>
-    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" scale="85" showAutoFilter="1">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" state="frozen"/>
-      <selection activeCell="C23" sqref="C23"/>
+    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" scale="85" showAutoFilter="1">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="M38" sqref="M38"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
-      <autoFilter ref="A2:Y2"/>
+      <autoFilter ref="A2:AD46"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="2">
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="W1:AD1"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W1:AA1 AD1">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:I1 M1:V1">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD1 A1:I1 M1:AA1">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -6713,17 +6693,17 @@
       <c r="E111" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F111" s="111" t="s">
+      <c r="F111" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="G111" s="112"/>
-      <c r="H111" s="112"/>
-      <c r="I111" s="112"/>
-      <c r="J111" s="112"/>
-      <c r="K111" s="112"/>
-      <c r="L111" s="112"/>
-      <c r="M111" s="112"/>
-      <c r="N111" s="113"/>
+      <c r="G111" s="82"/>
+      <c r="H111" s="82"/>
+      <c r="I111" s="82"/>
+      <c r="J111" s="82"/>
+      <c r="K111" s="82"/>
+      <c r="L111" s="82"/>
+      <c r="M111" s="82"/>
+      <c r="N111" s="83"/>
     </row>
     <row r="112" spans="1:14">
       <c r="A112" s="6" t="s">
@@ -7587,7 +7567,7 @@
       <c r="A147" s="19">
         <v>1</v>
       </c>
-      <c r="B147" s="81" t="s">
+      <c r="B147" s="111" t="s">
         <v>3</v>
       </c>
       <c r="C147" s="65" t="s">
@@ -7613,7 +7593,7 @@
       <c r="A148" s="19">
         <v>2</v>
       </c>
-      <c r="B148" s="82"/>
+      <c r="B148" s="112"/>
       <c r="C148" s="21" t="s">
         <v>81</v>
       </c>
@@ -7635,7 +7615,7 @@
       <c r="A149" s="19">
         <v>3</v>
       </c>
-      <c r="B149" s="82"/>
+      <c r="B149" s="112"/>
       <c r="C149" s="21" t="s">
         <v>16</v>
       </c>
@@ -7653,7 +7633,7 @@
       <c r="A150" s="19">
         <v>4</v>
       </c>
-      <c r="B150" s="82"/>
+      <c r="B150" s="112"/>
       <c r="C150" s="21" t="s">
         <v>83</v>
       </c>
@@ -7675,7 +7655,7 @@
       <c r="A151" s="19">
         <v>5</v>
       </c>
-      <c r="B151" s="82"/>
+      <c r="B151" s="112"/>
       <c r="C151" s="65" t="s">
         <v>85</v>
       </c>
@@ -7699,7 +7679,7 @@
       <c r="A152" s="19">
         <v>6</v>
       </c>
-      <c r="B152" s="82"/>
+      <c r="B152" s="112"/>
       <c r="C152" s="65" t="s">
         <v>89</v>
       </c>
@@ -7723,7 +7703,7 @@
       <c r="A153" s="19">
         <v>7</v>
       </c>
-      <c r="B153" s="82"/>
+      <c r="B153" s="112"/>
       <c r="C153" s="21" t="s">
         <v>91</v>
       </c>
@@ -7743,7 +7723,7 @@
       <c r="A154" s="19">
         <v>8</v>
       </c>
-      <c r="B154" s="82"/>
+      <c r="B154" s="112"/>
       <c r="C154" s="65" t="s">
         <v>92</v>
       </c>
@@ -7765,7 +7745,7 @@
       <c r="A155" s="19">
         <v>9</v>
       </c>
-      <c r="B155" s="82"/>
+      <c r="B155" s="112"/>
       <c r="C155" s="65" t="s">
         <v>93</v>
       </c>
@@ -7789,7 +7769,7 @@
       <c r="A156" s="19">
         <v>10</v>
       </c>
-      <c r="B156" s="82"/>
+      <c r="B156" s="112"/>
       <c r="C156" s="21" t="s">
         <v>94</v>
       </c>
@@ -7813,7 +7793,7 @@
       <c r="A157" s="19">
         <v>11</v>
       </c>
-      <c r="B157" s="82"/>
+      <c r="B157" s="112"/>
       <c r="C157" s="21" t="s">
         <v>95</v>
       </c>
@@ -7835,7 +7815,7 @@
       <c r="A158" s="19">
         <v>12</v>
       </c>
-      <c r="B158" s="82"/>
+      <c r="B158" s="112"/>
       <c r="C158" s="21" t="s">
         <v>97</v>
       </c>
@@ -7857,7 +7837,7 @@
       <c r="A159" s="19">
         <v>13</v>
       </c>
-      <c r="B159" s="89"/>
+      <c r="B159" s="98"/>
       <c r="C159" s="21" t="s">
         <v>101</v>
       </c>
@@ -7881,7 +7861,7 @@
       <c r="A160" s="19">
         <v>14</v>
       </c>
-      <c r="B160" s="90" t="s">
+      <c r="B160" s="93" t="s">
         <v>4</v>
       </c>
       <c r="C160" s="21" t="s">
@@ -7907,7 +7887,7 @@
       <c r="A161" s="19">
         <v>15</v>
       </c>
-      <c r="B161" s="87"/>
+      <c r="B161" s="94"/>
       <c r="C161" s="21" t="s">
         <v>108</v>
       </c>
@@ -7931,7 +7911,7 @@
       <c r="A162" s="70">
         <v>16</v>
       </c>
-      <c r="B162" s="81" t="s">
+      <c r="B162" s="111" t="s">
         <v>5</v>
       </c>
       <c r="C162" s="21" t="s">
@@ -7955,7 +7935,7 @@
       <c r="A163" s="70">
         <v>17</v>
       </c>
-      <c r="B163" s="91"/>
+      <c r="B163" s="113"/>
       <c r="C163" s="69" t="s">
         <v>219</v>
       </c>
@@ -7977,7 +7957,7 @@
       <c r="A164" s="70">
         <v>18</v>
       </c>
-      <c r="B164" s="89"/>
+      <c r="B164" s="98"/>
       <c r="C164" s="65" t="s">
         <v>112</v>
       </c>
@@ -7997,7 +7977,7 @@
       <c r="A165" s="70">
         <v>19</v>
       </c>
-      <c r="B165" s="90" t="s">
+      <c r="B165" s="93" t="s">
         <v>6</v>
       </c>
       <c r="C165" s="21" t="s">
@@ -8021,7 +8001,7 @@
       <c r="A166" s="70">
         <v>20</v>
       </c>
-      <c r="B166" s="87"/>
+      <c r="B166" s="94"/>
       <c r="C166" s="21" t="s">
         <v>117</v>
       </c>
@@ -8041,7 +8021,7 @@
       <c r="A167" s="70">
         <v>21</v>
       </c>
-      <c r="B167" s="87"/>
+      <c r="B167" s="94"/>
       <c r="C167" s="21" t="s">
         <v>118</v>
       </c>
@@ -8061,7 +8041,7 @@
       <c r="A168" s="70">
         <v>22</v>
       </c>
-      <c r="B168" s="87"/>
+      <c r="B168" s="94"/>
       <c r="C168" s="21" t="s">
         <v>119</v>
       </c>
@@ -8081,7 +8061,7 @@
       <c r="A169" s="70">
         <v>23</v>
       </c>
-      <c r="B169" s="87"/>
+      <c r="B169" s="94"/>
       <c r="C169" s="21" t="s">
         <v>120</v>
       </c>
@@ -8101,7 +8081,7 @@
       <c r="A170" s="70">
         <v>24</v>
       </c>
-      <c r="B170" s="87"/>
+      <c r="B170" s="94"/>
       <c r="C170" s="21" t="s">
         <v>121</v>
       </c>
@@ -8121,7 +8101,7 @@
       <c r="A171" s="70">
         <v>25</v>
       </c>
-      <c r="B171" s="87"/>
+      <c r="B171" s="94"/>
       <c r="C171" s="21" t="s">
         <v>122</v>
       </c>
@@ -8141,7 +8121,7 @@
       <c r="A172" s="70">
         <v>26</v>
       </c>
-      <c r="B172" s="87"/>
+      <c r="B172" s="94"/>
       <c r="C172" s="21" t="s">
         <v>38</v>
       </c>
@@ -8161,7 +8141,7 @@
       <c r="A173" s="19">
         <v>27</v>
       </c>
-      <c r="B173" s="90" t="s">
+      <c r="B173" s="93" t="s">
         <v>7</v>
       </c>
       <c r="C173" s="21" t="s">
@@ -8185,7 +8165,7 @@
       <c r="A174" s="19">
         <v>28</v>
       </c>
-      <c r="B174" s="87"/>
+      <c r="B174" s="94"/>
       <c r="C174" s="65" t="s">
         <v>126</v>
       </c>
@@ -8207,7 +8187,7 @@
       <c r="A175" s="19">
         <v>29</v>
       </c>
-      <c r="B175" s="87"/>
+      <c r="B175" s="94"/>
       <c r="C175" s="21" t="s">
         <v>129</v>
       </c>
@@ -8229,7 +8209,7 @@
       <c r="A176" s="19">
         <v>30</v>
       </c>
-      <c r="B176" s="81" t="s">
+      <c r="B176" s="111" t="s">
         <v>8</v>
       </c>
       <c r="C176" s="21" t="s">
@@ -8255,7 +8235,7 @@
       <c r="A177" s="23">
         <v>31</v>
       </c>
-      <c r="B177" s="82"/>
+      <c r="B177" s="112"/>
       <c r="C177" s="20" t="s">
         <v>135</v>
       </c>
@@ -8279,7 +8259,7 @@
       <c r="A178" s="16">
         <v>32</v>
       </c>
-      <c r="B178" s="83" t="s">
+      <c r="B178" s="114" t="s">
         <v>137</v>
       </c>
       <c r="C178" s="66" t="s">
@@ -8303,7 +8283,7 @@
       <c r="A179" s="19">
         <v>33</v>
       </c>
-      <c r="B179" s="84"/>
+      <c r="B179" s="115"/>
       <c r="C179" s="65" t="s">
         <v>141</v>
       </c>
@@ -8325,7 +8305,7 @@
       <c r="A180" s="19">
         <v>34</v>
       </c>
-      <c r="B180" s="85"/>
+      <c r="B180" s="116"/>
       <c r="C180" s="67" t="s">
         <v>144</v>
       </c>
@@ -8347,7 +8327,7 @@
       <c r="A181" s="25">
         <v>35</v>
       </c>
-      <c r="B181" s="85"/>
+      <c r="B181" s="116"/>
       <c r="C181" s="67" t="s">
         <v>145</v>
       </c>
@@ -8369,7 +8349,7 @@
       <c r="A182" s="28">
         <v>36</v>
       </c>
-      <c r="B182" s="86"/>
+      <c r="B182" s="102"/>
       <c r="C182" s="29" t="s">
         <v>148</v>
       </c>
@@ -8416,11 +8396,11 @@
       <c r="B196" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="C196" s="114" t="s">
+      <c r="C196" s="84" t="s">
         <v>157</v>
       </c>
-      <c r="D196" s="114"/>
-      <c r="E196" s="114"/>
+      <c r="D196" s="84"/>
+      <c r="E196" s="84"/>
       <c r="F196" s="33" t="s">
         <v>158</v>
       </c>
@@ -8429,17 +8409,17 @@
       </c>
     </row>
     <row r="197" spans="1:7">
-      <c r="A197" s="96" t="s">
+      <c r="A197" s="109" t="s">
         <v>160</v>
       </c>
-      <c r="B197" s="87" t="s">
+      <c r="B197" s="94" t="s">
         <v>161</v>
       </c>
-      <c r="C197" s="115" t="s">
+      <c r="C197" s="85" t="s">
         <v>162</v>
       </c>
-      <c r="D197" s="116"/>
-      <c r="E197" s="116"/>
+      <c r="D197" s="86"/>
+      <c r="E197" s="86"/>
       <c r="F197" s="21" t="s">
         <v>163</v>
       </c>
@@ -8448,13 +8428,13 @@
       </c>
     </row>
     <row r="198" spans="1:7">
-      <c r="A198" s="96"/>
-      <c r="B198" s="88"/>
-      <c r="C198" s="106" t="s">
+      <c r="A198" s="109"/>
+      <c r="B198" s="117"/>
+      <c r="C198" s="87" t="s">
         <v>162</v>
       </c>
-      <c r="D198" s="117"/>
-      <c r="E198" s="117"/>
+      <c r="D198" s="88"/>
+      <c r="E198" s="88"/>
       <c r="F198" s="20" t="s">
         <v>165</v>
       </c>
@@ -8463,15 +8443,15 @@
       </c>
     </row>
     <row r="199" spans="1:7">
-      <c r="A199" s="96"/>
-      <c r="B199" s="87" t="s">
+      <c r="A199" s="109"/>
+      <c r="B199" s="94" t="s">
         <v>166</v>
       </c>
-      <c r="C199" s="110" t="s">
+      <c r="C199" s="89" t="s">
         <v>167</v>
       </c>
-      <c r="D199" s="110"/>
-      <c r="E199" s="110"/>
+      <c r="D199" s="89"/>
+      <c r="E199" s="89"/>
       <c r="F199" s="21" t="s">
         <v>163</v>
       </c>
@@ -8480,13 +8460,13 @@
       </c>
     </row>
     <row r="200" spans="1:7">
-      <c r="A200" s="96"/>
-      <c r="B200" s="87"/>
-      <c r="C200" s="106" t="s">
+      <c r="A200" s="109"/>
+      <c r="B200" s="94"/>
+      <c r="C200" s="87" t="s">
         <v>167</v>
       </c>
-      <c r="D200" s="106"/>
-      <c r="E200" s="106"/>
+      <c r="D200" s="87"/>
+      <c r="E200" s="87"/>
       <c r="F200" s="21" t="s">
         <v>165</v>
       </c>
@@ -8495,15 +8475,15 @@
       </c>
     </row>
     <row r="201" spans="1:7">
-      <c r="A201" s="96"/>
-      <c r="B201" s="88" t="s">
+      <c r="A201" s="109"/>
+      <c r="B201" s="117" t="s">
         <v>168</v>
       </c>
-      <c r="C201" s="107" t="s">
+      <c r="C201" s="90" t="s">
         <v>162</v>
       </c>
-      <c r="D201" s="108"/>
-      <c r="E201" s="109"/>
+      <c r="D201" s="91"/>
+      <c r="E201" s="92"/>
       <c r="F201" s="21" t="s">
         <v>163</v>
       </c>
@@ -8512,13 +8492,13 @@
       </c>
     </row>
     <row r="202" spans="1:7">
-      <c r="A202" s="96"/>
-      <c r="B202" s="89"/>
-      <c r="C202" s="107" t="s">
+      <c r="A202" s="109"/>
+      <c r="B202" s="98"/>
+      <c r="C202" s="90" t="s">
         <v>162</v>
       </c>
-      <c r="D202" s="108"/>
-      <c r="E202" s="109"/>
+      <c r="D202" s="91"/>
+      <c r="E202" s="92"/>
       <c r="F202" s="21" t="s">
         <v>165</v>
       </c>
@@ -8527,15 +8507,15 @@
       </c>
     </row>
     <row r="203" spans="1:7">
-      <c r="A203" s="96"/>
-      <c r="B203" s="87" t="s">
+      <c r="A203" s="109"/>
+      <c r="B203" s="94" t="s">
         <v>169</v>
       </c>
-      <c r="C203" s="110" t="s">
+      <c r="C203" s="89" t="s">
         <v>170</v>
       </c>
-      <c r="D203" s="110"/>
-      <c r="E203" s="110"/>
+      <c r="D203" s="89"/>
+      <c r="E203" s="89"/>
       <c r="F203" s="21" t="s">
         <v>163</v>
       </c>
@@ -8544,13 +8524,13 @@
       </c>
     </row>
     <row r="204" spans="1:7">
-      <c r="A204" s="96"/>
-      <c r="B204" s="87"/>
-      <c r="C204" s="110" t="s">
+      <c r="A204" s="109"/>
+      <c r="B204" s="94"/>
+      <c r="C204" s="89" t="s">
         <v>170</v>
       </c>
-      <c r="D204" s="110"/>
-      <c r="E204" s="110"/>
+      <c r="D204" s="89"/>
+      <c r="E204" s="89"/>
       <c r="F204" s="21" t="s">
         <v>165</v>
       </c>
@@ -8559,17 +8539,17 @@
       </c>
     </row>
     <row r="205" spans="1:7">
-      <c r="A205" s="96" t="s">
+      <c r="A205" s="109" t="s">
         <v>171</v>
       </c>
-      <c r="B205" s="87" t="s">
+      <c r="B205" s="94" t="s">
         <v>172</v>
       </c>
-      <c r="C205" s="90" t="s">
+      <c r="C205" s="93" t="s">
         <v>173</v>
       </c>
-      <c r="D205" s="87"/>
-      <c r="E205" s="87"/>
+      <c r="D205" s="94"/>
+      <c r="E205" s="94"/>
       <c r="F205" s="21" t="s">
         <v>163</v>
       </c>
@@ -8578,13 +8558,13 @@
       </c>
     </row>
     <row r="206" spans="1:7">
-      <c r="A206" s="96"/>
-      <c r="B206" s="87"/>
-      <c r="C206" s="87" t="s">
+      <c r="A206" s="109"/>
+      <c r="B206" s="94"/>
+      <c r="C206" s="94" t="s">
         <v>174</v>
       </c>
-      <c r="D206" s="87"/>
-      <c r="E206" s="87"/>
+      <c r="D206" s="94"/>
+      <c r="E206" s="94"/>
       <c r="F206" s="21" t="s">
         <v>165</v>
       </c>
@@ -8593,15 +8573,15 @@
       </c>
     </row>
     <row r="207" spans="1:7">
-      <c r="A207" s="96"/>
-      <c r="B207" s="87" t="s">
+      <c r="A207" s="109"/>
+      <c r="B207" s="94" t="s">
         <v>176</v>
       </c>
-      <c r="C207" s="87" t="s">
+      <c r="C207" s="94" t="s">
         <v>177</v>
       </c>
-      <c r="D207" s="87"/>
-      <c r="E207" s="87"/>
+      <c r="D207" s="94"/>
+      <c r="E207" s="94"/>
       <c r="F207" s="21" t="s">
         <v>163</v>
       </c>
@@ -8610,13 +8590,13 @@
       </c>
     </row>
     <row r="208" spans="1:7">
-      <c r="A208" s="96"/>
-      <c r="B208" s="87"/>
-      <c r="C208" s="87" t="s">
+      <c r="A208" s="109"/>
+      <c r="B208" s="94"/>
+      <c r="C208" s="94" t="s">
         <v>178</v>
       </c>
-      <c r="D208" s="87"/>
-      <c r="E208" s="87"/>
+      <c r="D208" s="94"/>
+      <c r="E208" s="94"/>
       <c r="F208" s="21" t="s">
         <v>165</v>
       </c>
@@ -8625,17 +8605,17 @@
       </c>
     </row>
     <row r="209" spans="1:7">
-      <c r="A209" s="96" t="s">
+      <c r="A209" s="109" t="s">
         <v>179</v>
       </c>
-      <c r="B209" s="87" t="s">
+      <c r="B209" s="94" t="s">
         <v>180</v>
       </c>
-      <c r="C209" s="90" t="s">
+      <c r="C209" s="93" t="s">
         <v>181</v>
       </c>
-      <c r="D209" s="87"/>
-      <c r="E209" s="87"/>
+      <c r="D209" s="94"/>
+      <c r="E209" s="94"/>
       <c r="F209" s="21" t="s">
         <v>163</v>
       </c>
@@ -8644,13 +8624,13 @@
       </c>
     </row>
     <row r="210" spans="1:7">
-      <c r="A210" s="96"/>
-      <c r="B210" s="87"/>
-      <c r="C210" s="87" t="s">
+      <c r="A210" s="109"/>
+      <c r="B210" s="94"/>
+      <c r="C210" s="94" t="s">
         <v>182</v>
       </c>
-      <c r="D210" s="87"/>
-      <c r="E210" s="87"/>
+      <c r="D210" s="94"/>
+      <c r="E210" s="94"/>
       <c r="F210" s="21" t="s">
         <v>165</v>
       </c>
@@ -8659,15 +8639,15 @@
       </c>
     </row>
     <row r="211" spans="1:7">
-      <c r="A211" s="96"/>
-      <c r="B211" s="87" t="s">
+      <c r="A211" s="109"/>
+      <c r="B211" s="94" t="s">
         <v>183</v>
       </c>
-      <c r="C211" s="90" t="s">
+      <c r="C211" s="93" t="s">
         <v>184</v>
       </c>
-      <c r="D211" s="87"/>
-      <c r="E211" s="87"/>
+      <c r="D211" s="94"/>
+      <c r="E211" s="94"/>
       <c r="F211" s="21" t="s">
         <v>163</v>
       </c>
@@ -8676,13 +8656,13 @@
       </c>
     </row>
     <row r="212" spans="1:7">
-      <c r="A212" s="97"/>
-      <c r="B212" s="98"/>
-      <c r="C212" s="98" t="s">
+      <c r="A212" s="110"/>
+      <c r="B212" s="95"/>
+      <c r="C212" s="95" t="s">
         <v>185</v>
       </c>
-      <c r="D212" s="98"/>
-      <c r="E212" s="98"/>
+      <c r="D212" s="95"/>
+      <c r="E212" s="95"/>
       <c r="F212" s="29" t="s">
         <v>165</v>
       </c>
@@ -8721,12 +8701,12 @@
       <c r="A217" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="B217" s="104" t="s">
+      <c r="B217" s="96" t="s">
         <v>189</v>
       </c>
-      <c r="C217" s="104"/>
-      <c r="D217" s="104"/>
-      <c r="E217" s="104"/>
+      <c r="C217" s="96"/>
+      <c r="D217" s="96"/>
+      <c r="E217" s="96"/>
       <c r="F217" s="39" t="s">
         <v>190</v>
       </c>
@@ -8738,12 +8718,12 @@
       <c r="A218" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="B218" s="105" t="s">
+      <c r="B218" s="97" t="s">
         <v>193</v>
       </c>
-      <c r="C218" s="89"/>
-      <c r="D218" s="89"/>
-      <c r="E218" s="89"/>
+      <c r="C218" s="98"/>
+      <c r="D218" s="98"/>
+      <c r="E218" s="98"/>
       <c r="F218" s="42" t="s">
         <v>62</v>
       </c>
@@ -8755,12 +8735,12 @@
       <c r="A219" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="B219" s="100" t="s">
+      <c r="B219" s="99" t="s">
         <v>195</v>
       </c>
-      <c r="C219" s="101"/>
-      <c r="D219" s="101"/>
-      <c r="E219" s="102"/>
+      <c r="C219" s="100"/>
+      <c r="D219" s="100"/>
+      <c r="E219" s="101"/>
       <c r="F219" s="9" t="s">
         <v>164</v>
       </c>
@@ -8772,12 +8752,12 @@
       <c r="A220" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="B220" s="100" t="s">
+      <c r="B220" s="99" t="s">
         <v>197</v>
       </c>
-      <c r="C220" s="101"/>
-      <c r="D220" s="101"/>
-      <c r="E220" s="102"/>
+      <c r="C220" s="100"/>
+      <c r="D220" s="100"/>
+      <c r="E220" s="101"/>
       <c r="F220" s="13" t="s">
         <v>164</v>
       </c>
@@ -8789,12 +8769,12 @@
       <c r="A221" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="B221" s="86" t="s">
+      <c r="B221" s="102" t="s">
         <v>199</v>
       </c>
-      <c r="C221" s="98"/>
-      <c r="D221" s="98"/>
-      <c r="E221" s="98"/>
+      <c r="C221" s="95"/>
+      <c r="D221" s="95"/>
+      <c r="E221" s="95"/>
       <c r="F221" s="15" t="s">
         <v>164</v>
       </c>
@@ -8856,11 +8836,11 @@
       <c r="C227" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="D227" s="99" t="s">
+      <c r="D227" s="104" t="s">
         <v>206</v>
       </c>
-      <c r="E227" s="99"/>
-      <c r="F227" s="99"/>
+      <c r="E227" s="104"/>
+      <c r="F227" s="104"/>
       <c r="G227" s="35"/>
     </row>
     <row r="228" spans="1:7">
@@ -8873,11 +8853,11 @@
       <c r="C228" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="D228" s="99" t="s">
+      <c r="D228" s="104" t="s">
         <v>207</v>
       </c>
-      <c r="E228" s="99"/>
-      <c r="F228" s="99"/>
+      <c r="E228" s="104"/>
+      <c r="F228" s="104"/>
       <c r="G228" s="35"/>
     </row>
     <row r="229" spans="1:7">
@@ -8890,11 +8870,11 @@
       <c r="C229" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="D229" s="99" t="s">
+      <c r="D229" s="104" t="s">
         <v>208</v>
       </c>
-      <c r="E229" s="99"/>
-      <c r="F229" s="99"/>
+      <c r="E229" s="104"/>
+      <c r="F229" s="104"/>
       <c r="G229" s="35"/>
     </row>
     <row r="230" spans="1:7">
@@ -8907,11 +8887,11 @@
       <c r="C230" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="D230" s="99" t="s">
+      <c r="D230" s="104" t="s">
         <v>209</v>
       </c>
-      <c r="E230" s="99"/>
-      <c r="F230" s="99"/>
+      <c r="E230" s="104"/>
+      <c r="F230" s="104"/>
       <c r="G230" s="35"/>
     </row>
     <row r="231" spans="1:7">
@@ -8924,11 +8904,11 @@
       <c r="C231" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="D231" s="99" t="s">
+      <c r="D231" s="104" t="s">
         <v>210</v>
       </c>
-      <c r="E231" s="99"/>
-      <c r="F231" s="99"/>
+      <c r="E231" s="104"/>
+      <c r="F231" s="104"/>
       <c r="G231" s="35"/>
     </row>
     <row r="232" spans="1:7">
@@ -8941,11 +8921,11 @@
       <c r="C232" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="D232" s="92" t="s">
+      <c r="D232" s="105" t="s">
         <v>211</v>
       </c>
-      <c r="E232" s="93"/>
-      <c r="F232" s="94"/>
+      <c r="E232" s="106"/>
+      <c r="F232" s="107"/>
       <c r="G232" s="36"/>
     </row>
     <row r="233" spans="1:7">
@@ -8958,11 +8938,11 @@
       <c r="C233" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="D233" s="92" t="s">
+      <c r="D233" s="105" t="s">
         <v>212</v>
       </c>
-      <c r="E233" s="93"/>
-      <c r="F233" s="94"/>
+      <c r="E233" s="106"/>
+      <c r="F233" s="107"/>
       <c r="G233" s="36"/>
     </row>
     <row r="234" spans="1:7">
@@ -8975,11 +8955,11 @@
       <c r="C234" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="D234" s="92" t="s">
+      <c r="D234" s="105" t="s">
         <v>213</v>
       </c>
-      <c r="E234" s="93"/>
-      <c r="F234" s="94"/>
+      <c r="E234" s="106"/>
+      <c r="F234" s="107"/>
       <c r="G234" s="36"/>
     </row>
     <row r="235" spans="1:7">
@@ -9043,11 +9023,11 @@
       <c r="C238" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="D238" s="95" t="s">
+      <c r="D238" s="108" t="s">
         <v>217</v>
       </c>
-      <c r="E238" s="95"/>
-      <c r="F238" s="95"/>
+      <c r="E238" s="108"/>
+      <c r="F238" s="108"/>
       <c r="G238" s="37"/>
     </row>
   </sheetData>
@@ -9060,31 +9040,16 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="51">
-    <mergeCell ref="F111:N111"/>
-    <mergeCell ref="C196:E196"/>
-    <mergeCell ref="C197:E197"/>
-    <mergeCell ref="C198:E198"/>
-    <mergeCell ref="C199:E199"/>
-    <mergeCell ref="C200:E200"/>
-    <mergeCell ref="C201:E201"/>
-    <mergeCell ref="C202:E202"/>
-    <mergeCell ref="C203:E203"/>
-    <mergeCell ref="C204:E204"/>
-    <mergeCell ref="C205:E205"/>
-    <mergeCell ref="C206:E206"/>
-    <mergeCell ref="C207:E207"/>
-    <mergeCell ref="C208:E208"/>
-    <mergeCell ref="C209:E209"/>
-    <mergeCell ref="C210:E210"/>
-    <mergeCell ref="C211:E211"/>
-    <mergeCell ref="C212:E212"/>
-    <mergeCell ref="B217:E217"/>
-    <mergeCell ref="B218:E218"/>
-    <mergeCell ref="B219:E219"/>
-    <mergeCell ref="B220:E220"/>
-    <mergeCell ref="B221:E221"/>
-    <mergeCell ref="D226:F226"/>
-    <mergeCell ref="D227:F227"/>
+    <mergeCell ref="B176:B177"/>
+    <mergeCell ref="B178:B182"/>
+    <mergeCell ref="B197:B198"/>
+    <mergeCell ref="B199:B200"/>
+    <mergeCell ref="B201:B202"/>
+    <mergeCell ref="B147:B159"/>
+    <mergeCell ref="B160:B161"/>
+    <mergeCell ref="B162:B164"/>
+    <mergeCell ref="B165:B172"/>
+    <mergeCell ref="B173:B175"/>
     <mergeCell ref="D233:F233"/>
     <mergeCell ref="D234:F234"/>
     <mergeCell ref="D238:F238"/>
@@ -9101,16 +9066,31 @@
     <mergeCell ref="D230:F230"/>
     <mergeCell ref="D231:F231"/>
     <mergeCell ref="D232:F232"/>
-    <mergeCell ref="B147:B159"/>
-    <mergeCell ref="B160:B161"/>
-    <mergeCell ref="B162:B164"/>
-    <mergeCell ref="B165:B172"/>
-    <mergeCell ref="B173:B175"/>
-    <mergeCell ref="B176:B177"/>
-    <mergeCell ref="B178:B182"/>
-    <mergeCell ref="B197:B198"/>
-    <mergeCell ref="B199:B200"/>
-    <mergeCell ref="B201:B202"/>
+    <mergeCell ref="B219:E219"/>
+    <mergeCell ref="B220:E220"/>
+    <mergeCell ref="B221:E221"/>
+    <mergeCell ref="D226:F226"/>
+    <mergeCell ref="D227:F227"/>
+    <mergeCell ref="C210:E210"/>
+    <mergeCell ref="C211:E211"/>
+    <mergeCell ref="C212:E212"/>
+    <mergeCell ref="B217:E217"/>
+    <mergeCell ref="B218:E218"/>
+    <mergeCell ref="C205:E205"/>
+    <mergeCell ref="C206:E206"/>
+    <mergeCell ref="C207:E207"/>
+    <mergeCell ref="C208:E208"/>
+    <mergeCell ref="C209:E209"/>
+    <mergeCell ref="C200:E200"/>
+    <mergeCell ref="C201:E201"/>
+    <mergeCell ref="C202:E202"/>
+    <mergeCell ref="C203:E203"/>
+    <mergeCell ref="C204:E204"/>
+    <mergeCell ref="F111:N111"/>
+    <mergeCell ref="C196:E196"/>
+    <mergeCell ref="C197:E197"/>
+    <mergeCell ref="C198:E198"/>
+    <mergeCell ref="C199:E199"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -9133,15 +9113,15 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
+    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}">
+      <selection activeCell="E26" sqref="E26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}">
       <selection activeCell="E26" sqref="E26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}">
-      <selection activeCell="E26" sqref="E26"/>
+    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>

--- a/tmp_client/doc/TMP_EIT_suites/radiant/silicon_06_jedi_d1.xlsx
+++ b/tmp_client/doc/TMP_EIT_suites/radiant/silicon_06_jedi_d1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwang1\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\repository\tmp_client\doc\TMP_EIT_suites\radiant\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="40MRd5r6vR/eXVUGbL7aEMM1NO6mwC4SojgFQmqHtZOqnQZBLsdr03u6GYWM/ftoMUNBO+KP7cdpMmOVZ0x4WQ==" workbookSaltValue="I+dbibQaVxj+tsXuP7uNKg==" workbookSpinCount="100000" lockStructure="1"/>
@@ -26,15 +26,15 @@
   </definedNames>
   <calcPr calcId="144525" calcOnSave="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Jason Wang - Personal View" guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="2"/>
+    <customWorkbookView name="Xueying Li - Personal View" guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}" personalView="1" yWindow="337" windowWidth="1878" windowHeight="703" activeSheetId="1"/>
     <customWorkbookView name="Cherry Xu - Personal View" guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" personalView="1" maximized="1" windowWidth="1916" windowHeight="835" activeSheetId="2"/>
-    <customWorkbookView name="Xueying Li - Personal View" guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}" personalView="1" yWindow="337" windowWidth="1878" windowHeight="703" activeSheetId="1"/>
-    <customWorkbookView name="Jason Wang - Personal View" guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="2"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="343">
   <si>
     <t>[suite_info]</t>
   </si>
@@ -1057,9 +1057,6 @@
   </si>
   <si>
     <t xml:space="preserve">cmd = python DEV/bin/run_radiant.py  --run-map-trce  --run-par-trce   --synthesis=lse </t>
-  </si>
-  <si>
-    <t>PNMAIN_ENABLE_BITGEN=1</t>
   </si>
   <si>
     <t>Jeffrey.Ye</t>
@@ -1892,106 +1889,106 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="35" xfId="4" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -4777,9 +4774,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="15" style="61" customWidth="1"/>
     <col min="2" max="2" width="28" style="61" customWidth="1"/>
@@ -4791,7 +4790,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="61" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4799,7 +4798,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="61" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4807,7 +4806,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="61" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4827,9 +4826,7 @@
       <c r="A6" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="76" t="s">
-        <v>339</v>
-      </c>
+      <c r="B6" s="76"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="61" t="s">
@@ -4844,7 +4841,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="61" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4964,10 +4961,9 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="BrxOpSv5Qn+u2wRjM+utC6UYLrvUI+Gay+w6zPQp8zz+/5I1udizjqbZ6brqgp9h1Ud3zJVEOn/q/bgrm9i81A==" saltValue="wt9VphKaQ5GnARCLMZGRjA==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <customSheetViews>
-    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}">
-      <selection activeCell="B35" sqref="B35"/>
+    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
     </customSheetView>
@@ -4976,7 +4972,8 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
     </customSheetView>
-    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
+    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}">
+      <selection activeCell="B35" sqref="B35"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
     </customSheetView>
@@ -4997,32 +4994,32 @@
       <selection pane="bottomRight" activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="61" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="61" customWidth="1"/>
     <col min="2" max="2" width="9" style="61" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" style="61" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="61" customWidth="1"/>
-    <col min="5" max="5" width="30.28515625" style="61" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="61" customWidth="1"/>
+    <col min="3" max="3" width="33.33203125" style="61" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="61" customWidth="1"/>
+    <col min="5" max="5" width="30.33203125" style="61" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="61" customWidth="1"/>
     <col min="7" max="7" width="24" style="61" customWidth="1"/>
     <col min="8" max="8" width="37" style="61" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="61" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" style="61" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" style="61" customWidth="1"/>
+    <col min="10" max="10" width="9.88671875" style="61" customWidth="1"/>
     <col min="11" max="11" width="12" style="61" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" style="62" customWidth="1"/>
+    <col min="12" max="12" width="9.5546875" style="62" customWidth="1"/>
     <col min="13" max="13" width="38" style="61" customWidth="1"/>
-    <col min="14" max="14" width="19.42578125" style="61" customWidth="1"/>
-    <col min="15" max="15" width="30.28515625" style="61" customWidth="1"/>
-    <col min="16" max="16" width="17.28515625" style="61" customWidth="1"/>
-    <col min="17" max="17" width="15.42578125" style="61" customWidth="1"/>
+    <col min="14" max="14" width="19.44140625" style="61" customWidth="1"/>
+    <col min="15" max="15" width="30.33203125" style="61" customWidth="1"/>
+    <col min="16" max="16" width="17.33203125" style="61" customWidth="1"/>
+    <col min="17" max="17" width="15.44140625" style="61" customWidth="1"/>
     <col min="18" max="18" width="13" style="61" customWidth="1"/>
-    <col min="19" max="19" width="9.7109375" style="61" customWidth="1"/>
-    <col min="20" max="20" width="9.42578125" style="61" customWidth="1"/>
+    <col min="19" max="19" width="9.6640625" style="61" customWidth="1"/>
+    <col min="20" max="20" width="9.44140625" style="61" customWidth="1"/>
     <col min="21" max="21" width="11" style="61" customWidth="1"/>
-    <col min="22" max="22" width="11.7109375" style="61" customWidth="1"/>
+    <col min="22" max="22" width="11.6640625" style="61" customWidth="1"/>
     <col min="23" max="28" width="9" style="61"/>
-    <col min="29" max="29" width="10.140625" style="61" customWidth="1"/>
+    <col min="29" max="29" width="10.109375" style="61" customWidth="1"/>
     <col min="30" max="16384" width="9" style="61"/>
   </cols>
   <sheetData>
@@ -6537,12 +6534,12 @@
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <autoFilter ref="A2:AD100"/>
   <customSheetViews>
-    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" scale="85" showAutoFilter="1">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" state="frozen"/>
-      <selection activeCell="C23" sqref="C23"/>
+    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" scale="85" showAutoFilter="1">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="M38" sqref="M38"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
-      <autoFilter ref="A2:Y2"/>
+      <autoFilter ref="A2:AD46"/>
     </customSheetView>
     <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}" scale="85" showAutoFilter="1">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" state="frozen"/>
@@ -6551,12 +6548,12 @@
       <pageSetup paperSize="9" orientation="portrait"/>
       <autoFilter ref="A2:Y2"/>
     </customSheetView>
-    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" scale="85" showAutoFilter="1">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="M38" sqref="M38"/>
+    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" scale="85" showAutoFilter="1">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" state="frozen"/>
+      <selection activeCell="C23" sqref="C23"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
-      <autoFilter ref="A2:AD46"/>
+      <autoFilter ref="A2:Y2"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="2">
@@ -6635,18 +6632,18 @@
       <selection activeCell="B185" sqref="B185"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.88671875" style="1" customWidth="1"/>
     <col min="6" max="6" width="32" style="1" customWidth="1"/>
-    <col min="7" max="7" width="31.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="28.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="31.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="28.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -6693,17 +6690,17 @@
       <c r="E111" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F111" s="81" t="s">
+      <c r="F111" s="111" t="s">
         <v>48</v>
       </c>
-      <c r="G111" s="82"/>
-      <c r="H111" s="82"/>
-      <c r="I111" s="82"/>
-      <c r="J111" s="82"/>
-      <c r="K111" s="82"/>
-      <c r="L111" s="82"/>
-      <c r="M111" s="82"/>
-      <c r="N111" s="83"/>
+      <c r="G111" s="112"/>
+      <c r="H111" s="112"/>
+      <c r="I111" s="112"/>
+      <c r="J111" s="112"/>
+      <c r="K111" s="112"/>
+      <c r="L111" s="112"/>
+      <c r="M111" s="112"/>
+      <c r="N111" s="113"/>
     </row>
     <row r="112" spans="1:14">
       <c r="A112" s="6" t="s">
@@ -7567,7 +7564,7 @@
       <c r="A147" s="19">
         <v>1</v>
       </c>
-      <c r="B147" s="111" t="s">
+      <c r="B147" s="81" t="s">
         <v>3</v>
       </c>
       <c r="C147" s="65" t="s">
@@ -7593,7 +7590,7 @@
       <c r="A148" s="19">
         <v>2</v>
       </c>
-      <c r="B148" s="112"/>
+      <c r="B148" s="82"/>
       <c r="C148" s="21" t="s">
         <v>81</v>
       </c>
@@ -7615,7 +7612,7 @@
       <c r="A149" s="19">
         <v>3</v>
       </c>
-      <c r="B149" s="112"/>
+      <c r="B149" s="82"/>
       <c r="C149" s="21" t="s">
         <v>16</v>
       </c>
@@ -7633,7 +7630,7 @@
       <c r="A150" s="19">
         <v>4</v>
       </c>
-      <c r="B150" s="112"/>
+      <c r="B150" s="82"/>
       <c r="C150" s="21" t="s">
         <v>83</v>
       </c>
@@ -7655,7 +7652,7 @@
       <c r="A151" s="19">
         <v>5</v>
       </c>
-      <c r="B151" s="112"/>
+      <c r="B151" s="82"/>
       <c r="C151" s="65" t="s">
         <v>85</v>
       </c>
@@ -7679,7 +7676,7 @@
       <c r="A152" s="19">
         <v>6</v>
       </c>
-      <c r="B152" s="112"/>
+      <c r="B152" s="82"/>
       <c r="C152" s="65" t="s">
         <v>89</v>
       </c>
@@ -7703,7 +7700,7 @@
       <c r="A153" s="19">
         <v>7</v>
       </c>
-      <c r="B153" s="112"/>
+      <c r="B153" s="82"/>
       <c r="C153" s="21" t="s">
         <v>91</v>
       </c>
@@ -7723,7 +7720,7 @@
       <c r="A154" s="19">
         <v>8</v>
       </c>
-      <c r="B154" s="112"/>
+      <c r="B154" s="82"/>
       <c r="C154" s="65" t="s">
         <v>92</v>
       </c>
@@ -7745,7 +7742,7 @@
       <c r="A155" s="19">
         <v>9</v>
       </c>
-      <c r="B155" s="112"/>
+      <c r="B155" s="82"/>
       <c r="C155" s="65" t="s">
         <v>93</v>
       </c>
@@ -7769,7 +7766,7 @@
       <c r="A156" s="19">
         <v>10</v>
       </c>
-      <c r="B156" s="112"/>
+      <c r="B156" s="82"/>
       <c r="C156" s="21" t="s">
         <v>94</v>
       </c>
@@ -7793,7 +7790,7 @@
       <c r="A157" s="19">
         <v>11</v>
       </c>
-      <c r="B157" s="112"/>
+      <c r="B157" s="82"/>
       <c r="C157" s="21" t="s">
         <v>95</v>
       </c>
@@ -7815,7 +7812,7 @@
       <c r="A158" s="19">
         <v>12</v>
       </c>
-      <c r="B158" s="112"/>
+      <c r="B158" s="82"/>
       <c r="C158" s="21" t="s">
         <v>97</v>
       </c>
@@ -7837,7 +7834,7 @@
       <c r="A159" s="19">
         <v>13</v>
       </c>
-      <c r="B159" s="98"/>
+      <c r="B159" s="89"/>
       <c r="C159" s="21" t="s">
         <v>101</v>
       </c>
@@ -7861,7 +7858,7 @@
       <c r="A160" s="19">
         <v>14</v>
       </c>
-      <c r="B160" s="93" t="s">
+      <c r="B160" s="90" t="s">
         <v>4</v>
       </c>
       <c r="C160" s="21" t="s">
@@ -7887,7 +7884,7 @@
       <c r="A161" s="19">
         <v>15</v>
       </c>
-      <c r="B161" s="94"/>
+      <c r="B161" s="87"/>
       <c r="C161" s="21" t="s">
         <v>108</v>
       </c>
@@ -7911,7 +7908,7 @@
       <c r="A162" s="70">
         <v>16</v>
       </c>
-      <c r="B162" s="111" t="s">
+      <c r="B162" s="81" t="s">
         <v>5</v>
       </c>
       <c r="C162" s="21" t="s">
@@ -7935,7 +7932,7 @@
       <c r="A163" s="70">
         <v>17</v>
       </c>
-      <c r="B163" s="113"/>
+      <c r="B163" s="91"/>
       <c r="C163" s="69" t="s">
         <v>219</v>
       </c>
@@ -7957,7 +7954,7 @@
       <c r="A164" s="70">
         <v>18</v>
       </c>
-      <c r="B164" s="98"/>
+      <c r="B164" s="89"/>
       <c r="C164" s="65" t="s">
         <v>112</v>
       </c>
@@ -7977,7 +7974,7 @@
       <c r="A165" s="70">
         <v>19</v>
       </c>
-      <c r="B165" s="93" t="s">
+      <c r="B165" s="90" t="s">
         <v>6</v>
       </c>
       <c r="C165" s="21" t="s">
@@ -8001,7 +7998,7 @@
       <c r="A166" s="70">
         <v>20</v>
       </c>
-      <c r="B166" s="94"/>
+      <c r="B166" s="87"/>
       <c r="C166" s="21" t="s">
         <v>117</v>
       </c>
@@ -8021,7 +8018,7 @@
       <c r="A167" s="70">
         <v>21</v>
       </c>
-      <c r="B167" s="94"/>
+      <c r="B167" s="87"/>
       <c r="C167" s="21" t="s">
         <v>118</v>
       </c>
@@ -8041,7 +8038,7 @@
       <c r="A168" s="70">
         <v>22</v>
       </c>
-      <c r="B168" s="94"/>
+      <c r="B168" s="87"/>
       <c r="C168" s="21" t="s">
         <v>119</v>
       </c>
@@ -8061,7 +8058,7 @@
       <c r="A169" s="70">
         <v>23</v>
       </c>
-      <c r="B169" s="94"/>
+      <c r="B169" s="87"/>
       <c r="C169" s="21" t="s">
         <v>120</v>
       </c>
@@ -8081,7 +8078,7 @@
       <c r="A170" s="70">
         <v>24</v>
       </c>
-      <c r="B170" s="94"/>
+      <c r="B170" s="87"/>
       <c r="C170" s="21" t="s">
         <v>121</v>
       </c>
@@ -8101,7 +8098,7 @@
       <c r="A171" s="70">
         <v>25</v>
       </c>
-      <c r="B171" s="94"/>
+      <c r="B171" s="87"/>
       <c r="C171" s="21" t="s">
         <v>122</v>
       </c>
@@ -8121,7 +8118,7 @@
       <c r="A172" s="70">
         <v>26</v>
       </c>
-      <c r="B172" s="94"/>
+      <c r="B172" s="87"/>
       <c r="C172" s="21" t="s">
         <v>38</v>
       </c>
@@ -8137,11 +8134,11 @@
       </c>
       <c r="H172" s="11"/>
     </row>
-    <row r="173" spans="1:8" ht="90">
+    <row r="173" spans="1:8" ht="86.4">
       <c r="A173" s="19">
         <v>27</v>
       </c>
-      <c r="B173" s="93" t="s">
+      <c r="B173" s="90" t="s">
         <v>7</v>
       </c>
       <c r="C173" s="21" t="s">
@@ -8165,7 +8162,7 @@
       <c r="A174" s="19">
         <v>28</v>
       </c>
-      <c r="B174" s="94"/>
+      <c r="B174" s="87"/>
       <c r="C174" s="65" t="s">
         <v>126</v>
       </c>
@@ -8187,7 +8184,7 @@
       <c r="A175" s="19">
         <v>29</v>
       </c>
-      <c r="B175" s="94"/>
+      <c r="B175" s="87"/>
       <c r="C175" s="21" t="s">
         <v>129</v>
       </c>
@@ -8209,7 +8206,7 @@
       <c r="A176" s="19">
         <v>30</v>
       </c>
-      <c r="B176" s="111" t="s">
+      <c r="B176" s="81" t="s">
         <v>8</v>
       </c>
       <c r="C176" s="21" t="s">
@@ -8235,7 +8232,7 @@
       <c r="A177" s="23">
         <v>31</v>
       </c>
-      <c r="B177" s="112"/>
+      <c r="B177" s="82"/>
       <c r="C177" s="20" t="s">
         <v>135</v>
       </c>
@@ -8259,7 +8256,7 @@
       <c r="A178" s="16">
         <v>32</v>
       </c>
-      <c r="B178" s="114" t="s">
+      <c r="B178" s="83" t="s">
         <v>137</v>
       </c>
       <c r="C178" s="66" t="s">
@@ -8283,7 +8280,7 @@
       <c r="A179" s="19">
         <v>33</v>
       </c>
-      <c r="B179" s="115"/>
+      <c r="B179" s="84"/>
       <c r="C179" s="65" t="s">
         <v>141</v>
       </c>
@@ -8305,7 +8302,7 @@
       <c r="A180" s="19">
         <v>34</v>
       </c>
-      <c r="B180" s="116"/>
+      <c r="B180" s="85"/>
       <c r="C180" s="67" t="s">
         <v>144</v>
       </c>
@@ -8327,7 +8324,7 @@
       <c r="A181" s="25">
         <v>35</v>
       </c>
-      <c r="B181" s="116"/>
+      <c r="B181" s="85"/>
       <c r="C181" s="67" t="s">
         <v>145</v>
       </c>
@@ -8349,7 +8346,7 @@
       <c r="A182" s="28">
         <v>36</v>
       </c>
-      <c r="B182" s="102"/>
+      <c r="B182" s="86"/>
       <c r="C182" s="29" t="s">
         <v>148</v>
       </c>
@@ -8396,11 +8393,11 @@
       <c r="B196" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="C196" s="84" t="s">
+      <c r="C196" s="114" t="s">
         <v>157</v>
       </c>
-      <c r="D196" s="84"/>
-      <c r="E196" s="84"/>
+      <c r="D196" s="114"/>
+      <c r="E196" s="114"/>
       <c r="F196" s="33" t="s">
         <v>158</v>
       </c>
@@ -8409,17 +8406,17 @@
       </c>
     </row>
     <row r="197" spans="1:7">
-      <c r="A197" s="109" t="s">
+      <c r="A197" s="96" t="s">
         <v>160</v>
       </c>
-      <c r="B197" s="94" t="s">
+      <c r="B197" s="87" t="s">
         <v>161</v>
       </c>
-      <c r="C197" s="85" t="s">
+      <c r="C197" s="115" t="s">
         <v>162</v>
       </c>
-      <c r="D197" s="86"/>
-      <c r="E197" s="86"/>
+      <c r="D197" s="116"/>
+      <c r="E197" s="116"/>
       <c r="F197" s="21" t="s">
         <v>163</v>
       </c>
@@ -8428,13 +8425,13 @@
       </c>
     </row>
     <row r="198" spans="1:7">
-      <c r="A198" s="109"/>
-      <c r="B198" s="117"/>
-      <c r="C198" s="87" t="s">
+      <c r="A198" s="96"/>
+      <c r="B198" s="88"/>
+      <c r="C198" s="106" t="s">
         <v>162</v>
       </c>
-      <c r="D198" s="88"/>
-      <c r="E198" s="88"/>
+      <c r="D198" s="117"/>
+      <c r="E198" s="117"/>
       <c r="F198" s="20" t="s">
         <v>165</v>
       </c>
@@ -8443,15 +8440,15 @@
       </c>
     </row>
     <row r="199" spans="1:7">
-      <c r="A199" s="109"/>
-      <c r="B199" s="94" t="s">
+      <c r="A199" s="96"/>
+      <c r="B199" s="87" t="s">
         <v>166</v>
       </c>
-      <c r="C199" s="89" t="s">
+      <c r="C199" s="110" t="s">
         <v>167</v>
       </c>
-      <c r="D199" s="89"/>
-      <c r="E199" s="89"/>
+      <c r="D199" s="110"/>
+      <c r="E199" s="110"/>
       <c r="F199" s="21" t="s">
         <v>163</v>
       </c>
@@ -8460,13 +8457,13 @@
       </c>
     </row>
     <row r="200" spans="1:7">
-      <c r="A200" s="109"/>
-      <c r="B200" s="94"/>
-      <c r="C200" s="87" t="s">
+      <c r="A200" s="96"/>
+      <c r="B200" s="87"/>
+      <c r="C200" s="106" t="s">
         <v>167</v>
       </c>
-      <c r="D200" s="87"/>
-      <c r="E200" s="87"/>
+      <c r="D200" s="106"/>
+      <c r="E200" s="106"/>
       <c r="F200" s="21" t="s">
         <v>165</v>
       </c>
@@ -8475,15 +8472,15 @@
       </c>
     </row>
     <row r="201" spans="1:7">
-      <c r="A201" s="109"/>
-      <c r="B201" s="117" t="s">
+      <c r="A201" s="96"/>
+      <c r="B201" s="88" t="s">
         <v>168</v>
       </c>
-      <c r="C201" s="90" t="s">
+      <c r="C201" s="107" t="s">
         <v>162</v>
       </c>
-      <c r="D201" s="91"/>
-      <c r="E201" s="92"/>
+      <c r="D201" s="108"/>
+      <c r="E201" s="109"/>
       <c r="F201" s="21" t="s">
         <v>163</v>
       </c>
@@ -8492,13 +8489,13 @@
       </c>
     </row>
     <row r="202" spans="1:7">
-      <c r="A202" s="109"/>
-      <c r="B202" s="98"/>
-      <c r="C202" s="90" t="s">
+      <c r="A202" s="96"/>
+      <c r="B202" s="89"/>
+      <c r="C202" s="107" t="s">
         <v>162</v>
       </c>
-      <c r="D202" s="91"/>
-      <c r="E202" s="92"/>
+      <c r="D202" s="108"/>
+      <c r="E202" s="109"/>
       <c r="F202" s="21" t="s">
         <v>165</v>
       </c>
@@ -8507,15 +8504,15 @@
       </c>
     </row>
     <row r="203" spans="1:7">
-      <c r="A203" s="109"/>
-      <c r="B203" s="94" t="s">
+      <c r="A203" s="96"/>
+      <c r="B203" s="87" t="s">
         <v>169</v>
       </c>
-      <c r="C203" s="89" t="s">
+      <c r="C203" s="110" t="s">
         <v>170</v>
       </c>
-      <c r="D203" s="89"/>
-      <c r="E203" s="89"/>
+      <c r="D203" s="110"/>
+      <c r="E203" s="110"/>
       <c r="F203" s="21" t="s">
         <v>163</v>
       </c>
@@ -8524,13 +8521,13 @@
       </c>
     </row>
     <row r="204" spans="1:7">
-      <c r="A204" s="109"/>
-      <c r="B204" s="94"/>
-      <c r="C204" s="89" t="s">
+      <c r="A204" s="96"/>
+      <c r="B204" s="87"/>
+      <c r="C204" s="110" t="s">
         <v>170</v>
       </c>
-      <c r="D204" s="89"/>
-      <c r="E204" s="89"/>
+      <c r="D204" s="110"/>
+      <c r="E204" s="110"/>
       <c r="F204" s="21" t="s">
         <v>165</v>
       </c>
@@ -8539,17 +8536,17 @@
       </c>
     </row>
     <row r="205" spans="1:7">
-      <c r="A205" s="109" t="s">
+      <c r="A205" s="96" t="s">
         <v>171</v>
       </c>
-      <c r="B205" s="94" t="s">
+      <c r="B205" s="87" t="s">
         <v>172</v>
       </c>
-      <c r="C205" s="93" t="s">
+      <c r="C205" s="90" t="s">
         <v>173</v>
       </c>
-      <c r="D205" s="94"/>
-      <c r="E205" s="94"/>
+      <c r="D205" s="87"/>
+      <c r="E205" s="87"/>
       <c r="F205" s="21" t="s">
         <v>163</v>
       </c>
@@ -8558,13 +8555,13 @@
       </c>
     </row>
     <row r="206" spans="1:7">
-      <c r="A206" s="109"/>
-      <c r="B206" s="94"/>
-      <c r="C206" s="94" t="s">
+      <c r="A206" s="96"/>
+      <c r="B206" s="87"/>
+      <c r="C206" s="87" t="s">
         <v>174</v>
       </c>
-      <c r="D206" s="94"/>
-      <c r="E206" s="94"/>
+      <c r="D206" s="87"/>
+      <c r="E206" s="87"/>
       <c r="F206" s="21" t="s">
         <v>165</v>
       </c>
@@ -8573,15 +8570,15 @@
       </c>
     </row>
     <row r="207" spans="1:7">
-      <c r="A207" s="109"/>
-      <c r="B207" s="94" t="s">
+      <c r="A207" s="96"/>
+      <c r="B207" s="87" t="s">
         <v>176</v>
       </c>
-      <c r="C207" s="94" t="s">
+      <c r="C207" s="87" t="s">
         <v>177</v>
       </c>
-      <c r="D207" s="94"/>
-      <c r="E207" s="94"/>
+      <c r="D207" s="87"/>
+      <c r="E207" s="87"/>
       <c r="F207" s="21" t="s">
         <v>163</v>
       </c>
@@ -8590,13 +8587,13 @@
       </c>
     </row>
     <row r="208" spans="1:7">
-      <c r="A208" s="109"/>
-      <c r="B208" s="94"/>
-      <c r="C208" s="94" t="s">
+      <c r="A208" s="96"/>
+      <c r="B208" s="87"/>
+      <c r="C208" s="87" t="s">
         <v>178</v>
       </c>
-      <c r="D208" s="94"/>
-      <c r="E208" s="94"/>
+      <c r="D208" s="87"/>
+      <c r="E208" s="87"/>
       <c r="F208" s="21" t="s">
         <v>165</v>
       </c>
@@ -8605,17 +8602,17 @@
       </c>
     </row>
     <row r="209" spans="1:7">
-      <c r="A209" s="109" t="s">
+      <c r="A209" s="96" t="s">
         <v>179</v>
       </c>
-      <c r="B209" s="94" t="s">
+      <c r="B209" s="87" t="s">
         <v>180</v>
       </c>
-      <c r="C209" s="93" t="s">
+      <c r="C209" s="90" t="s">
         <v>181</v>
       </c>
-      <c r="D209" s="94"/>
-      <c r="E209" s="94"/>
+      <c r="D209" s="87"/>
+      <c r="E209" s="87"/>
       <c r="F209" s="21" t="s">
         <v>163</v>
       </c>
@@ -8624,13 +8621,13 @@
       </c>
     </row>
     <row r="210" spans="1:7">
-      <c r="A210" s="109"/>
-      <c r="B210" s="94"/>
-      <c r="C210" s="94" t="s">
+      <c r="A210" s="96"/>
+      <c r="B210" s="87"/>
+      <c r="C210" s="87" t="s">
         <v>182</v>
       </c>
-      <c r="D210" s="94"/>
-      <c r="E210" s="94"/>
+      <c r="D210" s="87"/>
+      <c r="E210" s="87"/>
       <c r="F210" s="21" t="s">
         <v>165</v>
       </c>
@@ -8639,15 +8636,15 @@
       </c>
     </row>
     <row r="211" spans="1:7">
-      <c r="A211" s="109"/>
-      <c r="B211" s="94" t="s">
+      <c r="A211" s="96"/>
+      <c r="B211" s="87" t="s">
         <v>183</v>
       </c>
-      <c r="C211" s="93" t="s">
+      <c r="C211" s="90" t="s">
         <v>184</v>
       </c>
-      <c r="D211" s="94"/>
-      <c r="E211" s="94"/>
+      <c r="D211" s="87"/>
+      <c r="E211" s="87"/>
       <c r="F211" s="21" t="s">
         <v>163</v>
       </c>
@@ -8656,13 +8653,13 @@
       </c>
     </row>
     <row r="212" spans="1:7">
-      <c r="A212" s="110"/>
-      <c r="B212" s="95"/>
-      <c r="C212" s="95" t="s">
+      <c r="A212" s="97"/>
+      <c r="B212" s="98"/>
+      <c r="C212" s="98" t="s">
         <v>185</v>
       </c>
-      <c r="D212" s="95"/>
-      <c r="E212" s="95"/>
+      <c r="D212" s="98"/>
+      <c r="E212" s="98"/>
       <c r="F212" s="29" t="s">
         <v>165</v>
       </c>
@@ -8701,12 +8698,12 @@
       <c r="A217" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="B217" s="96" t="s">
+      <c r="B217" s="104" t="s">
         <v>189</v>
       </c>
-      <c r="C217" s="96"/>
-      <c r="D217" s="96"/>
-      <c r="E217" s="96"/>
+      <c r="C217" s="104"/>
+      <c r="D217" s="104"/>
+      <c r="E217" s="104"/>
       <c r="F217" s="39" t="s">
         <v>190</v>
       </c>
@@ -8718,12 +8715,12 @@
       <c r="A218" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="B218" s="97" t="s">
+      <c r="B218" s="105" t="s">
         <v>193</v>
       </c>
-      <c r="C218" s="98"/>
-      <c r="D218" s="98"/>
-      <c r="E218" s="98"/>
+      <c r="C218" s="89"/>
+      <c r="D218" s="89"/>
+      <c r="E218" s="89"/>
       <c r="F218" s="42" t="s">
         <v>62</v>
       </c>
@@ -8735,12 +8732,12 @@
       <c r="A219" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="B219" s="99" t="s">
+      <c r="B219" s="100" t="s">
         <v>195</v>
       </c>
-      <c r="C219" s="100"/>
-      <c r="D219" s="100"/>
-      <c r="E219" s="101"/>
+      <c r="C219" s="101"/>
+      <c r="D219" s="101"/>
+      <c r="E219" s="102"/>
       <c r="F219" s="9" t="s">
         <v>164</v>
       </c>
@@ -8752,12 +8749,12 @@
       <c r="A220" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="B220" s="99" t="s">
+      <c r="B220" s="100" t="s">
         <v>197</v>
       </c>
-      <c r="C220" s="100"/>
-      <c r="D220" s="100"/>
-      <c r="E220" s="101"/>
+      <c r="C220" s="101"/>
+      <c r="D220" s="101"/>
+      <c r="E220" s="102"/>
       <c r="F220" s="13" t="s">
         <v>164</v>
       </c>
@@ -8769,12 +8766,12 @@
       <c r="A221" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="B221" s="102" t="s">
+      <c r="B221" s="86" t="s">
         <v>199</v>
       </c>
-      <c r="C221" s="95"/>
-      <c r="D221" s="95"/>
-      <c r="E221" s="95"/>
+      <c r="C221" s="98"/>
+      <c r="D221" s="98"/>
+      <c r="E221" s="98"/>
       <c r="F221" s="15" t="s">
         <v>164</v>
       </c>
@@ -8836,11 +8833,11 @@
       <c r="C227" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="D227" s="104" t="s">
+      <c r="D227" s="99" t="s">
         <v>206</v>
       </c>
-      <c r="E227" s="104"/>
-      <c r="F227" s="104"/>
+      <c r="E227" s="99"/>
+      <c r="F227" s="99"/>
       <c r="G227" s="35"/>
     </row>
     <row r="228" spans="1:7">
@@ -8853,11 +8850,11 @@
       <c r="C228" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="D228" s="104" t="s">
+      <c r="D228" s="99" t="s">
         <v>207</v>
       </c>
-      <c r="E228" s="104"/>
-      <c r="F228" s="104"/>
+      <c r="E228" s="99"/>
+      <c r="F228" s="99"/>
       <c r="G228" s="35"/>
     </row>
     <row r="229" spans="1:7">
@@ -8870,11 +8867,11 @@
       <c r="C229" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="D229" s="104" t="s">
+      <c r="D229" s="99" t="s">
         <v>208</v>
       </c>
-      <c r="E229" s="104"/>
-      <c r="F229" s="104"/>
+      <c r="E229" s="99"/>
+      <c r="F229" s="99"/>
       <c r="G229" s="35"/>
     </row>
     <row r="230" spans="1:7">
@@ -8887,11 +8884,11 @@
       <c r="C230" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="D230" s="104" t="s">
+      <c r="D230" s="99" t="s">
         <v>209</v>
       </c>
-      <c r="E230" s="104"/>
-      <c r="F230" s="104"/>
+      <c r="E230" s="99"/>
+      <c r="F230" s="99"/>
       <c r="G230" s="35"/>
     </row>
     <row r="231" spans="1:7">
@@ -8904,11 +8901,11 @@
       <c r="C231" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="D231" s="104" t="s">
+      <c r="D231" s="99" t="s">
         <v>210</v>
       </c>
-      <c r="E231" s="104"/>
-      <c r="F231" s="104"/>
+      <c r="E231" s="99"/>
+      <c r="F231" s="99"/>
       <c r="G231" s="35"/>
     </row>
     <row r="232" spans="1:7">
@@ -8921,11 +8918,11 @@
       <c r="C232" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="D232" s="105" t="s">
+      <c r="D232" s="92" t="s">
         <v>211</v>
       </c>
-      <c r="E232" s="106"/>
-      <c r="F232" s="107"/>
+      <c r="E232" s="93"/>
+      <c r="F232" s="94"/>
       <c r="G232" s="36"/>
     </row>
     <row r="233" spans="1:7">
@@ -8938,11 +8935,11 @@
       <c r="C233" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="D233" s="105" t="s">
+      <c r="D233" s="92" t="s">
         <v>212</v>
       </c>
-      <c r="E233" s="106"/>
-      <c r="F233" s="107"/>
+      <c r="E233" s="93"/>
+      <c r="F233" s="94"/>
       <c r="G233" s="36"/>
     </row>
     <row r="234" spans="1:7">
@@ -8955,11 +8952,11 @@
       <c r="C234" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="D234" s="105" t="s">
+      <c r="D234" s="92" t="s">
         <v>213</v>
       </c>
-      <c r="E234" s="106"/>
-      <c r="F234" s="107"/>
+      <c r="E234" s="93"/>
+      <c r="F234" s="94"/>
       <c r="G234" s="36"/>
     </row>
     <row r="235" spans="1:7">
@@ -9023,11 +9020,11 @@
       <c r="C238" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="D238" s="108" t="s">
+      <c r="D238" s="95" t="s">
         <v>217</v>
       </c>
-      <c r="E238" s="108"/>
-      <c r="F238" s="108"/>
+      <c r="E238" s="95"/>
+      <c r="F238" s="95"/>
       <c r="G238" s="37"/>
     </row>
   </sheetData>
@@ -9040,16 +9037,31 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="51">
-    <mergeCell ref="B176:B177"/>
-    <mergeCell ref="B178:B182"/>
-    <mergeCell ref="B197:B198"/>
-    <mergeCell ref="B199:B200"/>
-    <mergeCell ref="B201:B202"/>
-    <mergeCell ref="B147:B159"/>
-    <mergeCell ref="B160:B161"/>
-    <mergeCell ref="B162:B164"/>
-    <mergeCell ref="B165:B172"/>
-    <mergeCell ref="B173:B175"/>
+    <mergeCell ref="F111:N111"/>
+    <mergeCell ref="C196:E196"/>
+    <mergeCell ref="C197:E197"/>
+    <mergeCell ref="C198:E198"/>
+    <mergeCell ref="C199:E199"/>
+    <mergeCell ref="C200:E200"/>
+    <mergeCell ref="C201:E201"/>
+    <mergeCell ref="C202:E202"/>
+    <mergeCell ref="C203:E203"/>
+    <mergeCell ref="C204:E204"/>
+    <mergeCell ref="C205:E205"/>
+    <mergeCell ref="C206:E206"/>
+    <mergeCell ref="C207:E207"/>
+    <mergeCell ref="C208:E208"/>
+    <mergeCell ref="C209:E209"/>
+    <mergeCell ref="C210:E210"/>
+    <mergeCell ref="C211:E211"/>
+    <mergeCell ref="C212:E212"/>
+    <mergeCell ref="B217:E217"/>
+    <mergeCell ref="B218:E218"/>
+    <mergeCell ref="B219:E219"/>
+    <mergeCell ref="B220:E220"/>
+    <mergeCell ref="B221:E221"/>
+    <mergeCell ref="D226:F226"/>
+    <mergeCell ref="D227:F227"/>
     <mergeCell ref="D233:F233"/>
     <mergeCell ref="D234:F234"/>
     <mergeCell ref="D238:F238"/>
@@ -9066,31 +9078,16 @@
     <mergeCell ref="D230:F230"/>
     <mergeCell ref="D231:F231"/>
     <mergeCell ref="D232:F232"/>
-    <mergeCell ref="B219:E219"/>
-    <mergeCell ref="B220:E220"/>
-    <mergeCell ref="B221:E221"/>
-    <mergeCell ref="D226:F226"/>
-    <mergeCell ref="D227:F227"/>
-    <mergeCell ref="C210:E210"/>
-    <mergeCell ref="C211:E211"/>
-    <mergeCell ref="C212:E212"/>
-    <mergeCell ref="B217:E217"/>
-    <mergeCell ref="B218:E218"/>
-    <mergeCell ref="C205:E205"/>
-    <mergeCell ref="C206:E206"/>
-    <mergeCell ref="C207:E207"/>
-    <mergeCell ref="C208:E208"/>
-    <mergeCell ref="C209:E209"/>
-    <mergeCell ref="C200:E200"/>
-    <mergeCell ref="C201:E201"/>
-    <mergeCell ref="C202:E202"/>
-    <mergeCell ref="C203:E203"/>
-    <mergeCell ref="C204:E204"/>
-    <mergeCell ref="F111:N111"/>
-    <mergeCell ref="C196:E196"/>
-    <mergeCell ref="C197:E197"/>
-    <mergeCell ref="C198:E198"/>
-    <mergeCell ref="C199:E199"/>
+    <mergeCell ref="B147:B159"/>
+    <mergeCell ref="B160:B161"/>
+    <mergeCell ref="B162:B164"/>
+    <mergeCell ref="B165:B172"/>
+    <mergeCell ref="B173:B175"/>
+    <mergeCell ref="B176:B177"/>
+    <mergeCell ref="B178:B182"/>
+    <mergeCell ref="B197:B198"/>
+    <mergeCell ref="B199:B200"/>
+    <mergeCell ref="B201:B202"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -9104,7 +9101,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -9113,15 +9110,15 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}">
-      <selection activeCell="E26" sqref="E26"/>
+    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}">
       <selection activeCell="E26" sqref="E26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
+    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}">
+      <selection activeCell="E26" sqref="E26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>

--- a/tmp_client/doc/TMP_EIT_suites/radiant/silicon_06_jedi_d1.xlsx
+++ b/tmp_client/doc/TMP_EIT_suites/radiant/silicon_06_jedi_d1.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\repository\tmp_client\doc\TMP_EIT_suites\radiant\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E4FF04-7965-4B14-98A0-B2D8DF757B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="40MRd5r6vR/eXVUGbL7aEMM1NO6mwC4SojgFQmqHtZOqnQZBLsdr03u6GYWM/ftoMUNBO+KP7cdpMmOVZ0x4WQ==" workbookSaltValue="I+dbibQaVxj+tsXuP7uNKg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="suite" sheetId="1" r:id="rId1"/>
@@ -19,22 +20,22 @@
     <sheet name="comments" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">case!$A$2:$AD$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">case!$A$2:$AD$99</definedName>
     <definedName name="Z_16B2C8B3_13FA_43FB_96C1_3763C72619A6_.wvu.FilterData" localSheetId="1" hidden="1">case!$A$2:$AD$2</definedName>
     <definedName name="Z_179F0E1F_F6F7_410E_B883_54B8A90BA550_.wvu.FilterData" localSheetId="1" hidden="1">case!$A$2:$AD$2</definedName>
     <definedName name="Z_E811CF45_D5B3_4449_84AE_1514F9E9258F_.wvu.FilterData" localSheetId="1" hidden="1">case!$A$2:$AD$35</definedName>
   </definedNames>
   <calcPr calcId="144525" calcOnSave="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Cherry Xu - Personal View" guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" personalView="1" maximized="1" windowWidth="1916" windowHeight="835" activeSheetId="2"/>
+    <customWorkbookView name="Xueying Li - Personal View" guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}" personalView="1" yWindow="337" windowWidth="1878" windowHeight="703" activeSheetId="1"/>
     <customWorkbookView name="Jason Wang - Personal View" guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="2"/>
-    <customWorkbookView name="Xueying Li - Personal View" guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}" personalView="1" yWindow="337" windowWidth="1878" windowHeight="703" activeSheetId="1"/>
-    <customWorkbookView name="Cherry Xu - Personal View" guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" personalView="1" maximized="1" windowWidth="1916" windowHeight="835" activeSheetId="2"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="342">
   <si>
     <t>[suite_info]</t>
   </si>
@@ -960,9 +961,6 @@
     <t>00_primitive/06_DDR/25_OSHX2_31_mddrx2_oshx2</t>
   </si>
   <si>
-    <t>00_primitive/06_DDR/26_OSHX4_31_mddrx4_oshx4</t>
-  </si>
-  <si>
     <t>00_primitive/07_Misc/00_ADC</t>
   </si>
   <si>
@@ -1074,7 +1072,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="165" formatCode="0.00_ "/>
@@ -1649,7 +1647,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5">
       <alignment vertical="center"/>
@@ -1702,7 +1700,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
@@ -1723,15 +1721,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="5" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="5" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1741,15 +1730,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="5" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="5" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="5" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1783,13 +1766,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="5" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="5" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1798,9 +1778,6 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1813,13 +1790,13 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="5" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="5" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="5" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1828,13 +1805,13 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="35" xfId="4" applyNumberFormat="1" applyProtection="1">
@@ -1852,31 +1829,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="33" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1889,118 +1848,118 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="35" xfId="4" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="5" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="5" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="5" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="5" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="5" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="5" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Check Cell" xfId="4" builtinId="23"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="5"/>
-    <cellStyle name="Normal 3" xfId="6"/>
-    <cellStyle name="Normal 4" xfId="7"/>
-    <cellStyle name="Normal 5" xfId="8"/>
-    <cellStyle name="Normal 6" xfId="3"/>
-    <cellStyle name="Note 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 4" xfId="7" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 5" xfId="8" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 6" xfId="3" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Note 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -4486,9 +4445,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4526,9 +4485,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4563,7 +4522,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4598,7 +4557,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4771,199 +4730,200 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15" style="61" customWidth="1"/>
-    <col min="2" max="2" width="28" style="61" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="61"/>
+    <col min="1" max="1" width="15" style="54" customWidth="1"/>
+    <col min="2" max="2" width="28" style="54" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="54"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="54" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="54" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="61" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="54" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="54" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="54" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="63"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="54" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="54" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="61" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="61" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="61" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="B5" s="61" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="61" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="76"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="61" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9" s="54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="54" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="54" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="54" t="s">
+        <v>224</v>
+      </c>
+      <c r="B14" s="54" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="54" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="54" t="s">
+        <v>224</v>
+      </c>
+      <c r="B15" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="54" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="54" t="s">
+        <v>226</v>
+      </c>
+      <c r="B16" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="54" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="54" t="s">
+        <v>226</v>
+      </c>
+      <c r="B17" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="61" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="61" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="61" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="61" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="61" t="s">
+      <c r="C17" s="54" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="54" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="61" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" s="54" t="s">
         <v>224</v>
       </c>
-      <c r="B14" s="61" t="s">
+      <c r="B20" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="61" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="61" t="s">
+      <c r="C20" s="54" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="54" t="s">
         <v>224</v>
       </c>
-      <c r="B15" s="61" t="s">
+      <c r="B21" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="61" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="61" t="s">
+      <c r="C21" s="54" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="54" t="s">
         <v>226</v>
       </c>
-      <c r="B16" s="61" t="s">
+      <c r="B22" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="61" t="s">
+      <c r="C22" s="54" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="61" t="s">
+    <row r="23" spans="1:3">
+      <c r="A23" s="54" t="s">
         <v>226</v>
       </c>
-      <c r="B17" s="61" t="s">
+      <c r="B23" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="61" t="s">
+      <c r="C23" s="54" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="61" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="61" t="s">
-        <v>224</v>
-      </c>
-      <c r="B20" s="61" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="61" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="61" t="s">
-        <v>224</v>
-      </c>
-      <c r="B21" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="61" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="61" t="s">
-        <v>226</v>
-      </c>
-      <c r="B22" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="61" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="61" t="s">
-        <v>226</v>
-      </c>
-      <c r="B23" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="61" t="s">
-        <v>337</v>
-      </c>
-    </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="61" t="s">
+      <c r="A26" s="54" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <customSheetViews>
-    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
+    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}">
+      <selection activeCell="B35" sqref="B35"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
     </customSheetView>
@@ -4972,8 +4932,7 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
     </customSheetView>
-    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}">
-      <selection activeCell="B35" sqref="B35"/>
+    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
     </customSheetView>
@@ -4984,1576 +4943,1562 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AD99"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B58" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B99" sqref="B99"/>
+      <selection pane="bottomRight" activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="61" customWidth="1"/>
-    <col min="2" max="2" width="9" style="61" customWidth="1"/>
-    <col min="3" max="3" width="33.33203125" style="61" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="61" customWidth="1"/>
-    <col min="5" max="5" width="30.33203125" style="61" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" style="61" customWidth="1"/>
-    <col min="7" max="7" width="24" style="61" customWidth="1"/>
-    <col min="8" max="8" width="37" style="61" customWidth="1"/>
-    <col min="9" max="9" width="11.109375" style="61" customWidth="1"/>
-    <col min="10" max="10" width="9.88671875" style="61" customWidth="1"/>
-    <col min="11" max="11" width="12" style="61" customWidth="1"/>
-    <col min="12" max="12" width="9.5546875" style="62" customWidth="1"/>
-    <col min="13" max="13" width="38" style="61" customWidth="1"/>
-    <col min="14" max="14" width="19.44140625" style="61" customWidth="1"/>
-    <col min="15" max="15" width="30.33203125" style="61" customWidth="1"/>
-    <col min="16" max="16" width="17.33203125" style="61" customWidth="1"/>
-    <col min="17" max="17" width="15.44140625" style="61" customWidth="1"/>
-    <col min="18" max="18" width="13" style="61" customWidth="1"/>
-    <col min="19" max="19" width="9.6640625" style="61" customWidth="1"/>
-    <col min="20" max="20" width="9.44140625" style="61" customWidth="1"/>
-    <col min="21" max="21" width="11" style="61" customWidth="1"/>
-    <col min="22" max="22" width="11.6640625" style="61" customWidth="1"/>
-    <col min="23" max="28" width="9" style="61"/>
-    <col min="29" max="29" width="10.109375" style="61" customWidth="1"/>
-    <col min="30" max="16384" width="9" style="61"/>
+    <col min="1" max="1" width="10.28515625" style="54" customWidth="1"/>
+    <col min="2" max="2" width="9" style="54" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" style="54" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="54" customWidth="1"/>
+    <col min="5" max="5" width="30.28515625" style="54" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="54" customWidth="1"/>
+    <col min="7" max="7" width="24" style="54" customWidth="1"/>
+    <col min="8" max="8" width="37" style="54" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" style="54" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" style="54" customWidth="1"/>
+    <col min="11" max="11" width="12" style="54" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" style="55" customWidth="1"/>
+    <col min="13" max="13" width="38" style="54" customWidth="1"/>
+    <col min="14" max="14" width="19.42578125" style="54" customWidth="1"/>
+    <col min="15" max="15" width="30.28515625" style="54" customWidth="1"/>
+    <col min="16" max="16" width="17.28515625" style="54" customWidth="1"/>
+    <col min="17" max="17" width="15.42578125" style="54" customWidth="1"/>
+    <col min="18" max="18" width="13" style="54" customWidth="1"/>
+    <col min="19" max="19" width="9.7109375" style="54" customWidth="1"/>
+    <col min="20" max="20" width="9.42578125" style="54" customWidth="1"/>
+    <col min="21" max="21" width="11" style="54" customWidth="1"/>
+    <col min="22" max="22" width="11.7109375" style="54" customWidth="1"/>
+    <col min="23" max="28" width="9" style="54"/>
+    <col min="29" max="29" width="10.140625" style="54" customWidth="1"/>
+    <col min="30" max="16384" width="9" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="60" customFormat="1">
-      <c r="A1" s="77" t="s">
+    <row r="1" spans="1:30" s="53" customFormat="1">
+      <c r="A1" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="80" t="s">
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="80"/>
-      <c r="Y1" s="80"/>
-      <c r="Z1" s="80"/>
-      <c r="AA1" s="80"/>
-      <c r="AB1" s="80"/>
-      <c r="AC1" s="80"/>
-      <c r="AD1" s="80"/>
-    </row>
-    <row r="2" spans="1:30" s="60" customFormat="1">
-      <c r="A2" s="63" t="s">
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67"/>
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="67"/>
+    </row>
+    <row r="2" spans="1:30" s="53" customFormat="1">
+      <c r="A2" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="63" t="s">
+      <c r="E2" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="63" t="s">
+      <c r="F2" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="63" t="s">
+      <c r="G2" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="63" t="s">
+      <c r="H2" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="63" t="s">
+      <c r="I2" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="63" t="s">
+      <c r="J2" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="63" t="s">
+      <c r="K2" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="64" t="s">
+      <c r="L2" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="63" t="s">
+      <c r="M2" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="63" t="s">
+      <c r="N2" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="63" t="s">
+      <c r="O2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="63" t="s">
+      <c r="P2" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="63" t="s">
+      <c r="Q2" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="63" t="s">
+      <c r="R2" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="63" t="s">
+      <c r="S2" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="T2" s="63" t="s">
+      <c r="T2" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="U2" s="63" t="s">
+      <c r="U2" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="V2" s="63" t="s">
+      <c r="V2" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="W2" s="63" t="s">
+      <c r="W2" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="X2" s="63" t="s">
+      <c r="X2" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="Y2" s="63" t="s">
+      <c r="Y2" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="Z2" s="63" t="s">
+      <c r="Z2" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="AA2" s="63" t="s">
+      <c r="AA2" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="AB2" s="63" t="s">
+      <c r="AB2" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="AC2" s="63" t="s">
+      <c r="AC2" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="AD2" s="63" t="s">
+      <c r="AD2" s="56" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:30">
-      <c r="A3" s="61">
+      <c r="A3" s="54">
         <v>1</v>
       </c>
-      <c r="E3" s="61" t="s">
+      <c r="E3" s="54" t="s">
         <v>230</v>
       </c>
-      <c r="S3" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD3" s="61" t="s">
+      <c r="S3" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD3" s="54" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:30">
-      <c r="A4" s="61">
+      <c r="A4" s="54">
         <v>2</v>
       </c>
-      <c r="E4" s="61" t="s">
+      <c r="E4" s="54" t="s">
         <v>231</v>
       </c>
-      <c r="S4" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD4" s="61" t="s">
+      <c r="S4" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD4" s="54" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:30">
-      <c r="A5" s="61">
+      <c r="A5" s="54">
         <v>3</v>
       </c>
-      <c r="E5" s="61" t="s">
+      <c r="E5" s="54" t="s">
         <v>232</v>
       </c>
-      <c r="S5" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD5" s="61" t="s">
+      <c r="S5" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD5" s="54" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:30">
-      <c r="A6" s="61">
+      <c r="A6" s="54">
         <v>4</v>
       </c>
-      <c r="E6" s="61" t="s">
+      <c r="E6" s="54" t="s">
+        <v>329</v>
+      </c>
+      <c r="S6" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD6" s="54" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30">
+      <c r="A7" s="54">
+        <v>5</v>
+      </c>
+      <c r="E7" s="54" t="s">
+        <v>233</v>
+      </c>
+      <c r="S7" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD7" s="54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30">
+      <c r="A8" s="54">
+        <v>6</v>
+      </c>
+      <c r="E8" s="54" t="s">
+        <v>234</v>
+      </c>
+      <c r="S8" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD8" s="54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30">
+      <c r="A9" s="54">
+        <v>7</v>
+      </c>
+      <c r="E9" s="54" t="s">
+        <v>235</v>
+      </c>
+      <c r="S9" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD9" s="54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30">
+      <c r="A10" s="54">
+        <v>8</v>
+      </c>
+      <c r="E10" s="54" t="s">
+        <v>236</v>
+      </c>
+      <c r="S10" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD10" s="54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30">
+      <c r="A11" s="54">
+        <v>9</v>
+      </c>
+      <c r="E11" s="54" t="s">
+        <v>237</v>
+      </c>
+      <c r="S11" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD11" s="54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30">
+      <c r="A12" s="54">
+        <v>10</v>
+      </c>
+      <c r="E12" s="54" t="s">
+        <v>238</v>
+      </c>
+      <c r="S12" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD12" s="54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30">
+      <c r="A13" s="54">
+        <v>11</v>
+      </c>
+      <c r="E13" s="54" t="s">
+        <v>239</v>
+      </c>
+      <c r="S13" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD13" s="54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30">
+      <c r="A14" s="54">
+        <v>12</v>
+      </c>
+      <c r="E14" s="54" t="s">
+        <v>240</v>
+      </c>
+      <c r="S14" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD14" s="54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30">
+      <c r="A15" s="54">
+        <v>13</v>
+      </c>
+      <c r="E15" s="54" t="s">
+        <v>241</v>
+      </c>
+      <c r="S15" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD15" s="54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30">
+      <c r="A16" s="54">
+        <v>14</v>
+      </c>
+      <c r="E16" s="54" t="s">
+        <v>242</v>
+      </c>
+      <c r="S16" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD16" s="54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30">
+      <c r="A17" s="54">
+        <v>15</v>
+      </c>
+      <c r="E17" s="54" t="s">
+        <v>243</v>
+      </c>
+      <c r="S17" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD17" s="54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30">
+      <c r="A18" s="54">
+        <v>16</v>
+      </c>
+      <c r="E18" s="54" t="s">
+        <v>244</v>
+      </c>
+      <c r="S18" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD18" s="54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30">
+      <c r="A19" s="54">
+        <v>17</v>
+      </c>
+      <c r="E19" s="54" t="s">
+        <v>245</v>
+      </c>
+      <c r="S19" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD19" s="54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30">
+      <c r="A20" s="54">
+        <v>18</v>
+      </c>
+      <c r="E20" s="54" t="s">
+        <v>246</v>
+      </c>
+      <c r="S20" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD20" s="54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30">
+      <c r="A21" s="54">
+        <v>19</v>
+      </c>
+      <c r="E21" s="54" t="s">
+        <v>247</v>
+      </c>
+      <c r="S21" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD21" s="54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30">
+      <c r="A22" s="54">
+        <v>20</v>
+      </c>
+      <c r="E22" s="54" t="s">
+        <v>248</v>
+      </c>
+      <c r="S22" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD22" s="54" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30">
+      <c r="A23" s="54">
+        <v>21</v>
+      </c>
+      <c r="E23" s="54" t="s">
+        <v>249</v>
+      </c>
+      <c r="S23" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD23" s="54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30">
+      <c r="A24" s="54">
+        <v>22</v>
+      </c>
+      <c r="E24" s="54" t="s">
+        <v>250</v>
+      </c>
+      <c r="S24" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD24" s="54" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30">
+      <c r="A25" s="54">
+        <v>23</v>
+      </c>
+      <c r="E25" s="54" t="s">
+        <v>251</v>
+      </c>
+      <c r="S25" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD25" s="54" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30">
+      <c r="A26" s="54">
+        <v>24</v>
+      </c>
+      <c r="E26" s="54" t="s">
+        <v>252</v>
+      </c>
+      <c r="S26" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD26" s="54" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30">
+      <c r="A27" s="54">
+        <v>25</v>
+      </c>
+      <c r="E27" s="54" t="s">
+        <v>253</v>
+      </c>
+      <c r="S27" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD27" s="54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30">
+      <c r="A28" s="54">
+        <v>26</v>
+      </c>
+      <c r="E28" s="54" t="s">
+        <v>254</v>
+      </c>
+      <c r="S28" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD28" s="54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30">
+      <c r="A29" s="54">
+        <v>27</v>
+      </c>
+      <c r="E29" s="54" t="s">
+        <v>255</v>
+      </c>
+      <c r="S29" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD29" s="54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30">
+      <c r="A30" s="54">
+        <v>28</v>
+      </c>
+      <c r="E30" s="54" t="s">
+        <v>256</v>
+      </c>
+      <c r="O30" s="54" t="s">
+        <v>321</v>
+      </c>
+      <c r="S30" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD30" s="54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30">
+      <c r="A31" s="54">
+        <v>29</v>
+      </c>
+      <c r="E31" s="54" t="s">
+        <v>257</v>
+      </c>
+      <c r="S31" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD31" s="54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30">
+      <c r="A32" s="54">
+        <v>30</v>
+      </c>
+      <c r="E32" s="54" t="s">
+        <v>258</v>
+      </c>
+      <c r="S32" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD32" s="54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30">
+      <c r="A33" s="54">
+        <v>31</v>
+      </c>
+      <c r="E33" s="54" t="s">
+        <v>259</v>
+      </c>
+      <c r="S33" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD33" s="54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30">
+      <c r="A34" s="54">
+        <v>32</v>
+      </c>
+      <c r="E34" s="54" t="s">
+        <v>260</v>
+      </c>
+      <c r="S34" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD34" s="54" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30">
+      <c r="A35" s="54">
+        <v>33</v>
+      </c>
+      <c r="E35" s="54" t="s">
+        <v>261</v>
+      </c>
+      <c r="S35" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD35" s="54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30">
+      <c r="A36" s="54">
+        <v>34</v>
+      </c>
+      <c r="E36" s="54" t="s">
+        <v>262</v>
+      </c>
+      <c r="S36" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD36" s="54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30">
+      <c r="A37" s="54">
+        <v>35</v>
+      </c>
+      <c r="E37" s="54" t="s">
+        <v>263</v>
+      </c>
+      <c r="S37" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD37" s="54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30">
+      <c r="A38" s="54">
+        <v>36</v>
+      </c>
+      <c r="E38" s="54" t="s">
+        <v>264</v>
+      </c>
+      <c r="S38" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD38" s="54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30">
+      <c r="A39" s="54">
+        <v>37</v>
+      </c>
+      <c r="E39" s="54" t="s">
+        <v>265</v>
+      </c>
+      <c r="S39" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD39" s="54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30">
+      <c r="A40" s="54">
+        <v>38</v>
+      </c>
+      <c r="E40" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="S40" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD40" s="54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30">
+      <c r="A41" s="54">
+        <v>39</v>
+      </c>
+      <c r="E41" s="54" t="s">
+        <v>267</v>
+      </c>
+      <c r="S41" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD41" s="54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30">
+      <c r="A42" s="54">
+        <v>40</v>
+      </c>
+      <c r="E42" s="54" t="s">
+        <v>268</v>
+      </c>
+      <c r="S42" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD42" s="54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30">
+      <c r="A43" s="54">
+        <v>41</v>
+      </c>
+      <c r="E43" s="54" t="s">
+        <v>269</v>
+      </c>
+      <c r="S43" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD43" s="54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30">
+      <c r="A44" s="54">
+        <v>42</v>
+      </c>
+      <c r="E44" s="54" t="s">
+        <v>270</v>
+      </c>
+      <c r="S44" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD44" s="54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30">
+      <c r="A45" s="54">
+        <v>43</v>
+      </c>
+      <c r="E45" s="54" t="s">
+        <v>271</v>
+      </c>
+      <c r="S45" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD45" s="54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30">
+      <c r="A46" s="54">
+        <v>44</v>
+      </c>
+      <c r="E46" s="54" t="s">
+        <v>272</v>
+      </c>
+      <c r="S46" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD46" s="54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30">
+      <c r="A47" s="54">
+        <v>45</v>
+      </c>
+      <c r="E47" s="54" t="s">
+        <v>273</v>
+      </c>
+      <c r="S47" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD47" s="54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30">
+      <c r="A48" s="54">
+        <v>46</v>
+      </c>
+      <c r="E48" s="54" t="s">
+        <v>274</v>
+      </c>
+      <c r="S48" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD48" s="54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30">
+      <c r="A49" s="54">
+        <v>47</v>
+      </c>
+      <c r="E49" s="54" t="s">
+        <v>275</v>
+      </c>
+      <c r="S49" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD49" s="54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30">
+      <c r="A50" s="54">
+        <v>48</v>
+      </c>
+      <c r="E50" s="54" t="s">
+        <v>276</v>
+      </c>
+      <c r="S50" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD50" s="54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30">
+      <c r="A51" s="54">
+        <v>49</v>
+      </c>
+      <c r="E51" s="54" t="s">
+        <v>277</v>
+      </c>
+      <c r="S51" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD51" s="54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30">
+      <c r="A52" s="54">
+        <v>50</v>
+      </c>
+      <c r="E52" s="54" t="s">
+        <v>278</v>
+      </c>
+      <c r="S52" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD52" s="54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30">
+      <c r="A53" s="54">
+        <v>51</v>
+      </c>
+      <c r="E53" s="54" t="s">
+        <v>279</v>
+      </c>
+      <c r="S53" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD53" s="54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30">
+      <c r="A54" s="54">
+        <v>52</v>
+      </c>
+      <c r="E54" s="54" t="s">
+        <v>280</v>
+      </c>
+      <c r="S54" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD54" s="54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30">
+      <c r="A55" s="54">
+        <v>53</v>
+      </c>
+      <c r="E55" s="54" t="s">
+        <v>281</v>
+      </c>
+      <c r="S55" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD55" s="54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30">
+      <c r="A56" s="54">
+        <v>54</v>
+      </c>
+      <c r="E56" s="54" t="s">
+        <v>282</v>
+      </c>
+      <c r="S56" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD56" s="54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30">
+      <c r="A57" s="54">
+        <v>55</v>
+      </c>
+      <c r="E57" s="54" t="s">
+        <v>283</v>
+      </c>
+      <c r="S57" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD57" s="54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30">
+      <c r="A58" s="54">
+        <v>56</v>
+      </c>
+      <c r="E58" s="54" t="s">
+        <v>284</v>
+      </c>
+      <c r="S58" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD58" s="54" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30">
+      <c r="A59" s="54">
+        <v>57</v>
+      </c>
+      <c r="E59" s="54" t="s">
+        <v>285</v>
+      </c>
+      <c r="S59" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD59" s="54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30">
+      <c r="A60" s="54">
+        <v>58</v>
+      </c>
+      <c r="E60" s="54" t="s">
         <v>330</v>
       </c>
-      <c r="S6" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD6" s="61" t="s">
+      <c r="S60" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD60" s="54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="61" spans="1:30">
+      <c r="A61" s="54">
+        <v>59</v>
+      </c>
+      <c r="E61" s="54" t="s">
+        <v>286</v>
+      </c>
+      <c r="S61" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD61" s="54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30">
+      <c r="A62" s="54">
+        <v>60</v>
+      </c>
+      <c r="E62" s="54" t="s">
+        <v>287</v>
+      </c>
+      <c r="S62" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD62" s="54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30">
+      <c r="A63" s="54">
+        <v>61</v>
+      </c>
+      <c r="E63" s="54" t="s">
+        <v>288</v>
+      </c>
+      <c r="S63" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD63" s="54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30">
+      <c r="A64" s="54">
+        <v>62</v>
+      </c>
+      <c r="E64" s="54" t="s">
+        <v>289</v>
+      </c>
+      <c r="S64" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD64" s="54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="65" spans="1:30">
+      <c r="A65" s="54">
+        <v>63</v>
+      </c>
+      <c r="E65" s="54" t="s">
+        <v>290</v>
+      </c>
+      <c r="S65" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD65" s="54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="66" spans="1:30">
+      <c r="A66" s="54">
+        <v>64</v>
+      </c>
+      <c r="E66" s="54" t="s">
+        <v>331</v>
+      </c>
+      <c r="S66" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD66" s="54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="67" spans="1:30">
+      <c r="A67" s="54">
+        <v>65</v>
+      </c>
+      <c r="E67" s="54" t="s">
+        <v>291</v>
+      </c>
+      <c r="S67" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD67" s="54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="68" spans="1:30">
+      <c r="A68" s="54">
+        <v>66</v>
+      </c>
+      <c r="E68" s="54" t="s">
+        <v>292</v>
+      </c>
+      <c r="S68" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD68" s="62" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="69" spans="1:30">
+      <c r="A69" s="54">
+        <v>67</v>
+      </c>
+      <c r="E69" s="54" t="s">
+        <v>293</v>
+      </c>
+      <c r="S69" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD69" s="54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="70" spans="1:30">
+      <c r="A70" s="54">
+        <v>68</v>
+      </c>
+      <c r="E70" s="54" t="s">
+        <v>294</v>
+      </c>
+      <c r="S70" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD70" s="54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="71" spans="1:30">
+      <c r="A71" s="54">
+        <v>69</v>
+      </c>
+      <c r="E71" s="54" t="s">
+        <v>295</v>
+      </c>
+      <c r="S71" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD71" s="54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="72" spans="1:30">
+      <c r="A72" s="54">
+        <v>70</v>
+      </c>
+      <c r="E72" s="54" t="s">
+        <v>296</v>
+      </c>
+      <c r="S72" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD72" s="54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="73" spans="1:30">
+      <c r="A73" s="54">
+        <v>71</v>
+      </c>
+      <c r="E73" s="54" t="s">
+        <v>297</v>
+      </c>
+      <c r="S73" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD73" s="54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="74" spans="1:30">
+      <c r="A74" s="54">
+        <v>72</v>
+      </c>
+      <c r="E74" s="54" t="s">
+        <v>298</v>
+      </c>
+      <c r="S74" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD74" s="54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="75" spans="1:30">
+      <c r="A75" s="54">
+        <v>73</v>
+      </c>
+      <c r="E75" s="54" t="s">
+        <v>299</v>
+      </c>
+      <c r="S75" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD75" s="54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="76" spans="1:30">
+      <c r="A76" s="54">
+        <v>74</v>
+      </c>
+      <c r="E76" s="54" t="s">
+        <v>300</v>
+      </c>
+      <c r="S76" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD76" s="54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="77" spans="1:30">
+      <c r="A77" s="54">
+        <v>75</v>
+      </c>
+      <c r="E77" s="54" t="s">
+        <v>301</v>
+      </c>
+      <c r="S77" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD77" s="54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="78" spans="1:30">
+      <c r="A78" s="54">
+        <v>76</v>
+      </c>
+      <c r="E78" s="54" t="s">
+        <v>302</v>
+      </c>
+      <c r="S78" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD78" s="54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="79" spans="1:30">
+      <c r="A79" s="54">
+        <v>77</v>
+      </c>
+      <c r="E79" s="54" t="s">
+        <v>303</v>
+      </c>
+      <c r="S79" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD79" s="54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="80" spans="1:30">
+      <c r="A80" s="54">
+        <v>78</v>
+      </c>
+      <c r="E80" s="54" t="s">
+        <v>304</v>
+      </c>
+      <c r="S80" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD80" s="54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="81" spans="1:30">
+      <c r="A81" s="54">
+        <v>79</v>
+      </c>
+      <c r="E81" s="54" t="s">
+        <v>305</v>
+      </c>
+      <c r="S81" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD81" s="54" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="82" spans="1:30">
+      <c r="A82" s="54">
+        <v>80</v>
+      </c>
+      <c r="E82" s="54" t="s">
+        <v>306</v>
+      </c>
+      <c r="O82" s="54" t="s">
+        <v>327</v>
+      </c>
+      <c r="S82" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD82" s="54" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
-      <c r="A7" s="61">
-        <v>5</v>
-      </c>
-      <c r="E7" s="61" t="s">
-        <v>233</v>
-      </c>
-      <c r="S7" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD7" s="61" t="s">
+    <row r="83" spans="1:30">
+      <c r="A83" s="54">
+        <v>81</v>
+      </c>
+      <c r="E83" s="54" t="s">
+        <v>307</v>
+      </c>
+      <c r="S83" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD83" s="54" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
-      <c r="A8" s="61">
-        <v>6</v>
-      </c>
-      <c r="E8" s="61" t="s">
-        <v>234</v>
-      </c>
-      <c r="S8" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD8" s="61" t="s">
+    <row r="84" spans="1:30">
+      <c r="A84" s="54">
+        <v>82</v>
+      </c>
+      <c r="E84" s="54" t="s">
+        <v>308</v>
+      </c>
+      <c r="H84" s="55"/>
+      <c r="S84" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD84" s="54" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
-      <c r="A9" s="61">
-        <v>7</v>
-      </c>
-      <c r="E9" s="61" t="s">
-        <v>235</v>
-      </c>
-      <c r="S9" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD9" s="61" t="s">
+    <row r="85" spans="1:30">
+      <c r="A85" s="54">
+        <v>83</v>
+      </c>
+      <c r="E85" s="54" t="s">
+        <v>309</v>
+      </c>
+      <c r="S85" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD85" s="54" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
-      <c r="A10" s="61">
-        <v>8</v>
-      </c>
-      <c r="E10" s="61" t="s">
-        <v>236</v>
-      </c>
-      <c r="S10" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD10" s="61" t="s">
+    <row r="86" spans="1:30">
+      <c r="A86" s="54">
+        <v>84</v>
+      </c>
+      <c r="E86" s="54" t="s">
+        <v>310</v>
+      </c>
+      <c r="S86" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD86" s="54" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
-      <c r="A11" s="61">
-        <v>9</v>
-      </c>
-      <c r="E11" s="61" t="s">
-        <v>237</v>
-      </c>
-      <c r="S11" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD11" s="61" t="s">
+    <row r="87" spans="1:30">
+      <c r="A87" s="54">
+        <v>85</v>
+      </c>
+      <c r="E87" s="54" t="s">
+        <v>311</v>
+      </c>
+      <c r="S87" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD87" s="54" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="88" spans="1:30">
+      <c r="A88" s="54">
+        <v>86</v>
+      </c>
+      <c r="E88" s="54" t="s">
+        <v>312</v>
+      </c>
+      <c r="S88" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD88" s="54" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
-      <c r="A12" s="61">
-        <v>10</v>
-      </c>
-      <c r="E12" s="61" t="s">
-        <v>238</v>
-      </c>
-      <c r="S12" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD12" s="61" t="s">
+    <row r="89" spans="1:30">
+      <c r="A89" s="54">
+        <v>87</v>
+      </c>
+      <c r="E89" s="54" t="s">
+        <v>313</v>
+      </c>
+      <c r="S89" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD89" s="54" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
-      <c r="A13" s="61">
-        <v>11</v>
-      </c>
-      <c r="E13" s="61" t="s">
-        <v>239</v>
-      </c>
-      <c r="S13" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD13" s="61" t="s">
+    <row r="90" spans="1:30">
+      <c r="A90" s="54">
+        <v>88</v>
+      </c>
+      <c r="E90" s="54" t="s">
+        <v>314</v>
+      </c>
+      <c r="S90" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD90" s="54" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
-      <c r="A14" s="61">
-        <v>12</v>
-      </c>
-      <c r="E14" s="61" t="s">
-        <v>240</v>
-      </c>
-      <c r="S14" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD14" s="61" t="s">
+    <row r="91" spans="1:30">
+      <c r="A91" s="54">
+        <v>89</v>
+      </c>
+      <c r="E91" s="54" t="s">
+        <v>315</v>
+      </c>
+      <c r="S91" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD91" s="54" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
-      <c r="A15" s="61">
-        <v>13</v>
-      </c>
-      <c r="E15" s="61" t="s">
-        <v>241</v>
-      </c>
-      <c r="S15" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD15" s="61" t="s">
+    <row r="92" spans="1:30">
+      <c r="A92" s="54">
+        <v>90</v>
+      </c>
+      <c r="E92" s="54" t="s">
+        <v>316</v>
+      </c>
+      <c r="S92" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD92" s="54" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="93" spans="1:30">
+      <c r="A93" s="54">
+        <v>91</v>
+      </c>
+      <c r="E93" s="54" t="s">
+        <v>317</v>
+      </c>
+      <c r="S93" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD93" s="54" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
-      <c r="A16" s="61">
-        <v>14</v>
-      </c>
-      <c r="E16" s="61" t="s">
-        <v>242</v>
-      </c>
-      <c r="S16" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD16" s="61" t="s">
+    <row r="94" spans="1:30">
+      <c r="A94" s="54">
+        <v>92</v>
+      </c>
+      <c r="E94" s="54" t="s">
+        <v>318</v>
+      </c>
+      <c r="S94" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD94" s="54" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="17" spans="1:30">
-      <c r="A17" s="61">
-        <v>15</v>
-      </c>
-      <c r="E17" s="61" t="s">
-        <v>243</v>
-      </c>
-      <c r="S17" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD17" s="61" t="s">
+    <row r="95" spans="1:30">
+      <c r="A95" s="54">
+        <v>93</v>
+      </c>
+      <c r="E95" s="54" t="s">
+        <v>319</v>
+      </c>
+      <c r="S95" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD95" s="54" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="96" spans="1:30">
+      <c r="A96" s="54">
+        <v>94</v>
+      </c>
+      <c r="E96" s="54" t="s">
+        <v>332</v>
+      </c>
+      <c r="S96" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD96" s="54" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="18" spans="1:30">
-      <c r="A18" s="61">
-        <v>16</v>
-      </c>
-      <c r="E18" s="61" t="s">
-        <v>244</v>
-      </c>
-      <c r="S18" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD18" s="61" t="s">
+    <row r="97" spans="1:30">
+      <c r="A97" s="54">
+        <v>95</v>
+      </c>
+      <c r="E97" s="54" t="s">
+        <v>320</v>
+      </c>
+      <c r="S97" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD97" s="54" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="98" spans="1:30">
+      <c r="A98" s="54">
+        <v>96</v>
+      </c>
+      <c r="E98" s="62" t="s">
+        <v>333</v>
+      </c>
+      <c r="S98" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD98" s="54" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="19" spans="1:30">
-      <c r="A19" s="61">
-        <v>17</v>
-      </c>
-      <c r="E19" s="61" t="s">
-        <v>245</v>
-      </c>
-      <c r="S19" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD19" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30">
-      <c r="A20" s="61">
-        <v>18</v>
-      </c>
-      <c r="E20" s="61" t="s">
-        <v>246</v>
-      </c>
-      <c r="S20" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD20" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30">
-      <c r="A21" s="61">
-        <v>19</v>
-      </c>
-      <c r="E21" s="61" t="s">
-        <v>247</v>
-      </c>
-      <c r="S21" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD21" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30">
-      <c r="A22" s="61">
-        <v>20</v>
-      </c>
-      <c r="E22" s="61" t="s">
-        <v>248</v>
-      </c>
-      <c r="S22" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD22" s="61" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30">
-      <c r="A23" s="61">
-        <v>21</v>
-      </c>
-      <c r="E23" s="61" t="s">
-        <v>249</v>
-      </c>
-      <c r="S23" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD23" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30">
-      <c r="A24" s="61">
-        <v>22</v>
-      </c>
-      <c r="E24" s="61" t="s">
-        <v>250</v>
-      </c>
-      <c r="S24" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD24" s="61" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30">
-      <c r="A25" s="61">
-        <v>23</v>
-      </c>
-      <c r="E25" s="61" t="s">
-        <v>251</v>
-      </c>
-      <c r="S25" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD25" s="61" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30">
-      <c r="A26" s="61">
-        <v>24</v>
-      </c>
-      <c r="E26" s="61" t="s">
-        <v>252</v>
-      </c>
-      <c r="S26" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD26" s="61" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30">
-      <c r="A27" s="61">
-        <v>25</v>
-      </c>
-      <c r="E27" s="61" t="s">
-        <v>253</v>
-      </c>
-      <c r="S27" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD27" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="28" spans="1:30">
-      <c r="A28" s="61">
-        <v>26</v>
-      </c>
-      <c r="E28" s="61" t="s">
-        <v>254</v>
-      </c>
-      <c r="S28" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD28" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30">
-      <c r="A29" s="61">
-        <v>27</v>
-      </c>
-      <c r="E29" s="61" t="s">
-        <v>255</v>
-      </c>
-      <c r="S29" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD29" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30">
-      <c r="A30" s="61">
-        <v>28</v>
-      </c>
-      <c r="E30" s="61" t="s">
-        <v>256</v>
-      </c>
-      <c r="O30" s="61" t="s">
-        <v>322</v>
-      </c>
-      <c r="S30" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD30" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30">
-      <c r="A31" s="61">
-        <v>29</v>
-      </c>
-      <c r="E31" s="61" t="s">
-        <v>257</v>
-      </c>
-      <c r="S31" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD31" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30">
-      <c r="A32" s="61">
-        <v>30</v>
-      </c>
-      <c r="E32" s="61" t="s">
-        <v>258</v>
-      </c>
-      <c r="S32" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD32" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="33" spans="1:30">
-      <c r="A33" s="61">
-        <v>31</v>
-      </c>
-      <c r="E33" s="61" t="s">
-        <v>259</v>
-      </c>
-      <c r="S33" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD33" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="34" spans="1:30">
-      <c r="A34" s="61">
-        <v>32</v>
-      </c>
-      <c r="E34" s="61" t="s">
-        <v>260</v>
-      </c>
-      <c r="S34" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD34" s="61" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="35" spans="1:30">
-      <c r="A35" s="61">
-        <v>33</v>
-      </c>
-      <c r="E35" s="61" t="s">
-        <v>261</v>
-      </c>
-      <c r="S35" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD35" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="36" spans="1:30">
-      <c r="A36" s="61">
-        <v>34</v>
-      </c>
-      <c r="E36" s="61" t="s">
-        <v>262</v>
-      </c>
-      <c r="S36" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD36" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="37" spans="1:30">
-      <c r="A37" s="61">
-        <v>35</v>
-      </c>
-      <c r="E37" s="61" t="s">
-        <v>263</v>
-      </c>
-      <c r="S37" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD37" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="38" spans="1:30">
-      <c r="A38" s="61">
-        <v>36</v>
-      </c>
-      <c r="E38" s="61" t="s">
-        <v>264</v>
-      </c>
-      <c r="S38" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD38" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="39" spans="1:30">
-      <c r="A39" s="61">
-        <v>37</v>
-      </c>
-      <c r="E39" s="61" t="s">
-        <v>265</v>
-      </c>
-      <c r="S39" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD39" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="40" spans="1:30">
-      <c r="A40" s="61">
-        <v>38</v>
-      </c>
-      <c r="E40" s="61" t="s">
-        <v>266</v>
-      </c>
-      <c r="S40" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD40" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="41" spans="1:30">
-      <c r="A41" s="61">
-        <v>39</v>
-      </c>
-      <c r="E41" s="61" t="s">
-        <v>267</v>
-      </c>
-      <c r="S41" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD41" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="42" spans="1:30">
-      <c r="A42" s="61">
-        <v>40</v>
-      </c>
-      <c r="E42" s="61" t="s">
-        <v>268</v>
-      </c>
-      <c r="S42" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD42" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="43" spans="1:30">
-      <c r="A43" s="61">
-        <v>41</v>
-      </c>
-      <c r="E43" s="61" t="s">
-        <v>269</v>
-      </c>
-      <c r="S43" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD43" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="44" spans="1:30">
-      <c r="A44" s="61">
-        <v>42</v>
-      </c>
-      <c r="E44" s="61" t="s">
-        <v>270</v>
-      </c>
-      <c r="S44" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD44" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="45" spans="1:30">
-      <c r="A45" s="61">
-        <v>43</v>
-      </c>
-      <c r="E45" s="61" t="s">
-        <v>271</v>
-      </c>
-      <c r="S45" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD45" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="46" spans="1:30">
-      <c r="A46" s="61">
-        <v>44</v>
-      </c>
-      <c r="E46" s="61" t="s">
-        <v>272</v>
-      </c>
-      <c r="S46" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD46" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="47" spans="1:30">
-      <c r="A47" s="61">
-        <v>45</v>
-      </c>
-      <c r="E47" s="61" t="s">
-        <v>273</v>
-      </c>
-      <c r="S47" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD47" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="48" spans="1:30">
-      <c r="A48" s="61">
-        <v>46</v>
-      </c>
-      <c r="E48" s="61" t="s">
-        <v>274</v>
-      </c>
-      <c r="S48" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD48" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="49" spans="1:30">
-      <c r="A49" s="61">
-        <v>47</v>
-      </c>
-      <c r="E49" s="61" t="s">
-        <v>275</v>
-      </c>
-      <c r="S49" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD49" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="50" spans="1:30">
-      <c r="A50" s="61">
-        <v>48</v>
-      </c>
-      <c r="E50" s="61" t="s">
-        <v>276</v>
-      </c>
-      <c r="S50" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD50" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="51" spans="1:30">
-      <c r="A51" s="61">
-        <v>49</v>
-      </c>
-      <c r="E51" s="61" t="s">
-        <v>277</v>
-      </c>
-      <c r="S51" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD51" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="52" spans="1:30">
-      <c r="A52" s="61">
-        <v>50</v>
-      </c>
-      <c r="E52" s="61" t="s">
-        <v>278</v>
-      </c>
-      <c r="S52" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD52" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="53" spans="1:30">
-      <c r="A53" s="61">
-        <v>51</v>
-      </c>
-      <c r="E53" s="61" t="s">
-        <v>279</v>
-      </c>
-      <c r="S53" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD53" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="54" spans="1:30">
-      <c r="A54" s="61">
-        <v>52</v>
-      </c>
-      <c r="E54" s="61" t="s">
-        <v>280</v>
-      </c>
-      <c r="S54" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD54" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="55" spans="1:30">
-      <c r="A55" s="61">
-        <v>53</v>
-      </c>
-      <c r="E55" s="61" t="s">
-        <v>281</v>
-      </c>
-      <c r="S55" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD55" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="56" spans="1:30">
-      <c r="A56" s="61">
-        <v>54</v>
-      </c>
-      <c r="E56" s="61" t="s">
-        <v>282</v>
-      </c>
-      <c r="S56" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD56" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="57" spans="1:30">
-      <c r="A57" s="61">
-        <v>55</v>
-      </c>
-      <c r="E57" s="61" t="s">
-        <v>283</v>
-      </c>
-      <c r="S57" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD57" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="58" spans="1:30">
-      <c r="A58" s="61">
-        <v>56</v>
-      </c>
-      <c r="E58" s="61" t="s">
-        <v>284</v>
-      </c>
-      <c r="S58" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD58" s="61" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="59" spans="1:30">
-      <c r="A59" s="61">
-        <v>57</v>
-      </c>
-      <c r="E59" s="61" t="s">
-        <v>285</v>
-      </c>
-      <c r="S59" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD59" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="60" spans="1:30">
-      <c r="A60" s="61">
-        <v>58</v>
-      </c>
-      <c r="E60" s="61" t="s">
-        <v>331</v>
-      </c>
-      <c r="S60" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD60" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="61" spans="1:30">
-      <c r="A61" s="61">
-        <v>59</v>
-      </c>
-      <c r="E61" s="61" t="s">
-        <v>286</v>
-      </c>
-      <c r="S61" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD61" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="62" spans="1:30">
-      <c r="A62" s="61">
-        <v>60</v>
-      </c>
-      <c r="E62" s="61" t="s">
-        <v>287</v>
-      </c>
-      <c r="S62" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD62" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="63" spans="1:30">
-      <c r="A63" s="61">
-        <v>61</v>
-      </c>
-      <c r="E63" s="61" t="s">
-        <v>288</v>
-      </c>
-      <c r="S63" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD63" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="64" spans="1:30">
-      <c r="A64" s="61">
-        <v>62</v>
-      </c>
-      <c r="E64" s="61" t="s">
-        <v>289</v>
-      </c>
-      <c r="S64" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD64" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="65" spans="1:30">
-      <c r="A65" s="61">
-        <v>63</v>
-      </c>
-      <c r="E65" s="61" t="s">
-        <v>290</v>
-      </c>
-      <c r="S65" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD65" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="66" spans="1:30">
-      <c r="A66" s="61">
-        <v>64</v>
-      </c>
-      <c r="E66" s="61" t="s">
-        <v>332</v>
-      </c>
-      <c r="S66" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD66" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="67" spans="1:30">
-      <c r="A67" s="61">
-        <v>65</v>
-      </c>
-      <c r="E67" s="61" t="s">
-        <v>291</v>
-      </c>
-      <c r="S67" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD67" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="68" spans="1:30">
-      <c r="A68" s="61">
-        <v>66</v>
-      </c>
-      <c r="E68" s="61" t="s">
-        <v>292</v>
-      </c>
-      <c r="S68" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD68" s="75" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="69" spans="1:30">
-      <c r="A69" s="61">
-        <v>67</v>
-      </c>
-      <c r="E69" s="61" t="s">
-        <v>293</v>
-      </c>
-      <c r="S69" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD69" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="70" spans="1:30">
-      <c r="A70" s="61">
-        <v>68</v>
-      </c>
-      <c r="E70" s="61" t="s">
-        <v>294</v>
-      </c>
-      <c r="S70" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD70" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="71" spans="1:30">
-      <c r="A71" s="61">
-        <v>69</v>
-      </c>
-      <c r="E71" s="61" t="s">
-        <v>295</v>
-      </c>
-      <c r="S71" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD71" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="72" spans="1:30">
-      <c r="A72" s="61">
-        <v>70</v>
-      </c>
-      <c r="E72" s="61" t="s">
-        <v>296</v>
-      </c>
-      <c r="S72" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD72" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="73" spans="1:30">
-      <c r="A73" s="61">
-        <v>71</v>
-      </c>
-      <c r="E73" s="61" t="s">
-        <v>297</v>
-      </c>
-      <c r="S73" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD73" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="74" spans="1:30">
-      <c r="A74" s="61">
-        <v>72</v>
-      </c>
-      <c r="E74" s="61" t="s">
-        <v>298</v>
-      </c>
-      <c r="S74" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD74" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="75" spans="1:30">
-      <c r="A75" s="61">
-        <v>73</v>
-      </c>
-      <c r="E75" s="61" t="s">
-        <v>299</v>
-      </c>
-      <c r="S75" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD75" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="76" spans="1:30">
-      <c r="A76" s="61">
-        <v>74</v>
-      </c>
-      <c r="E76" s="61" t="s">
-        <v>300</v>
-      </c>
-      <c r="S76" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD76" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="77" spans="1:30">
-      <c r="A77" s="61">
-        <v>75</v>
-      </c>
-      <c r="E77" s="61" t="s">
-        <v>301</v>
-      </c>
-      <c r="S77" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD77" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="78" spans="1:30">
-      <c r="A78" s="61">
-        <v>76</v>
-      </c>
-      <c r="E78" s="61" t="s">
-        <v>302</v>
-      </c>
-      <c r="S78" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD78" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="79" spans="1:30">
-      <c r="A79" s="61">
-        <v>77</v>
-      </c>
-      <c r="E79" s="61" t="s">
-        <v>303</v>
-      </c>
-      <c r="S79" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD79" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="80" spans="1:30">
-      <c r="A80" s="61">
-        <v>78</v>
-      </c>
-      <c r="E80" s="61" t="s">
-        <v>304</v>
-      </c>
-      <c r="S80" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD80" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="81" spans="1:30">
-      <c r="A81" s="61">
-        <v>79</v>
-      </c>
-      <c r="E81" s="61" t="s">
-        <v>305</v>
-      </c>
-      <c r="S81" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD81" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="82" spans="1:30">
-      <c r="A82" s="61">
-        <v>80</v>
-      </c>
-      <c r="E82" s="61" t="s">
-        <v>306</v>
-      </c>
-      <c r="S82" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD82" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="83" spans="1:30">
-      <c r="A83" s="61">
-        <v>81</v>
-      </c>
-      <c r="E83" s="61" t="s">
-        <v>307</v>
-      </c>
-      <c r="O83" s="61" t="s">
-        <v>328</v>
-      </c>
-      <c r="S83" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD83" s="61" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="84" spans="1:30">
-      <c r="A84" s="61">
-        <v>82</v>
-      </c>
-      <c r="E84" s="61" t="s">
-        <v>308</v>
-      </c>
-      <c r="S84" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD84" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="85" spans="1:30">
-      <c r="A85" s="61">
-        <v>83</v>
-      </c>
-      <c r="E85" s="61" t="s">
-        <v>309</v>
-      </c>
-      <c r="H85" s="74"/>
-      <c r="S85" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD85" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="86" spans="1:30">
-      <c r="A86" s="61">
-        <v>84</v>
-      </c>
-      <c r="E86" s="61" t="s">
-        <v>310</v>
-      </c>
-      <c r="S86" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD86" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="87" spans="1:30">
-      <c r="A87" s="61">
-        <v>85</v>
-      </c>
-      <c r="E87" s="61" t="s">
-        <v>311</v>
-      </c>
-      <c r="S87" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD87" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="88" spans="1:30">
-      <c r="A88" s="61">
-        <v>86</v>
-      </c>
-      <c r="E88" s="61" t="s">
-        <v>312</v>
-      </c>
-      <c r="S88" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD88" s="61" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="89" spans="1:30">
-      <c r="A89" s="61">
-        <v>87</v>
-      </c>
-      <c r="E89" s="61" t="s">
-        <v>313</v>
-      </c>
-      <c r="S89" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD89" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="90" spans="1:30">
-      <c r="A90" s="61">
-        <v>88</v>
-      </c>
-      <c r="E90" s="61" t="s">
-        <v>314</v>
-      </c>
-      <c r="S90" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD90" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="91" spans="1:30">
-      <c r="A91" s="61">
-        <v>89</v>
-      </c>
-      <c r="E91" s="61" t="s">
-        <v>315</v>
-      </c>
-      <c r="S91" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD91" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="92" spans="1:30">
-      <c r="A92" s="61">
-        <v>90</v>
-      </c>
-      <c r="E92" s="61" t="s">
-        <v>316</v>
-      </c>
-      <c r="S92" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD92" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="93" spans="1:30">
-      <c r="A93" s="61">
-        <v>91</v>
-      </c>
-      <c r="E93" s="61" t="s">
-        <v>317</v>
-      </c>
-      <c r="S93" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD93" s="61" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="94" spans="1:30">
-      <c r="A94" s="61">
-        <v>92</v>
-      </c>
-      <c r="E94" s="61" t="s">
-        <v>318</v>
-      </c>
-      <c r="S94" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD94" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="95" spans="1:30">
-      <c r="A95" s="61">
-        <v>93</v>
-      </c>
-      <c r="E95" s="61" t="s">
-        <v>319</v>
-      </c>
-      <c r="S95" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD95" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="96" spans="1:30">
-      <c r="A96" s="61">
-        <v>94</v>
-      </c>
-      <c r="E96" s="61" t="s">
-        <v>320</v>
-      </c>
-      <c r="S96" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD96" s="61" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="97" spans="1:30">
-      <c r="A97" s="61">
-        <v>95</v>
-      </c>
-      <c r="E97" s="61" t="s">
-        <v>333</v>
-      </c>
-      <c r="S97" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD97" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="98" spans="1:30">
-      <c r="A98" s="61">
-        <v>96</v>
-      </c>
-      <c r="E98" s="61" t="s">
-        <v>321</v>
-      </c>
-      <c r="S98" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD98" s="61" t="s">
-        <v>228</v>
-      </c>
-    </row>
     <row r="99" spans="1:30">
-      <c r="A99" s="61">
+      <c r="A99" s="54">
         <v>97</v>
       </c>
-      <c r="E99" s="75" t="s">
+      <c r="E99" s="62" t="s">
         <v>334</v>
       </c>
-      <c r="S99" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD99" s="61" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="100" spans="1:30">
-      <c r="A100" s="61">
-        <v>98</v>
-      </c>
-      <c r="E100" s="75" t="s">
-        <v>335</v>
-      </c>
-      <c r="S100" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD100" s="61" t="s">
+      <c r="S99" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD99" s="54" t="s">
         <v>229</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <autoFilter ref="A2:AD100"/>
+  <autoFilter ref="A2:AD99" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <customSheetViews>
-    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" scale="85" showAutoFilter="1">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="M38" sqref="M38"/>
+    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" scale="85" showAutoFilter="1">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" state="frozen"/>
+      <selection activeCell="C23" sqref="C23"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
-      <autoFilter ref="A2:AD46"/>
+      <autoFilter ref="A2:Y2" xr:uid="{972F138E-3ECE-4D32-BB40-CA28E3EDF67A}"/>
     </customSheetView>
     <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}" scale="85" showAutoFilter="1">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" state="frozen"/>
       <selection activeCell="H23" sqref="H23"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
-      <autoFilter ref="A2:Y2"/>
+      <autoFilter ref="A2:Y2" xr:uid="{E6304A67-6469-47F0-A331-F9B52FE8B3EB}"/>
     </customSheetView>
-    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" scale="85" showAutoFilter="1">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" state="frozen"/>
-      <selection activeCell="C23" sqref="C23"/>
+    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" scale="85" showAutoFilter="1">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="M38" sqref="M38"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
-      <autoFilter ref="A2:Y2"/>
+      <autoFilter ref="A2:AD46" xr:uid="{C5AD9EF5-9DA0-43C2-A504-A44306E8A85E}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="2">
@@ -6561,7 +6506,7 @@
     <mergeCell ref="W1:AD1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD1 A1:I1 M1:AA1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD1 A1:I1 M1:AA1" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -6570,49 +6515,49 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
             <xm:f>description!$F$140:$H$140</xm:f>
           </x14:formula1>
           <xm:sqref>AB1:AB1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
           <x14:formula1>
             <xm:f>description!$F$122:$H$122</xm:f>
           </x14:formula1>
           <xm:sqref>K1:K1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000003000000}">
           <x14:formula1>
             <xm:f>description!$F$113:$G$113</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000004000000}">
           <x14:formula1>
             <xm:f>description!$F$123:$H$123</xm:f>
           </x14:formula1>
           <xm:sqref>L1:L1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000005000000}">
           <x14:formula1>
             <xm:f>description!$F$117:$H$117</xm:f>
           </x14:formula1>
           <xm:sqref>F2:F1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000006000000}">
           <x14:formula1>
             <xm:f>description!$F$120:$K$120</xm:f>
           </x14:formula1>
           <xm:sqref>I2:I1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000007000000}">
           <x14:formula1>
             <xm:f>description!$E$121:$K$121</xm:f>
           </x14:formula1>
           <xm:sqref>J1:J1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000008000000}">
           <x14:formula1>
             <xm:f>description!$F$141:$H$141</xm:f>
           </x14:formula1>
@@ -6625,25 +6570,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N238"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B185" sqref="B185"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="32" style="1" customWidth="1"/>
-    <col min="7" max="7" width="31.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="28.109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="31.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="28.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -6690,17 +6635,17 @@
       <c r="E111" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F111" s="111" t="s">
+      <c r="F111" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="G111" s="112"/>
-      <c r="H111" s="112"/>
-      <c r="I111" s="112"/>
-      <c r="J111" s="112"/>
-      <c r="K111" s="112"/>
-      <c r="L111" s="112"/>
-      <c r="M111" s="112"/>
-      <c r="N111" s="113"/>
+      <c r="G111" s="69"/>
+      <c r="H111" s="69"/>
+      <c r="I111" s="69"/>
+      <c r="J111" s="69"/>
+      <c r="K111" s="69"/>
+      <c r="L111" s="69"/>
+      <c r="M111" s="69"/>
+      <c r="N111" s="70"/>
     </row>
     <row r="112" spans="1:14">
       <c r="A112" s="6" t="s">
@@ -7524,7 +7469,7 @@
       <c r="K142" s="15"/>
       <c r="L142" s="15"/>
       <c r="M142" s="15"/>
-      <c r="N142" s="30"/>
+      <c r="N142" s="27"/>
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="1" t="s">
@@ -7564,10 +7509,10 @@
       <c r="A147" s="19">
         <v>1</v>
       </c>
-      <c r="B147" s="81" t="s">
+      <c r="B147" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="C147" s="65" t="s">
+      <c r="C147" s="58" t="s">
         <v>76</v>
       </c>
       <c r="D147" s="21" t="s">
@@ -7590,7 +7535,7 @@
       <c r="A148" s="19">
         <v>2</v>
       </c>
-      <c r="B148" s="82"/>
+      <c r="B148" s="99"/>
       <c r="C148" s="21" t="s">
         <v>81</v>
       </c>
@@ -7612,7 +7557,7 @@
       <c r="A149" s="19">
         <v>3</v>
       </c>
-      <c r="B149" s="82"/>
+      <c r="B149" s="99"/>
       <c r="C149" s="21" t="s">
         <v>16</v>
       </c>
@@ -7630,7 +7575,7 @@
       <c r="A150" s="19">
         <v>4</v>
       </c>
-      <c r="B150" s="82"/>
+      <c r="B150" s="99"/>
       <c r="C150" s="21" t="s">
         <v>83</v>
       </c>
@@ -7652,8 +7597,8 @@
       <c r="A151" s="19">
         <v>5</v>
       </c>
-      <c r="B151" s="82"/>
-      <c r="C151" s="65" t="s">
+      <c r="B151" s="99"/>
+      <c r="C151" s="58" t="s">
         <v>85</v>
       </c>
       <c r="D151" s="21" t="s">
@@ -7676,8 +7621,8 @@
       <c r="A152" s="19">
         <v>6</v>
       </c>
-      <c r="B152" s="82"/>
-      <c r="C152" s="65" t="s">
+      <c r="B152" s="99"/>
+      <c r="C152" s="58" t="s">
         <v>89</v>
       </c>
       <c r="D152" s="21" t="s">
@@ -7689,7 +7634,7 @@
       <c r="F152" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="G152" s="73" t="s">
+      <c r="G152" s="58" t="s">
         <v>221</v>
       </c>
       <c r="H152" s="11" t="s">
@@ -7700,7 +7645,7 @@
       <c r="A153" s="19">
         <v>7</v>
       </c>
-      <c r="B153" s="82"/>
+      <c r="B153" s="99"/>
       <c r="C153" s="21" t="s">
         <v>91</v>
       </c>
@@ -7720,8 +7665,8 @@
       <c r="A154" s="19">
         <v>8</v>
       </c>
-      <c r="B154" s="82"/>
-      <c r="C154" s="65" t="s">
+      <c r="B154" s="99"/>
+      <c r="C154" s="58" t="s">
         <v>92</v>
       </c>
       <c r="D154" s="21" t="s">
@@ -7742,8 +7687,8 @@
       <c r="A155" s="19">
         <v>9</v>
       </c>
-      <c r="B155" s="82"/>
-      <c r="C155" s="65" t="s">
+      <c r="B155" s="99"/>
+      <c r="C155" s="58" t="s">
         <v>93</v>
       </c>
       <c r="D155" s="21" t="s">
@@ -7766,7 +7711,7 @@
       <c r="A156" s="19">
         <v>10</v>
       </c>
-      <c r="B156" s="82"/>
+      <c r="B156" s="99"/>
       <c r="C156" s="21" t="s">
         <v>94</v>
       </c>
@@ -7779,7 +7724,7 @@
       <c r="F156" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="G156" s="73" t="s">
+      <c r="G156" s="58" t="s">
         <v>221</v>
       </c>
       <c r="H156" s="11" t="s">
@@ -7790,7 +7735,7 @@
       <c r="A157" s="19">
         <v>11</v>
       </c>
-      <c r="B157" s="82"/>
+      <c r="B157" s="99"/>
       <c r="C157" s="21" t="s">
         <v>95</v>
       </c>
@@ -7812,7 +7757,7 @@
       <c r="A158" s="19">
         <v>12</v>
       </c>
-      <c r="B158" s="82"/>
+      <c r="B158" s="99"/>
       <c r="C158" s="21" t="s">
         <v>97</v>
       </c>
@@ -7834,7 +7779,7 @@
       <c r="A159" s="19">
         <v>13</v>
       </c>
-      <c r="B159" s="89"/>
+      <c r="B159" s="85"/>
       <c r="C159" s="21" t="s">
         <v>101</v>
       </c>
@@ -7858,7 +7803,7 @@
       <c r="A160" s="19">
         <v>14</v>
       </c>
-      <c r="B160" s="90" t="s">
+      <c r="B160" s="80" t="s">
         <v>4</v>
       </c>
       <c r="C160" s="21" t="s">
@@ -7884,7 +7829,7 @@
       <c r="A161" s="19">
         <v>15</v>
       </c>
-      <c r="B161" s="87"/>
+      <c r="B161" s="81"/>
       <c r="C161" s="21" t="s">
         <v>108</v>
       </c>
@@ -7905,10 +7850,10 @@
       </c>
     </row>
     <row r="162" spans="1:8">
-      <c r="A162" s="70">
+      <c r="A162" s="19">
         <v>16</v>
       </c>
-      <c r="B162" s="81" t="s">
+      <c r="B162" s="98" t="s">
         <v>5</v>
       </c>
       <c r="C162" s="21" t="s">
@@ -7923,39 +7868,39 @@
       <c r="F162" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="G162" s="69" t="s">
+      <c r="G162" s="58" t="s">
         <v>79</v>
       </c>
       <c r="H162" s="11"/>
     </row>
     <row r="163" spans="1:8">
-      <c r="A163" s="70">
+      <c r="A163" s="19">
         <v>17</v>
       </c>
-      <c r="B163" s="91"/>
-      <c r="C163" s="69" t="s">
+      <c r="B163" s="100"/>
+      <c r="C163" s="58" t="s">
         <v>219</v>
       </c>
-      <c r="D163" s="68" t="s">
+      <c r="D163" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="E163" s="68" t="s">
+      <c r="E163" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="F163" s="68"/>
-      <c r="G163" s="69" t="s">
+      <c r="F163" s="21"/>
+      <c r="G163" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="H163" s="72" t="s">
+      <c r="H163" s="61" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="164" spans="1:8">
-      <c r="A164" s="70">
+      <c r="A164" s="19">
         <v>18</v>
       </c>
-      <c r="B164" s="89"/>
-      <c r="C164" s="65" t="s">
+      <c r="B164" s="85"/>
+      <c r="C164" s="58" t="s">
         <v>112</v>
       </c>
       <c r="D164" s="21" t="s">
@@ -7971,10 +7916,10 @@
       <c r="H164" s="11"/>
     </row>
     <row r="165" spans="1:8">
-      <c r="A165" s="70">
+      <c r="A165" s="19">
         <v>19</v>
       </c>
-      <c r="B165" s="90" t="s">
+      <c r="B165" s="80" t="s">
         <v>6</v>
       </c>
       <c r="C165" s="21" t="s">
@@ -7995,10 +7940,10 @@
       <c r="H165" s="11"/>
     </row>
     <row r="166" spans="1:8">
-      <c r="A166" s="70">
+      <c r="A166" s="19">
         <v>20</v>
       </c>
-      <c r="B166" s="87"/>
+      <c r="B166" s="81"/>
       <c r="C166" s="21" t="s">
         <v>117</v>
       </c>
@@ -8015,10 +7960,10 @@
       <c r="H166" s="11"/>
     </row>
     <row r="167" spans="1:8">
-      <c r="A167" s="70">
+      <c r="A167" s="19">
         <v>21</v>
       </c>
-      <c r="B167" s="87"/>
+      <c r="B167" s="81"/>
       <c r="C167" s="21" t="s">
         <v>118</v>
       </c>
@@ -8035,10 +7980,10 @@
       <c r="H167" s="11"/>
     </row>
     <row r="168" spans="1:8">
-      <c r="A168" s="70">
+      <c r="A168" s="19">
         <v>22</v>
       </c>
-      <c r="B168" s="87"/>
+      <c r="B168" s="81"/>
       <c r="C168" s="21" t="s">
         <v>119</v>
       </c>
@@ -8055,10 +8000,10 @@
       <c r="H168" s="11"/>
     </row>
     <row r="169" spans="1:8">
-      <c r="A169" s="70">
+      <c r="A169" s="19">
         <v>23</v>
       </c>
-      <c r="B169" s="87"/>
+      <c r="B169" s="81"/>
       <c r="C169" s="21" t="s">
         <v>120</v>
       </c>
@@ -8075,10 +8020,10 @@
       <c r="H169" s="11"/>
     </row>
     <row r="170" spans="1:8">
-      <c r="A170" s="70">
+      <c r="A170" s="19">
         <v>24</v>
       </c>
-      <c r="B170" s="87"/>
+      <c r="B170" s="81"/>
       <c r="C170" s="21" t="s">
         <v>121</v>
       </c>
@@ -8095,10 +8040,10 @@
       <c r="H170" s="11"/>
     </row>
     <row r="171" spans="1:8">
-      <c r="A171" s="70">
+      <c r="A171" s="19">
         <v>25</v>
       </c>
-      <c r="B171" s="87"/>
+      <c r="B171" s="81"/>
       <c r="C171" s="21" t="s">
         <v>122</v>
       </c>
@@ -8115,10 +8060,10 @@
       <c r="H171" s="11"/>
     </row>
     <row r="172" spans="1:8">
-      <c r="A172" s="70">
+      <c r="A172" s="19">
         <v>26</v>
       </c>
-      <c r="B172" s="87"/>
+      <c r="B172" s="81"/>
       <c r="C172" s="21" t="s">
         <v>38</v>
       </c>
@@ -8134,11 +8079,11 @@
       </c>
       <c r="H172" s="11"/>
     </row>
-    <row r="173" spans="1:8" ht="86.4">
+    <row r="173" spans="1:8" ht="90">
       <c r="A173" s="19">
         <v>27</v>
       </c>
-      <c r="B173" s="90" t="s">
+      <c r="B173" s="80" t="s">
         <v>7</v>
       </c>
       <c r="C173" s="21" t="s">
@@ -8150,7 +8095,7 @@
       <c r="E173" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="F173" s="71" t="s">
+      <c r="F173" s="58" t="s">
         <v>124</v>
       </c>
       <c r="G173" s="22" t="s">
@@ -8162,8 +8107,8 @@
       <c r="A174" s="19">
         <v>28</v>
       </c>
-      <c r="B174" s="87"/>
-      <c r="C174" s="65" t="s">
+      <c r="B174" s="81"/>
+      <c r="C174" s="58" t="s">
         <v>126</v>
       </c>
       <c r="D174" s="21" t="s">
@@ -8172,10 +8117,10 @@
       <c r="E174" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="F174" s="65" t="s">
+      <c r="F174" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="G174" s="65" t="s">
+      <c r="G174" s="58" t="s">
         <v>128</v>
       </c>
       <c r="H174" s="11"/>
@@ -8184,7 +8129,7 @@
       <c r="A175" s="19">
         <v>29</v>
       </c>
-      <c r="B175" s="87"/>
+      <c r="B175" s="81"/>
       <c r="C175" s="21" t="s">
         <v>129</v>
       </c>
@@ -8206,7 +8151,7 @@
       <c r="A176" s="19">
         <v>30</v>
       </c>
-      <c r="B176" s="81" t="s">
+      <c r="B176" s="98" t="s">
         <v>8</v>
       </c>
       <c r="C176" s="21" t="s">
@@ -8232,7 +8177,7 @@
       <c r="A177" s="23">
         <v>31</v>
       </c>
-      <c r="B177" s="82"/>
+      <c r="B177" s="99"/>
       <c r="C177" s="20" t="s">
         <v>135</v>
       </c>
@@ -8256,10 +8201,10 @@
       <c r="A178" s="16">
         <v>32</v>
       </c>
-      <c r="B178" s="83" t="s">
+      <c r="B178" s="101" t="s">
         <v>137</v>
       </c>
-      <c r="C178" s="66" t="s">
+      <c r="C178" s="59" t="s">
         <v>138</v>
       </c>
       <c r="D178" s="17" t="s">
@@ -8271,7 +8216,7 @@
       <c r="F178" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="G178" s="66" t="s">
+      <c r="G178" s="59" t="s">
         <v>140</v>
       </c>
       <c r="H178" s="10"/>
@@ -8280,8 +8225,8 @@
       <c r="A179" s="19">
         <v>33</v>
       </c>
-      <c r="B179" s="84"/>
-      <c r="C179" s="65" t="s">
+      <c r="B179" s="102"/>
+      <c r="C179" s="58" t="s">
         <v>141</v>
       </c>
       <c r="D179" s="21" t="s">
@@ -8293,7 +8238,7 @@
       <c r="F179" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="G179" s="67" t="s">
+      <c r="G179" s="60" t="s">
         <v>143</v>
       </c>
       <c r="H179" s="11"/>
@@ -8302,8 +8247,8 @@
       <c r="A180" s="19">
         <v>34</v>
       </c>
-      <c r="B180" s="85"/>
-      <c r="C180" s="67" t="s">
+      <c r="B180" s="103"/>
+      <c r="C180" s="60" t="s">
         <v>144</v>
       </c>
       <c r="D180" s="21" t="s">
@@ -8321,44 +8266,44 @@
       <c r="H180" s="24"/>
     </row>
     <row r="181" spans="1:8">
-      <c r="A181" s="25">
+      <c r="A181" s="23">
         <v>35</v>
       </c>
-      <c r="B181" s="85"/>
-      <c r="C181" s="67" t="s">
+      <c r="B181" s="103"/>
+      <c r="C181" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="D181" s="26" t="s">
+      <c r="D181" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="E181" s="26" t="s">
+      <c r="E181" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="F181" s="26" t="s">
+      <c r="F181" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="G181" s="67" t="s">
+      <c r="G181" s="60" t="s">
         <v>147</v>
       </c>
-      <c r="H181" s="27"/>
+      <c r="H181" s="24"/>
     </row>
     <row r="182" spans="1:8">
-      <c r="A182" s="28">
+      <c r="A182" s="25">
         <v>36</v>
       </c>
-      <c r="B182" s="86"/>
-      <c r="C182" s="29" t="s">
+      <c r="B182" s="89"/>
+      <c r="C182" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="D182" s="29" t="s">
+      <c r="D182" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="E182" s="29" t="s">
+      <c r="E182" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="F182" s="29"/>
-      <c r="G182" s="29"/>
-      <c r="H182" s="30"/>
+      <c r="F182" s="26"/>
+      <c r="G182" s="26"/>
+      <c r="H182" s="27"/>
     </row>
     <row r="183" spans="1:8">
       <c r="A183" s="1" t="s">
@@ -8369,7 +8314,7 @@
       </c>
     </row>
     <row r="184" spans="1:8">
-      <c r="B184" s="31" t="s">
+      <c r="B184" s="1" t="s">
         <v>151</v>
       </c>
     </row>
@@ -8390,18 +8335,18 @@
       <c r="A196" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B196" s="32" t="s">
+      <c r="B196" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="C196" s="114" t="s">
+      <c r="C196" s="71" t="s">
         <v>157</v>
       </c>
-      <c r="D196" s="114"/>
-      <c r="E196" s="114"/>
-      <c r="F196" s="33" t="s">
+      <c r="D196" s="71"/>
+      <c r="E196" s="71"/>
+      <c r="F196" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="G196" s="34" t="s">
+      <c r="G196" s="29" t="s">
         <v>159</v>
       </c>
     </row>
@@ -8409,129 +8354,129 @@
       <c r="A197" s="96" t="s">
         <v>160</v>
       </c>
-      <c r="B197" s="87" t="s">
+      <c r="B197" s="81" t="s">
         <v>161</v>
       </c>
-      <c r="C197" s="115" t="s">
+      <c r="C197" s="72" t="s">
         <v>162</v>
       </c>
-      <c r="D197" s="116"/>
-      <c r="E197" s="116"/>
+      <c r="D197" s="73"/>
+      <c r="E197" s="73"/>
       <c r="F197" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="G197" s="35" t="s">
+      <c r="G197" s="30" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="198" spans="1:7">
       <c r="A198" s="96"/>
-      <c r="B198" s="88"/>
-      <c r="C198" s="106" t="s">
+      <c r="B198" s="104"/>
+      <c r="C198" s="74" t="s">
         <v>162</v>
       </c>
-      <c r="D198" s="117"/>
-      <c r="E198" s="117"/>
+      <c r="D198" s="75"/>
+      <c r="E198" s="75"/>
       <c r="F198" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="G198" s="36" t="s">
+      <c r="G198" s="31" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="199" spans="1:7">
       <c r="A199" s="96"/>
-      <c r="B199" s="87" t="s">
+      <c r="B199" s="81" t="s">
         <v>166</v>
       </c>
-      <c r="C199" s="110" t="s">
+      <c r="C199" s="76" t="s">
         <v>167</v>
       </c>
-      <c r="D199" s="110"/>
-      <c r="E199" s="110"/>
+      <c r="D199" s="76"/>
+      <c r="E199" s="76"/>
       <c r="F199" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="G199" s="35" t="s">
+      <c r="G199" s="30" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="200" spans="1:7">
       <c r="A200" s="96"/>
-      <c r="B200" s="87"/>
-      <c r="C200" s="106" t="s">
+      <c r="B200" s="81"/>
+      <c r="C200" s="74" t="s">
         <v>167</v>
       </c>
-      <c r="D200" s="106"/>
-      <c r="E200" s="106"/>
+      <c r="D200" s="74"/>
+      <c r="E200" s="74"/>
       <c r="F200" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="G200" s="35" t="s">
+      <c r="G200" s="30" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="201" spans="1:7">
       <c r="A201" s="96"/>
-      <c r="B201" s="88" t="s">
+      <c r="B201" s="104" t="s">
         <v>168</v>
       </c>
-      <c r="C201" s="107" t="s">
+      <c r="C201" s="77" t="s">
         <v>162</v>
       </c>
-      <c r="D201" s="108"/>
-      <c r="E201" s="109"/>
+      <c r="D201" s="78"/>
+      <c r="E201" s="79"/>
       <c r="F201" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="G201" s="35" t="s">
+      <c r="G201" s="30" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="202" spans="1:7">
       <c r="A202" s="96"/>
-      <c r="B202" s="89"/>
-      <c r="C202" s="107" t="s">
+      <c r="B202" s="85"/>
+      <c r="C202" s="77" t="s">
         <v>162</v>
       </c>
-      <c r="D202" s="108"/>
-      <c r="E202" s="109"/>
+      <c r="D202" s="78"/>
+      <c r="E202" s="79"/>
       <c r="F202" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="G202" s="35" t="s">
+      <c r="G202" s="30" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="203" spans="1:7">
       <c r="A203" s="96"/>
-      <c r="B203" s="87" t="s">
+      <c r="B203" s="81" t="s">
         <v>169</v>
       </c>
-      <c r="C203" s="110" t="s">
+      <c r="C203" s="76" t="s">
         <v>170</v>
       </c>
-      <c r="D203" s="110"/>
-      <c r="E203" s="110"/>
+      <c r="D203" s="76"/>
+      <c r="E203" s="76"/>
       <c r="F203" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="G203" s="35" t="s">
+      <c r="G203" s="30" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="204" spans="1:7">
       <c r="A204" s="96"/>
-      <c r="B204" s="87"/>
-      <c r="C204" s="110" t="s">
+      <c r="B204" s="81"/>
+      <c r="C204" s="76" t="s">
         <v>170</v>
       </c>
-      <c r="D204" s="110"/>
-      <c r="E204" s="110"/>
+      <c r="D204" s="76"/>
+      <c r="E204" s="76"/>
       <c r="F204" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="G204" s="35" t="s">
+      <c r="G204" s="30" t="s">
         <v>164</v>
       </c>
     </row>
@@ -8539,65 +8484,65 @@
       <c r="A205" s="96" t="s">
         <v>171</v>
       </c>
-      <c r="B205" s="87" t="s">
+      <c r="B205" s="81" t="s">
         <v>172</v>
       </c>
-      <c r="C205" s="90" t="s">
+      <c r="C205" s="80" t="s">
         <v>173</v>
       </c>
-      <c r="D205" s="87"/>
-      <c r="E205" s="87"/>
+      <c r="D205" s="81"/>
+      <c r="E205" s="81"/>
       <c r="F205" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="G205" s="35" t="s">
+      <c r="G205" s="30" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="206" spans="1:7">
       <c r="A206" s="96"/>
-      <c r="B206" s="87"/>
-      <c r="C206" s="87" t="s">
+      <c r="B206" s="81"/>
+      <c r="C206" s="81" t="s">
         <v>174</v>
       </c>
-      <c r="D206" s="87"/>
-      <c r="E206" s="87"/>
+      <c r="D206" s="81"/>
+      <c r="E206" s="81"/>
       <c r="F206" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="G206" s="35" t="s">
+      <c r="G206" s="30" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="207" spans="1:7">
       <c r="A207" s="96"/>
-      <c r="B207" s="87" t="s">
+      <c r="B207" s="81" t="s">
         <v>176</v>
       </c>
-      <c r="C207" s="87" t="s">
+      <c r="C207" s="81" t="s">
         <v>177</v>
       </c>
-      <c r="D207" s="87"/>
-      <c r="E207" s="87"/>
+      <c r="D207" s="81"/>
+      <c r="E207" s="81"/>
       <c r="F207" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="G207" s="35" t="s">
+      <c r="G207" s="30" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="208" spans="1:7">
       <c r="A208" s="96"/>
-      <c r="B208" s="87"/>
-      <c r="C208" s="87" t="s">
+      <c r="B208" s="81"/>
+      <c r="C208" s="81" t="s">
         <v>178</v>
       </c>
-      <c r="D208" s="87"/>
-      <c r="E208" s="87"/>
+      <c r="D208" s="81"/>
+      <c r="E208" s="81"/>
       <c r="F208" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="G208" s="35" t="s">
+      <c r="G208" s="30" t="s">
         <v>164</v>
       </c>
     </row>
@@ -8605,65 +8550,65 @@
       <c r="A209" s="96" t="s">
         <v>179</v>
       </c>
-      <c r="B209" s="87" t="s">
+      <c r="B209" s="81" t="s">
         <v>180</v>
       </c>
-      <c r="C209" s="90" t="s">
+      <c r="C209" s="80" t="s">
         <v>181</v>
       </c>
-      <c r="D209" s="87"/>
-      <c r="E209" s="87"/>
+      <c r="D209" s="81"/>
+      <c r="E209" s="81"/>
       <c r="F209" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="G209" s="35" t="s">
+      <c r="G209" s="30" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="210" spans="1:7">
       <c r="A210" s="96"/>
-      <c r="B210" s="87"/>
-      <c r="C210" s="87" t="s">
+      <c r="B210" s="81"/>
+      <c r="C210" s="81" t="s">
         <v>182</v>
       </c>
-      <c r="D210" s="87"/>
-      <c r="E210" s="87"/>
+      <c r="D210" s="81"/>
+      <c r="E210" s="81"/>
       <c r="F210" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="G210" s="35" t="s">
+      <c r="G210" s="30" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="211" spans="1:7">
       <c r="A211" s="96"/>
-      <c r="B211" s="87" t="s">
+      <c r="B211" s="81" t="s">
         <v>183</v>
       </c>
-      <c r="C211" s="90" t="s">
+      <c r="C211" s="80" t="s">
         <v>184</v>
       </c>
-      <c r="D211" s="87"/>
-      <c r="E211" s="87"/>
+      <c r="D211" s="81"/>
+      <c r="E211" s="81"/>
       <c r="F211" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="G211" s="35" t="s">
+      <c r="G211" s="30" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="212" spans="1:7">
       <c r="A212" s="97"/>
-      <c r="B212" s="98"/>
-      <c r="C212" s="98" t="s">
+      <c r="B212" s="82"/>
+      <c r="C212" s="82" t="s">
         <v>185</v>
       </c>
-      <c r="D212" s="98"/>
-      <c r="E212" s="98"/>
-      <c r="F212" s="29" t="s">
+      <c r="D212" s="82"/>
+      <c r="E212" s="82"/>
+      <c r="F212" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="G212" s="37" t="s">
+      <c r="G212" s="32" t="s">
         <v>164</v>
       </c>
     </row>
@@ -8671,60 +8616,43 @@
       <c r="A213" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C213" s="31"/>
-      <c r="D213" s="31"/>
-      <c r="E213" s="31"/>
-      <c r="F213" s="31"/>
-    </row>
-    <row r="214" spans="1:7">
-      <c r="C214" s="31"/>
-      <c r="D214" s="31"/>
-      <c r="E214" s="31"/>
-    </row>
-    <row r="215" spans="1:7">
-      <c r="C215" s="31"/>
-      <c r="D215" s="31"/>
-      <c r="E215" s="31"/>
     </row>
     <row r="216" spans="1:7">
       <c r="A216" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C216" s="31"/>
-      <c r="D216" s="31"/>
-      <c r="E216" s="31"/>
     </row>
     <row r="217" spans="1:7">
-      <c r="A217" s="38" t="s">
+      <c r="A217" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="B217" s="104" t="s">
+      <c r="B217" s="83" t="s">
         <v>189</v>
       </c>
-      <c r="C217" s="104"/>
-      <c r="D217" s="104"/>
-      <c r="E217" s="104"/>
-      <c r="F217" s="39" t="s">
+      <c r="C217" s="83"/>
+      <c r="D217" s="83"/>
+      <c r="E217" s="83"/>
+      <c r="F217" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="G217" s="40" t="s">
+      <c r="G217" s="35" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="218" spans="1:7" ht="93" customHeight="1">
-      <c r="A218" s="41" t="s">
+      <c r="A218" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="B218" s="105" t="s">
+      <c r="B218" s="84" t="s">
         <v>193</v>
       </c>
-      <c r="C218" s="89"/>
-      <c r="D218" s="89"/>
-      <c r="E218" s="89"/>
-      <c r="F218" s="42" t="s">
+      <c r="C218" s="85"/>
+      <c r="D218" s="85"/>
+      <c r="E218" s="85"/>
+      <c r="F218" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="G218" s="43" t="s">
+      <c r="G218" s="38" t="s">
         <v>164</v>
       </c>
     </row>
@@ -8732,12 +8660,12 @@
       <c r="A219" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="B219" s="100" t="s">
+      <c r="B219" s="86" t="s">
         <v>195</v>
       </c>
-      <c r="C219" s="101"/>
-      <c r="D219" s="101"/>
-      <c r="E219" s="102"/>
+      <c r="C219" s="87"/>
+      <c r="D219" s="87"/>
+      <c r="E219" s="88"/>
       <c r="F219" s="9" t="s">
         <v>164</v>
       </c>
@@ -8749,12 +8677,12 @@
       <c r="A220" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="B220" s="100" t="s">
+      <c r="B220" s="86" t="s">
         <v>197</v>
       </c>
-      <c r="C220" s="101"/>
-      <c r="D220" s="101"/>
-      <c r="E220" s="102"/>
+      <c r="C220" s="87"/>
+      <c r="D220" s="87"/>
+      <c r="E220" s="88"/>
       <c r="F220" s="13" t="s">
         <v>164</v>
       </c>
@@ -8766,21 +8694,21 @@
       <c r="A221" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="B221" s="86" t="s">
+      <c r="B221" s="89" t="s">
         <v>199</v>
       </c>
-      <c r="C221" s="98"/>
-      <c r="D221" s="98"/>
-      <c r="E221" s="98"/>
+      <c r="C221" s="82"/>
+      <c r="D221" s="82"/>
+      <c r="E221" s="82"/>
       <c r="F221" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="G221" s="30" t="s">
+      <c r="G221" s="27" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="222" spans="1:7">
-      <c r="C222" s="44"/>
+      <c r="C222" s="39"/>
     </row>
     <row r="224" spans="1:7">
       <c r="A224" s="1" t="s">
@@ -8791,128 +8719,128 @@
       <c r="A225" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B225" s="32" t="s">
+      <c r="B225" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C225" s="45" t="s">
+      <c r="C225" s="40" t="s">
         <v>202</v>
       </c>
-      <c r="D225" s="46" t="s">
+      <c r="D225" s="41" t="s">
         <v>189</v>
       </c>
-      <c r="E225" s="46"/>
-      <c r="F225" s="47"/>
-      <c r="G225" s="34" t="s">
+      <c r="E225" s="41"/>
+      <c r="F225" s="5"/>
+      <c r="G225" s="29" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="226" spans="1:7">
-      <c r="A226" s="48">
+      <c r="A226" s="42">
         <v>42682</v>
       </c>
-      <c r="B226" s="49">
+      <c r="B226" s="43">
         <v>1.04</v>
       </c>
       <c r="C226" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="D226" s="103" t="s">
+      <c r="D226" s="90" t="s">
         <v>205</v>
       </c>
-      <c r="E226" s="103"/>
-      <c r="F226" s="103"/>
-      <c r="G226" s="50"/>
+      <c r="E226" s="90"/>
+      <c r="F226" s="90"/>
+      <c r="G226" s="18"/>
     </row>
     <row r="227" spans="1:7">
-      <c r="A227" s="51">
+      <c r="A227" s="44">
         <v>42692</v>
       </c>
-      <c r="B227" s="52">
+      <c r="B227" s="45">
         <v>1.05</v>
       </c>
       <c r="C227" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="D227" s="99" t="s">
+      <c r="D227" s="91" t="s">
         <v>206</v>
       </c>
-      <c r="E227" s="99"/>
-      <c r="F227" s="99"/>
-      <c r="G227" s="35"/>
+      <c r="E227" s="91"/>
+      <c r="F227" s="91"/>
+      <c r="G227" s="30"/>
     </row>
     <row r="228" spans="1:7">
-      <c r="A228" s="51">
+      <c r="A228" s="44">
         <v>42955</v>
       </c>
-      <c r="B228" s="52">
+      <c r="B228" s="45">
         <v>1.06</v>
       </c>
       <c r="C228" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="D228" s="99" t="s">
+      <c r="D228" s="91" t="s">
         <v>207</v>
       </c>
-      <c r="E228" s="99"/>
-      <c r="F228" s="99"/>
-      <c r="G228" s="35"/>
+      <c r="E228" s="91"/>
+      <c r="F228" s="91"/>
+      <c r="G228" s="30"/>
     </row>
     <row r="229" spans="1:7">
-      <c r="A229" s="51">
+      <c r="A229" s="44">
         <v>42991</v>
       </c>
-      <c r="B229" s="52">
+      <c r="B229" s="45">
         <v>1.07</v>
       </c>
       <c r="C229" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="D229" s="99" t="s">
+      <c r="D229" s="91" t="s">
         <v>208</v>
       </c>
-      <c r="E229" s="99"/>
-      <c r="F229" s="99"/>
-      <c r="G229" s="35"/>
+      <c r="E229" s="91"/>
+      <c r="F229" s="91"/>
+      <c r="G229" s="30"/>
     </row>
     <row r="230" spans="1:7">
-      <c r="A230" s="51">
+      <c r="A230" s="44">
         <v>43026</v>
       </c>
-      <c r="B230" s="52">
+      <c r="B230" s="45">
         <v>1.08</v>
       </c>
       <c r="C230" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="D230" s="99" t="s">
+      <c r="D230" s="91" t="s">
         <v>209</v>
       </c>
-      <c r="E230" s="99"/>
-      <c r="F230" s="99"/>
-      <c r="G230" s="35"/>
+      <c r="E230" s="91"/>
+      <c r="F230" s="91"/>
+      <c r="G230" s="30"/>
     </row>
     <row r="231" spans="1:7">
-      <c r="A231" s="51">
+      <c r="A231" s="44">
         <v>43069</v>
       </c>
-      <c r="B231" s="52">
+      <c r="B231" s="45">
         <v>1.0900000000000001</v>
       </c>
       <c r="C231" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="D231" s="99" t="s">
+      <c r="D231" s="91" t="s">
         <v>210</v>
       </c>
-      <c r="E231" s="99"/>
-      <c r="F231" s="99"/>
-      <c r="G231" s="35"/>
+      <c r="E231" s="91"/>
+      <c r="F231" s="91"/>
+      <c r="G231" s="30"/>
     </row>
     <row r="232" spans="1:7">
-      <c r="A232" s="53">
+      <c r="A232" s="46">
         <v>43248</v>
       </c>
-      <c r="B232" s="54">
+      <c r="B232" s="47">
         <v>1.1000000000000001</v>
       </c>
       <c r="C232" s="20" t="s">
@@ -8923,13 +8851,13 @@
       </c>
       <c r="E232" s="93"/>
       <c r="F232" s="94"/>
-      <c r="G232" s="36"/>
+      <c r="G232" s="31"/>
     </row>
     <row r="233" spans="1:7">
-      <c r="A233" s="53">
+      <c r="A233" s="46">
         <v>43339</v>
       </c>
-      <c r="B233" s="54">
+      <c r="B233" s="47">
         <v>1.1100000000000001</v>
       </c>
       <c r="C233" s="20" t="s">
@@ -8940,13 +8868,13 @@
       </c>
       <c r="E233" s="93"/>
       <c r="F233" s="94"/>
-      <c r="G233" s="36"/>
+      <c r="G233" s="31"/>
     </row>
     <row r="234" spans="1:7">
-      <c r="A234" s="53">
+      <c r="A234" s="46">
         <v>43542</v>
       </c>
-      <c r="B234" s="54">
+      <c r="B234" s="47">
         <v>1.1200000000000001</v>
       </c>
       <c r="C234" s="20" t="s">
@@ -8957,67 +8885,67 @@
       </c>
       <c r="E234" s="93"/>
       <c r="F234" s="94"/>
-      <c r="G234" s="36"/>
+      <c r="G234" s="31"/>
     </row>
     <row r="235" spans="1:7">
-      <c r="A235" s="53">
+      <c r="A235" s="46">
         <v>43599</v>
       </c>
-      <c r="B235" s="54">
+      <c r="B235" s="47">
         <v>1.1299999999999999</v>
       </c>
       <c r="C235" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="D235" s="55" t="s">
+      <c r="D235" s="48" t="s">
         <v>214</v>
       </c>
-      <c r="E235" s="56"/>
-      <c r="F235" s="57"/>
-      <c r="G235" s="36"/>
+      <c r="E235" s="49"/>
+      <c r="F235" s="50"/>
+      <c r="G235" s="31"/>
     </row>
     <row r="236" spans="1:7">
-      <c r="A236" s="53">
+      <c r="A236" s="46">
         <v>43643</v>
       </c>
-      <c r="B236" s="54">
+      <c r="B236" s="47">
         <v>1.1399999999999999</v>
       </c>
       <c r="C236" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="D236" s="55" t="s">
+      <c r="D236" s="48" t="s">
         <v>215</v>
       </c>
-      <c r="E236" s="56"/>
-      <c r="F236" s="57"/>
-      <c r="G236" s="36"/>
+      <c r="E236" s="49"/>
+      <c r="F236" s="50"/>
+      <c r="G236" s="31"/>
     </row>
     <row r="237" spans="1:7">
-      <c r="A237" s="53">
+      <c r="A237" s="46">
         <v>43894</v>
       </c>
-      <c r="B237" s="54">
+      <c r="B237" s="47">
         <v>1.1499999999999999</v>
       </c>
       <c r="C237" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="D237" s="55" t="s">
+      <c r="D237" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="E237" s="56"/>
-      <c r="F237" s="57"/>
-      <c r="G237" s="36"/>
+      <c r="E237" s="49"/>
+      <c r="F237" s="50"/>
+      <c r="G237" s="31"/>
     </row>
     <row r="238" spans="1:7">
-      <c r="A238" s="58">
+      <c r="A238" s="51">
         <v>44017</v>
       </c>
-      <c r="B238" s="59">
+      <c r="B238" s="52">
         <v>1.1599999999999999</v>
       </c>
-      <c r="C238" s="29" t="s">
+      <c r="C238" s="26" t="s">
         <v>204</v>
       </c>
       <c r="D238" s="95" t="s">
@@ -9025,7 +8953,7 @@
       </c>
       <c r="E238" s="95"/>
       <c r="F238" s="95"/>
-      <c r="G238" s="37"/>
+      <c r="G238" s="32"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="0UT41XaxqgQhfsgssrlya0NBWnXPg0uj6FDdbXVfzp9AG3o5yGtUIGPEnJmecspgIgyYg7bYBIYw+0kw8uPBjA==" saltValue="4z6ntY5HlVVddlUdMd47dg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
@@ -9037,31 +8965,16 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="51">
-    <mergeCell ref="F111:N111"/>
-    <mergeCell ref="C196:E196"/>
-    <mergeCell ref="C197:E197"/>
-    <mergeCell ref="C198:E198"/>
-    <mergeCell ref="C199:E199"/>
-    <mergeCell ref="C200:E200"/>
-    <mergeCell ref="C201:E201"/>
-    <mergeCell ref="C202:E202"/>
-    <mergeCell ref="C203:E203"/>
-    <mergeCell ref="C204:E204"/>
-    <mergeCell ref="C205:E205"/>
-    <mergeCell ref="C206:E206"/>
-    <mergeCell ref="C207:E207"/>
-    <mergeCell ref="C208:E208"/>
-    <mergeCell ref="C209:E209"/>
-    <mergeCell ref="C210:E210"/>
-    <mergeCell ref="C211:E211"/>
-    <mergeCell ref="C212:E212"/>
-    <mergeCell ref="B217:E217"/>
-    <mergeCell ref="B218:E218"/>
-    <mergeCell ref="B219:E219"/>
-    <mergeCell ref="B220:E220"/>
-    <mergeCell ref="B221:E221"/>
-    <mergeCell ref="D226:F226"/>
-    <mergeCell ref="D227:F227"/>
+    <mergeCell ref="B176:B177"/>
+    <mergeCell ref="B178:B182"/>
+    <mergeCell ref="B197:B198"/>
+    <mergeCell ref="B199:B200"/>
+    <mergeCell ref="B201:B202"/>
+    <mergeCell ref="B147:B159"/>
+    <mergeCell ref="B160:B161"/>
+    <mergeCell ref="B162:B164"/>
+    <mergeCell ref="B165:B172"/>
+    <mergeCell ref="B173:B175"/>
     <mergeCell ref="D233:F233"/>
     <mergeCell ref="D234:F234"/>
     <mergeCell ref="D238:F238"/>
@@ -9078,16 +8991,31 @@
     <mergeCell ref="D230:F230"/>
     <mergeCell ref="D231:F231"/>
     <mergeCell ref="D232:F232"/>
-    <mergeCell ref="B147:B159"/>
-    <mergeCell ref="B160:B161"/>
-    <mergeCell ref="B162:B164"/>
-    <mergeCell ref="B165:B172"/>
-    <mergeCell ref="B173:B175"/>
-    <mergeCell ref="B176:B177"/>
-    <mergeCell ref="B178:B182"/>
-    <mergeCell ref="B197:B198"/>
-    <mergeCell ref="B199:B200"/>
-    <mergeCell ref="B201:B202"/>
+    <mergeCell ref="B219:E219"/>
+    <mergeCell ref="B220:E220"/>
+    <mergeCell ref="B221:E221"/>
+    <mergeCell ref="D226:F226"/>
+    <mergeCell ref="D227:F227"/>
+    <mergeCell ref="C210:E210"/>
+    <mergeCell ref="C211:E211"/>
+    <mergeCell ref="C212:E212"/>
+    <mergeCell ref="B217:E217"/>
+    <mergeCell ref="B218:E218"/>
+    <mergeCell ref="C205:E205"/>
+    <mergeCell ref="C206:E206"/>
+    <mergeCell ref="C207:E207"/>
+    <mergeCell ref="C208:E208"/>
+    <mergeCell ref="C209:E209"/>
+    <mergeCell ref="C200:E200"/>
+    <mergeCell ref="C201:E201"/>
+    <mergeCell ref="C202:E202"/>
+    <mergeCell ref="C203:E203"/>
+    <mergeCell ref="C204:E204"/>
+    <mergeCell ref="F111:N111"/>
+    <mergeCell ref="C196:E196"/>
+    <mergeCell ref="C197:E197"/>
+    <mergeCell ref="C198:E198"/>
+    <mergeCell ref="C199:E199"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -9096,12 +9024,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -9110,15 +9038,15 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
+    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}">
+      <selection activeCell="E26" sqref="E26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}">
       <selection activeCell="E26" sqref="E26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}">
-      <selection activeCell="E26" sqref="E26"/>
+    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>

--- a/tmp_client/doc/TMP_EIT_suites/radiant/silicon_06_jedi_d1.xlsx
+++ b/tmp_client/doc/TMP_EIT_suites/radiant/silicon_06_jedi_d1.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\repository\tmp_client\doc\TMP_EIT_suites\radiant\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jzhou2\Desktop\00_TMP_Client\new\repository\tmp_client\doc\TMP_EIT_suites\radiant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E4FF04-7965-4B14-98A0-B2D8DF757B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F34B47-CD4F-43E8-84C8-475F81ADF27F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="40MRd5r6vR/eXVUGbL7aEMM1NO6mwC4SojgFQmqHtZOqnQZBLsdr03u6GYWM/ftoMUNBO+KP7cdpMmOVZ0x4WQ==" workbookSaltValue="I+dbibQaVxj+tsXuP7uNKg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="suite" sheetId="1" r:id="rId1"/>
@@ -25,11 +25,11 @@
     <definedName name="Z_179F0E1F_F6F7_410E_B883_54B8A90BA550_.wvu.FilterData" localSheetId="1" hidden="1">case!$A$2:$AD$2</definedName>
     <definedName name="Z_E811CF45_D5B3_4449_84AE_1514F9E9258F_.wvu.FilterData" localSheetId="1" hidden="1">case!$A$2:$AD$35</definedName>
   </definedNames>
-  <calcPr calcId="144525" calcOnSave="0"/>
+  <calcPr calcId="144525"/>
   <customWorkbookViews>
+    <customWorkbookView name="Jason Wang - Personal View" guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="2"/>
+    <customWorkbookView name="Xueying Li - Personal View" guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}" personalView="1" yWindow="337" windowWidth="1878" windowHeight="703" activeSheetId="1"/>
     <customWorkbookView name="Cherry Xu - Personal View" guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" personalView="1" maximized="1" windowWidth="1916" windowHeight="835" activeSheetId="2"/>
-    <customWorkbookView name="Xueying Li - Personal View" guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}" personalView="1" yWindow="337" windowWidth="1878" windowHeight="703" activeSheetId="1"/>
-    <customWorkbookView name="Jason Wang - Personal View" guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="2"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -811,9 +811,6 @@
     <t>00_primitive/01_clock/11_PCLKDIVSP</t>
   </si>
   <si>
-    <t>00_primitive/01_clock/12_PLL</t>
-  </si>
-  <si>
     <t>00_primitive/02_sysMem/00_DP16K</t>
   </si>
   <si>
@@ -1067,6 +1064,9 @@
   </si>
   <si>
     <t>silicon_06_jedi_d1_v2.02</t>
+  </si>
+  <si>
+    <t>00_primitive/01_clock/12_PLLA</t>
   </si>
 </sst>
 </file>
@@ -1848,106 +1848,106 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="35" xfId="4" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="5" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="5" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="5" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="5" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="5" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="5" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="5" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="5" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="5" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="5" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="5" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="5" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -4733,7 +4733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -4749,7 +4749,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="54" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4757,7 +4757,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4765,7 +4765,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="54" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4773,12 +4773,12 @@
         <v>3</v>
       </c>
       <c r="B4" s="54" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" s="54" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4792,7 +4792,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="54" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4800,7 +4800,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="54" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4840,7 +4840,7 @@
         <v>24</v>
       </c>
       <c r="C15" s="54" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -4851,7 +4851,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="54" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -4862,7 +4862,7 @@
         <v>5</v>
       </c>
       <c r="C17" s="54" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -4889,7 +4889,7 @@
         <v>24</v>
       </c>
       <c r="C21" s="54" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -4900,7 +4900,7 @@
         <v>15</v>
       </c>
       <c r="C22" s="54" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -4911,7 +4911,7 @@
         <v>5</v>
       </c>
       <c r="C23" s="54" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -4922,8 +4922,7 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <customSheetViews>
-    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}">
-      <selection activeCell="B35" sqref="B35"/>
+    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
     </customSheetView>
@@ -4932,7 +4931,8 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
     </customSheetView>
-    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
+    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}">
+      <selection activeCell="B35" sqref="B35"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
     </customSheetView>
@@ -4946,11 +4946,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AD99"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B58" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C98" sqref="C98"/>
+      <selection pane="bottomRight" activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5118,7 +5118,7 @@
         <v>230</v>
       </c>
       <c r="S3" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD3" s="54" t="s">
         <v>229</v>
@@ -5132,7 +5132,7 @@
         <v>231</v>
       </c>
       <c r="S4" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD4" s="54" t="s">
         <v>229</v>
@@ -5146,7 +5146,7 @@
         <v>232</v>
       </c>
       <c r="S5" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD5" s="54" t="s">
         <v>228</v>
@@ -5157,10 +5157,10 @@
         <v>4</v>
       </c>
       <c r="E6" s="54" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="S6" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD6" s="54" t="s">
         <v>228</v>
@@ -5174,7 +5174,7 @@
         <v>233</v>
       </c>
       <c r="S7" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD7" s="54" t="s">
         <v>229</v>
@@ -5188,7 +5188,7 @@
         <v>234</v>
       </c>
       <c r="S8" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD8" s="54" t="s">
         <v>229</v>
@@ -5202,7 +5202,7 @@
         <v>235</v>
       </c>
       <c r="S9" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD9" s="54" t="s">
         <v>229</v>
@@ -5216,7 +5216,7 @@
         <v>236</v>
       </c>
       <c r="S10" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD10" s="54" t="s">
         <v>229</v>
@@ -5230,7 +5230,7 @@
         <v>237</v>
       </c>
       <c r="S11" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD11" s="54" t="s">
         <v>229</v>
@@ -5244,7 +5244,7 @@
         <v>238</v>
       </c>
       <c r="S12" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD12" s="54" t="s">
         <v>229</v>
@@ -5258,7 +5258,7 @@
         <v>239</v>
       </c>
       <c r="S13" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD13" s="54" t="s">
         <v>229</v>
@@ -5272,7 +5272,7 @@
         <v>240</v>
       </c>
       <c r="S14" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD14" s="54" t="s">
         <v>229</v>
@@ -5286,7 +5286,7 @@
         <v>241</v>
       </c>
       <c r="S15" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD15" s="54" t="s">
         <v>229</v>
@@ -5300,7 +5300,7 @@
         <v>242</v>
       </c>
       <c r="S16" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD16" s="54" t="s">
         <v>229</v>
@@ -5314,7 +5314,7 @@
         <v>243</v>
       </c>
       <c r="S17" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD17" s="54" t="s">
         <v>229</v>
@@ -5328,7 +5328,7 @@
         <v>244</v>
       </c>
       <c r="S18" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD18" s="54" t="s">
         <v>229</v>
@@ -5342,7 +5342,7 @@
         <v>245</v>
       </c>
       <c r="S19" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD19" s="54" t="s">
         <v>229</v>
@@ -5356,7 +5356,7 @@
         <v>246</v>
       </c>
       <c r="S20" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD20" s="54" t="s">
         <v>229</v>
@@ -5370,7 +5370,7 @@
         <v>247</v>
       </c>
       <c r="S21" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD21" s="54" t="s">
         <v>229</v>
@@ -5384,7 +5384,7 @@
         <v>248</v>
       </c>
       <c r="S22" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD22" s="54" t="s">
         <v>228</v>
@@ -5398,7 +5398,7 @@
         <v>249</v>
       </c>
       <c r="S23" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD23" s="54" t="s">
         <v>229</v>
@@ -5412,7 +5412,7 @@
         <v>250</v>
       </c>
       <c r="S24" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD24" s="54" t="s">
         <v>228</v>
@@ -5426,7 +5426,7 @@
         <v>251</v>
       </c>
       <c r="S25" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD25" s="54" t="s">
         <v>228</v>
@@ -5440,7 +5440,7 @@
         <v>252</v>
       </c>
       <c r="S26" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD26" s="54" t="s">
         <v>228</v>
@@ -5454,7 +5454,7 @@
         <v>253</v>
       </c>
       <c r="S27" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD27" s="54" t="s">
         <v>229</v>
@@ -5468,7 +5468,7 @@
         <v>254</v>
       </c>
       <c r="S28" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD28" s="54" t="s">
         <v>229</v>
@@ -5482,7 +5482,7 @@
         <v>255</v>
       </c>
       <c r="S29" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD29" s="54" t="s">
         <v>229</v>
@@ -5493,13 +5493,13 @@
         <v>28</v>
       </c>
       <c r="E30" s="54" t="s">
-        <v>256</v>
+        <v>341</v>
       </c>
       <c r="O30" s="54" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="S30" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD30" s="54" t="s">
         <v>229</v>
@@ -5510,10 +5510,10 @@
         <v>29</v>
       </c>
       <c r="E31" s="54" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S31" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD31" s="54" t="s">
         <v>229</v>
@@ -5524,10 +5524,10 @@
         <v>30</v>
       </c>
       <c r="E32" s="54" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="S32" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD32" s="54" t="s">
         <v>229</v>
@@ -5538,10 +5538,10 @@
         <v>31</v>
       </c>
       <c r="E33" s="54" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="S33" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD33" s="54" t="s">
         <v>229</v>
@@ -5552,10 +5552,10 @@
         <v>32</v>
       </c>
       <c r="E34" s="54" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="S34" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD34" s="54" t="s">
         <v>228</v>
@@ -5566,10 +5566,10 @@
         <v>33</v>
       </c>
       <c r="E35" s="54" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="S35" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD35" s="54" t="s">
         <v>229</v>
@@ -5580,10 +5580,10 @@
         <v>34</v>
       </c>
       <c r="E36" s="54" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="S36" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD36" s="54" t="s">
         <v>229</v>
@@ -5594,10 +5594,10 @@
         <v>35</v>
       </c>
       <c r="E37" s="54" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="S37" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD37" s="54" t="s">
         <v>229</v>
@@ -5608,10 +5608,10 @@
         <v>36</v>
       </c>
       <c r="E38" s="54" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="S38" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD38" s="54" t="s">
         <v>229</v>
@@ -5622,10 +5622,10 @@
         <v>37</v>
       </c>
       <c r="E39" s="54" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="S39" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD39" s="54" t="s">
         <v>229</v>
@@ -5636,10 +5636,10 @@
         <v>38</v>
       </c>
       <c r="E40" s="54" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S40" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD40" s="54" t="s">
         <v>229</v>
@@ -5650,10 +5650,10 @@
         <v>39</v>
       </c>
       <c r="E41" s="54" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="S41" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD41" s="54" t="s">
         <v>229</v>
@@ -5664,10 +5664,10 @@
         <v>40</v>
       </c>
       <c r="E42" s="54" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="S42" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD42" s="54" t="s">
         <v>229</v>
@@ -5678,10 +5678,10 @@
         <v>41</v>
       </c>
       <c r="E43" s="54" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="S43" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD43" s="54" t="s">
         <v>229</v>
@@ -5692,10 +5692,10 @@
         <v>42</v>
       </c>
       <c r="E44" s="54" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S44" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD44" s="54" t="s">
         <v>229</v>
@@ -5706,10 +5706,10 @@
         <v>43</v>
       </c>
       <c r="E45" s="54" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="S45" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD45" s="54" t="s">
         <v>229</v>
@@ -5720,10 +5720,10 @@
         <v>44</v>
       </c>
       <c r="E46" s="54" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="S46" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD46" s="54" t="s">
         <v>229</v>
@@ -5734,10 +5734,10 @@
         <v>45</v>
       </c>
       <c r="E47" s="54" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="S47" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD47" s="54" t="s">
         <v>229</v>
@@ -5748,10 +5748,10 @@
         <v>46</v>
       </c>
       <c r="E48" s="54" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="S48" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD48" s="54" t="s">
         <v>229</v>
@@ -5762,10 +5762,10 @@
         <v>47</v>
       </c>
       <c r="E49" s="54" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S49" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD49" s="54" t="s">
         <v>229</v>
@@ -5776,10 +5776,10 @@
         <v>48</v>
       </c>
       <c r="E50" s="54" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="S50" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD50" s="54" t="s">
         <v>229</v>
@@ -5790,10 +5790,10 @@
         <v>49</v>
       </c>
       <c r="E51" s="54" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="S51" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD51" s="54" t="s">
         <v>229</v>
@@ -5804,10 +5804,10 @@
         <v>50</v>
       </c>
       <c r="E52" s="54" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="S52" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD52" s="54" t="s">
         <v>229</v>
@@ -5818,10 +5818,10 @@
         <v>51</v>
       </c>
       <c r="E53" s="54" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="S53" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD53" s="54" t="s">
         <v>229</v>
@@ -5832,10 +5832,10 @@
         <v>52</v>
       </c>
       <c r="E54" s="54" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="S54" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD54" s="54" t="s">
         <v>229</v>
@@ -5846,10 +5846,10 @@
         <v>53</v>
       </c>
       <c r="E55" s="54" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="S55" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD55" s="54" t="s">
         <v>229</v>
@@ -5860,10 +5860,10 @@
         <v>54</v>
       </c>
       <c r="E56" s="54" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="S56" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD56" s="54" t="s">
         <v>229</v>
@@ -5874,10 +5874,10 @@
         <v>55</v>
       </c>
       <c r="E57" s="54" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S57" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD57" s="54" t="s">
         <v>229</v>
@@ -5888,10 +5888,10 @@
         <v>56</v>
       </c>
       <c r="E58" s="54" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S58" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD58" s="54" t="s">
         <v>228</v>
@@ -5902,10 +5902,10 @@
         <v>57</v>
       </c>
       <c r="E59" s="54" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="S59" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD59" s="54" t="s">
         <v>229</v>
@@ -5916,10 +5916,10 @@
         <v>58</v>
       </c>
       <c r="E60" s="54" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="S60" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD60" s="54" t="s">
         <v>229</v>
@@ -5930,10 +5930,10 @@
         <v>59</v>
       </c>
       <c r="E61" s="54" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="S61" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD61" s="54" t="s">
         <v>229</v>
@@ -5944,10 +5944,10 @@
         <v>60</v>
       </c>
       <c r="E62" s="54" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="S62" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD62" s="54" t="s">
         <v>229</v>
@@ -5958,10 +5958,10 @@
         <v>61</v>
       </c>
       <c r="E63" s="54" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="S63" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD63" s="54" t="s">
         <v>229</v>
@@ -5972,10 +5972,10 @@
         <v>62</v>
       </c>
       <c r="E64" s="54" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="S64" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD64" s="54" t="s">
         <v>229</v>
@@ -5986,10 +5986,10 @@
         <v>63</v>
       </c>
       <c r="E65" s="54" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="S65" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD65" s="54" t="s">
         <v>229</v>
@@ -6000,10 +6000,10 @@
         <v>64</v>
       </c>
       <c r="E66" s="54" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="S66" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD66" s="54" t="s">
         <v>229</v>
@@ -6014,10 +6014,10 @@
         <v>65</v>
       </c>
       <c r="E67" s="54" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="S67" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD67" s="54" t="s">
         <v>229</v>
@@ -6028,10 +6028,10 @@
         <v>66</v>
       </c>
       <c r="E68" s="54" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="S68" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD68" s="62" t="s">
         <v>229</v>
@@ -6042,10 +6042,10 @@
         <v>67</v>
       </c>
       <c r="E69" s="54" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="S69" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD69" s="54" t="s">
         <v>229</v>
@@ -6056,10 +6056,10 @@
         <v>68</v>
       </c>
       <c r="E70" s="54" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="S70" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD70" s="54" t="s">
         <v>229</v>
@@ -6070,10 +6070,10 @@
         <v>69</v>
       </c>
       <c r="E71" s="54" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="S71" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD71" s="54" t="s">
         <v>229</v>
@@ -6084,10 +6084,10 @@
         <v>70</v>
       </c>
       <c r="E72" s="54" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="S72" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD72" s="54" t="s">
         <v>229</v>
@@ -6098,10 +6098,10 @@
         <v>71</v>
       </c>
       <c r="E73" s="54" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="S73" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD73" s="54" t="s">
         <v>229</v>
@@ -6112,10 +6112,10 @@
         <v>72</v>
       </c>
       <c r="E74" s="54" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="S74" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD74" s="54" t="s">
         <v>229</v>
@@ -6126,10 +6126,10 @@
         <v>73</v>
       </c>
       <c r="E75" s="54" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S75" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD75" s="54" t="s">
         <v>229</v>
@@ -6140,10 +6140,10 @@
         <v>74</v>
       </c>
       <c r="E76" s="54" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="S76" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD76" s="54" t="s">
         <v>229</v>
@@ -6154,10 +6154,10 @@
         <v>75</v>
       </c>
       <c r="E77" s="54" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="S77" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD77" s="54" t="s">
         <v>229</v>
@@ -6168,10 +6168,10 @@
         <v>76</v>
       </c>
       <c r="E78" s="54" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="S78" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD78" s="54" t="s">
         <v>229</v>
@@ -6182,10 +6182,10 @@
         <v>77</v>
       </c>
       <c r="E79" s="54" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="S79" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD79" s="54" t="s">
         <v>229</v>
@@ -6196,10 +6196,10 @@
         <v>78</v>
       </c>
       <c r="E80" s="54" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="S80" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD80" s="54" t="s">
         <v>229</v>
@@ -6210,10 +6210,10 @@
         <v>79</v>
       </c>
       <c r="E81" s="54" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="S81" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD81" s="54" t="s">
         <v>229</v>
@@ -6224,13 +6224,13 @@
         <v>80</v>
       </c>
       <c r="E82" s="54" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O82" s="54" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="S82" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD82" s="54" t="s">
         <v>228</v>
@@ -6241,10 +6241,10 @@
         <v>81</v>
       </c>
       <c r="E83" s="54" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="S83" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD83" s="54" t="s">
         <v>229</v>
@@ -6255,11 +6255,11 @@
         <v>82</v>
       </c>
       <c r="E84" s="54" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H84" s="55"/>
       <c r="S84" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD84" s="54" t="s">
         <v>229</v>
@@ -6270,10 +6270,10 @@
         <v>83</v>
       </c>
       <c r="E85" s="54" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="S85" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD85" s="54" t="s">
         <v>229</v>
@@ -6284,10 +6284,10 @@
         <v>84</v>
       </c>
       <c r="E86" s="54" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="S86" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD86" s="54" t="s">
         <v>229</v>
@@ -6298,10 +6298,10 @@
         <v>85</v>
       </c>
       <c r="E87" s="54" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="S87" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD87" s="54" t="s">
         <v>228</v>
@@ -6312,10 +6312,10 @@
         <v>86</v>
       </c>
       <c r="E88" s="54" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="S88" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD88" s="54" t="s">
         <v>229</v>
@@ -6326,10 +6326,10 @@
         <v>87</v>
       </c>
       <c r="E89" s="54" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="S89" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD89" s="54" t="s">
         <v>229</v>
@@ -6340,10 +6340,10 @@
         <v>88</v>
       </c>
       <c r="E90" s="54" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="S90" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD90" s="54" t="s">
         <v>229</v>
@@ -6354,10 +6354,10 @@
         <v>89</v>
       </c>
       <c r="E91" s="54" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="S91" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD91" s="54" t="s">
         <v>229</v>
@@ -6368,10 +6368,10 @@
         <v>90</v>
       </c>
       <c r="E92" s="54" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="S92" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD92" s="54" t="s">
         <v>228</v>
@@ -6382,10 +6382,10 @@
         <v>91</v>
       </c>
       <c r="E93" s="54" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="S93" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD93" s="54" t="s">
         <v>229</v>
@@ -6396,10 +6396,10 @@
         <v>92</v>
       </c>
       <c r="E94" s="54" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="S94" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD94" s="54" t="s">
         <v>229</v>
@@ -6410,10 +6410,10 @@
         <v>93</v>
       </c>
       <c r="E95" s="54" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="S95" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD95" s="54" t="s">
         <v>228</v>
@@ -6424,10 +6424,10 @@
         <v>94</v>
       </c>
       <c r="E96" s="54" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="S96" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD96" s="54" t="s">
         <v>229</v>
@@ -6438,10 +6438,10 @@
         <v>95</v>
       </c>
       <c r="E97" s="54" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="S97" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD97" s="54" t="s">
         <v>228</v>
@@ -6452,10 +6452,10 @@
         <v>96</v>
       </c>
       <c r="E98" s="62" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="S98" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD98" s="54" t="s">
         <v>229</v>
@@ -6466,10 +6466,10 @@
         <v>97</v>
       </c>
       <c r="E99" s="62" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="S99" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AD99" s="54" t="s">
         <v>229</v>
@@ -6479,26 +6479,26 @@
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <autoFilter ref="A2:AD99" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <customSheetViews>
-    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" scale="85" showAutoFilter="1">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" state="frozen"/>
-      <selection activeCell="C23" sqref="C23"/>
+    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" scale="85" showAutoFilter="1">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="M38" sqref="M38"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
-      <autoFilter ref="A2:Y2" xr:uid="{972F138E-3ECE-4D32-BB40-CA28E3EDF67A}"/>
+      <autoFilter ref="A2:AD46" xr:uid="{47E6570B-8F45-460D-89D1-926C76F609DE}"/>
     </customSheetView>
     <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}" scale="85" showAutoFilter="1">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" state="frozen"/>
       <selection activeCell="H23" sqref="H23"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
-      <autoFilter ref="A2:Y2" xr:uid="{E6304A67-6469-47F0-A331-F9B52FE8B3EB}"/>
+      <autoFilter ref="A2:Y2" xr:uid="{4D423835-1A3D-4AE2-847F-E3AE68CCCC11}"/>
     </customSheetView>
-    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}" scale="85" showAutoFilter="1">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="M38" sqref="M38"/>
+    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}" scale="85" showAutoFilter="1">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" state="frozen"/>
+      <selection activeCell="C23" sqref="C23"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait"/>
-      <autoFilter ref="A2:AD46" xr:uid="{C5AD9EF5-9DA0-43C2-A504-A44306E8A85E}"/>
+      <autoFilter ref="A2:Y2" xr:uid="{32A17F1A-E8FC-4BC6-A510-8F210DD66C19}"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="2">
@@ -6635,17 +6635,17 @@
       <c r="E111" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F111" s="68" t="s">
+      <c r="F111" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="G111" s="69"/>
-      <c r="H111" s="69"/>
-      <c r="I111" s="69"/>
-      <c r="J111" s="69"/>
-      <c r="K111" s="69"/>
-      <c r="L111" s="69"/>
-      <c r="M111" s="69"/>
-      <c r="N111" s="70"/>
+      <c r="G111" s="99"/>
+      <c r="H111" s="99"/>
+      <c r="I111" s="99"/>
+      <c r="J111" s="99"/>
+      <c r="K111" s="99"/>
+      <c r="L111" s="99"/>
+      <c r="M111" s="99"/>
+      <c r="N111" s="100"/>
     </row>
     <row r="112" spans="1:14">
       <c r="A112" s="6" t="s">
@@ -7509,7 +7509,7 @@
       <c r="A147" s="19">
         <v>1</v>
       </c>
-      <c r="B147" s="98" t="s">
+      <c r="B147" s="68" t="s">
         <v>3</v>
       </c>
       <c r="C147" s="58" t="s">
@@ -7535,7 +7535,7 @@
       <c r="A148" s="19">
         <v>2</v>
       </c>
-      <c r="B148" s="99"/>
+      <c r="B148" s="69"/>
       <c r="C148" s="21" t="s">
         <v>81</v>
       </c>
@@ -7557,7 +7557,7 @@
       <c r="A149" s="19">
         <v>3</v>
       </c>
-      <c r="B149" s="99"/>
+      <c r="B149" s="69"/>
       <c r="C149" s="21" t="s">
         <v>16</v>
       </c>
@@ -7575,7 +7575,7 @@
       <c r="A150" s="19">
         <v>4</v>
       </c>
-      <c r="B150" s="99"/>
+      <c r="B150" s="69"/>
       <c r="C150" s="21" t="s">
         <v>83</v>
       </c>
@@ -7597,7 +7597,7 @@
       <c r="A151" s="19">
         <v>5</v>
       </c>
-      <c r="B151" s="99"/>
+      <c r="B151" s="69"/>
       <c r="C151" s="58" t="s">
         <v>85</v>
       </c>
@@ -7621,7 +7621,7 @@
       <c r="A152" s="19">
         <v>6</v>
       </c>
-      <c r="B152" s="99"/>
+      <c r="B152" s="69"/>
       <c r="C152" s="58" t="s">
         <v>89</v>
       </c>
@@ -7645,7 +7645,7 @@
       <c r="A153" s="19">
         <v>7</v>
       </c>
-      <c r="B153" s="99"/>
+      <c r="B153" s="69"/>
       <c r="C153" s="21" t="s">
         <v>91</v>
       </c>
@@ -7665,7 +7665,7 @@
       <c r="A154" s="19">
         <v>8</v>
       </c>
-      <c r="B154" s="99"/>
+      <c r="B154" s="69"/>
       <c r="C154" s="58" t="s">
         <v>92</v>
       </c>
@@ -7687,7 +7687,7 @@
       <c r="A155" s="19">
         <v>9</v>
       </c>
-      <c r="B155" s="99"/>
+      <c r="B155" s="69"/>
       <c r="C155" s="58" t="s">
         <v>93</v>
       </c>
@@ -7711,7 +7711,7 @@
       <c r="A156" s="19">
         <v>10</v>
       </c>
-      <c r="B156" s="99"/>
+      <c r="B156" s="69"/>
       <c r="C156" s="21" t="s">
         <v>94</v>
       </c>
@@ -7735,7 +7735,7 @@
       <c r="A157" s="19">
         <v>11</v>
       </c>
-      <c r="B157" s="99"/>
+      <c r="B157" s="69"/>
       <c r="C157" s="21" t="s">
         <v>95</v>
       </c>
@@ -7757,7 +7757,7 @@
       <c r="A158" s="19">
         <v>12</v>
       </c>
-      <c r="B158" s="99"/>
+      <c r="B158" s="69"/>
       <c r="C158" s="21" t="s">
         <v>97</v>
       </c>
@@ -7779,7 +7779,7 @@
       <c r="A159" s="19">
         <v>13</v>
       </c>
-      <c r="B159" s="85"/>
+      <c r="B159" s="76"/>
       <c r="C159" s="21" t="s">
         <v>101</v>
       </c>
@@ -7803,7 +7803,7 @@
       <c r="A160" s="19">
         <v>14</v>
       </c>
-      <c r="B160" s="80" t="s">
+      <c r="B160" s="77" t="s">
         <v>4</v>
       </c>
       <c r="C160" s="21" t="s">
@@ -7829,7 +7829,7 @@
       <c r="A161" s="19">
         <v>15</v>
       </c>
-      <c r="B161" s="81"/>
+      <c r="B161" s="74"/>
       <c r="C161" s="21" t="s">
         <v>108</v>
       </c>
@@ -7853,7 +7853,7 @@
       <c r="A162" s="19">
         <v>16</v>
       </c>
-      <c r="B162" s="98" t="s">
+      <c r="B162" s="68" t="s">
         <v>5</v>
       </c>
       <c r="C162" s="21" t="s">
@@ -7877,7 +7877,7 @@
       <c r="A163" s="19">
         <v>17</v>
       </c>
-      <c r="B163" s="100"/>
+      <c r="B163" s="78"/>
       <c r="C163" s="58" t="s">
         <v>219</v>
       </c>
@@ -7899,7 +7899,7 @@
       <c r="A164" s="19">
         <v>18</v>
       </c>
-      <c r="B164" s="85"/>
+      <c r="B164" s="76"/>
       <c r="C164" s="58" t="s">
         <v>112</v>
       </c>
@@ -7919,7 +7919,7 @@
       <c r="A165" s="19">
         <v>19</v>
       </c>
-      <c r="B165" s="80" t="s">
+      <c r="B165" s="77" t="s">
         <v>6</v>
       </c>
       <c r="C165" s="21" t="s">
@@ -7943,7 +7943,7 @@
       <c r="A166" s="19">
         <v>20</v>
       </c>
-      <c r="B166" s="81"/>
+      <c r="B166" s="74"/>
       <c r="C166" s="21" t="s">
         <v>117</v>
       </c>
@@ -7963,7 +7963,7 @@
       <c r="A167" s="19">
         <v>21</v>
       </c>
-      <c r="B167" s="81"/>
+      <c r="B167" s="74"/>
       <c r="C167" s="21" t="s">
         <v>118</v>
       </c>
@@ -7983,7 +7983,7 @@
       <c r="A168" s="19">
         <v>22</v>
       </c>
-      <c r="B168" s="81"/>
+      <c r="B168" s="74"/>
       <c r="C168" s="21" t="s">
         <v>119</v>
       </c>
@@ -8003,7 +8003,7 @@
       <c r="A169" s="19">
         <v>23</v>
       </c>
-      <c r="B169" s="81"/>
+      <c r="B169" s="74"/>
       <c r="C169" s="21" t="s">
         <v>120</v>
       </c>
@@ -8023,7 +8023,7 @@
       <c r="A170" s="19">
         <v>24</v>
       </c>
-      <c r="B170" s="81"/>
+      <c r="B170" s="74"/>
       <c r="C170" s="21" t="s">
         <v>121</v>
       </c>
@@ -8043,7 +8043,7 @@
       <c r="A171" s="19">
         <v>25</v>
       </c>
-      <c r="B171" s="81"/>
+      <c r="B171" s="74"/>
       <c r="C171" s="21" t="s">
         <v>122</v>
       </c>
@@ -8063,7 +8063,7 @@
       <c r="A172" s="19">
         <v>26</v>
       </c>
-      <c r="B172" s="81"/>
+      <c r="B172" s="74"/>
       <c r="C172" s="21" t="s">
         <v>38</v>
       </c>
@@ -8083,7 +8083,7 @@
       <c r="A173" s="19">
         <v>27</v>
       </c>
-      <c r="B173" s="80" t="s">
+      <c r="B173" s="77" t="s">
         <v>7</v>
       </c>
       <c r="C173" s="21" t="s">
@@ -8107,7 +8107,7 @@
       <c r="A174" s="19">
         <v>28</v>
       </c>
-      <c r="B174" s="81"/>
+      <c r="B174" s="74"/>
       <c r="C174" s="58" t="s">
         <v>126</v>
       </c>
@@ -8129,7 +8129,7 @@
       <c r="A175" s="19">
         <v>29</v>
       </c>
-      <c r="B175" s="81"/>
+      <c r="B175" s="74"/>
       <c r="C175" s="21" t="s">
         <v>129</v>
       </c>
@@ -8151,7 +8151,7 @@
       <c r="A176" s="19">
         <v>30</v>
       </c>
-      <c r="B176" s="98" t="s">
+      <c r="B176" s="68" t="s">
         <v>8</v>
       </c>
       <c r="C176" s="21" t="s">
@@ -8177,7 +8177,7 @@
       <c r="A177" s="23">
         <v>31</v>
       </c>
-      <c r="B177" s="99"/>
+      <c r="B177" s="69"/>
       <c r="C177" s="20" t="s">
         <v>135</v>
       </c>
@@ -8201,7 +8201,7 @@
       <c r="A178" s="16">
         <v>32</v>
       </c>
-      <c r="B178" s="101" t="s">
+      <c r="B178" s="70" t="s">
         <v>137</v>
       </c>
       <c r="C178" s="59" t="s">
@@ -8225,7 +8225,7 @@
       <c r="A179" s="19">
         <v>33</v>
       </c>
-      <c r="B179" s="102"/>
+      <c r="B179" s="71"/>
       <c r="C179" s="58" t="s">
         <v>141</v>
       </c>
@@ -8247,7 +8247,7 @@
       <c r="A180" s="19">
         <v>34</v>
       </c>
-      <c r="B180" s="103"/>
+      <c r="B180" s="72"/>
       <c r="C180" s="60" t="s">
         <v>144</v>
       </c>
@@ -8269,7 +8269,7 @@
       <c r="A181" s="23">
         <v>35</v>
       </c>
-      <c r="B181" s="103"/>
+      <c r="B181" s="72"/>
       <c r="C181" s="60" t="s">
         <v>145</v>
       </c>
@@ -8291,7 +8291,7 @@
       <c r="A182" s="25">
         <v>36</v>
       </c>
-      <c r="B182" s="89"/>
+      <c r="B182" s="73"/>
       <c r="C182" s="26" t="s">
         <v>148</v>
       </c>
@@ -8338,11 +8338,11 @@
       <c r="B196" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="C196" s="71" t="s">
+      <c r="C196" s="101" t="s">
         <v>157</v>
       </c>
-      <c r="D196" s="71"/>
-      <c r="E196" s="71"/>
+      <c r="D196" s="101"/>
+      <c r="E196" s="101"/>
       <c r="F196" s="28" t="s">
         <v>158</v>
       </c>
@@ -8351,17 +8351,17 @@
       </c>
     </row>
     <row r="197" spans="1:7">
-      <c r="A197" s="96" t="s">
+      <c r="A197" s="83" t="s">
         <v>160</v>
       </c>
-      <c r="B197" s="81" t="s">
+      <c r="B197" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="C197" s="72" t="s">
+      <c r="C197" s="102" t="s">
         <v>162</v>
       </c>
-      <c r="D197" s="73"/>
-      <c r="E197" s="73"/>
+      <c r="D197" s="103"/>
+      <c r="E197" s="103"/>
       <c r="F197" s="21" t="s">
         <v>163</v>
       </c>
@@ -8370,13 +8370,13 @@
       </c>
     </row>
     <row r="198" spans="1:7">
-      <c r="A198" s="96"/>
-      <c r="B198" s="104"/>
-      <c r="C198" s="74" t="s">
+      <c r="A198" s="83"/>
+      <c r="B198" s="75"/>
+      <c r="C198" s="93" t="s">
         <v>162</v>
       </c>
-      <c r="D198" s="75"/>
-      <c r="E198" s="75"/>
+      <c r="D198" s="104"/>
+      <c r="E198" s="104"/>
       <c r="F198" s="20" t="s">
         <v>165</v>
       </c>
@@ -8385,15 +8385,15 @@
       </c>
     </row>
     <row r="199" spans="1:7">
-      <c r="A199" s="96"/>
-      <c r="B199" s="81" t="s">
+      <c r="A199" s="83"/>
+      <c r="B199" s="74" t="s">
         <v>166</v>
       </c>
-      <c r="C199" s="76" t="s">
+      <c r="C199" s="97" t="s">
         <v>167</v>
       </c>
-      <c r="D199" s="76"/>
-      <c r="E199" s="76"/>
+      <c r="D199" s="97"/>
+      <c r="E199" s="97"/>
       <c r="F199" s="21" t="s">
         <v>163</v>
       </c>
@@ -8402,13 +8402,13 @@
       </c>
     </row>
     <row r="200" spans="1:7">
-      <c r="A200" s="96"/>
-      <c r="B200" s="81"/>
-      <c r="C200" s="74" t="s">
+      <c r="A200" s="83"/>
+      <c r="B200" s="74"/>
+      <c r="C200" s="93" t="s">
         <v>167</v>
       </c>
-      <c r="D200" s="74"/>
-      <c r="E200" s="74"/>
+      <c r="D200" s="93"/>
+      <c r="E200" s="93"/>
       <c r="F200" s="21" t="s">
         <v>165</v>
       </c>
@@ -8417,15 +8417,15 @@
       </c>
     </row>
     <row r="201" spans="1:7">
-      <c r="A201" s="96"/>
-      <c r="B201" s="104" t="s">
+      <c r="A201" s="83"/>
+      <c r="B201" s="75" t="s">
         <v>168</v>
       </c>
-      <c r="C201" s="77" t="s">
+      <c r="C201" s="94" t="s">
         <v>162</v>
       </c>
-      <c r="D201" s="78"/>
-      <c r="E201" s="79"/>
+      <c r="D201" s="95"/>
+      <c r="E201" s="96"/>
       <c r="F201" s="21" t="s">
         <v>163</v>
       </c>
@@ -8434,13 +8434,13 @@
       </c>
     </row>
     <row r="202" spans="1:7">
-      <c r="A202" s="96"/>
-      <c r="B202" s="85"/>
-      <c r="C202" s="77" t="s">
+      <c r="A202" s="83"/>
+      <c r="B202" s="76"/>
+      <c r="C202" s="94" t="s">
         <v>162</v>
       </c>
-      <c r="D202" s="78"/>
-      <c r="E202" s="79"/>
+      <c r="D202" s="95"/>
+      <c r="E202" s="96"/>
       <c r="F202" s="21" t="s">
         <v>165</v>
       </c>
@@ -8449,15 +8449,15 @@
       </c>
     </row>
     <row r="203" spans="1:7">
-      <c r="A203" s="96"/>
-      <c r="B203" s="81" t="s">
+      <c r="A203" s="83"/>
+      <c r="B203" s="74" t="s">
         <v>169</v>
       </c>
-      <c r="C203" s="76" t="s">
+      <c r="C203" s="97" t="s">
         <v>170</v>
       </c>
-      <c r="D203" s="76"/>
-      <c r="E203" s="76"/>
+      <c r="D203" s="97"/>
+      <c r="E203" s="97"/>
       <c r="F203" s="21" t="s">
         <v>163</v>
       </c>
@@ -8466,13 +8466,13 @@
       </c>
     </row>
     <row r="204" spans="1:7">
-      <c r="A204" s="96"/>
-      <c r="B204" s="81"/>
-      <c r="C204" s="76" t="s">
+      <c r="A204" s="83"/>
+      <c r="B204" s="74"/>
+      <c r="C204" s="97" t="s">
         <v>170</v>
       </c>
-      <c r="D204" s="76"/>
-      <c r="E204" s="76"/>
+      <c r="D204" s="97"/>
+      <c r="E204" s="97"/>
       <c r="F204" s="21" t="s">
         <v>165</v>
       </c>
@@ -8481,17 +8481,17 @@
       </c>
     </row>
     <row r="205" spans="1:7">
-      <c r="A205" s="96" t="s">
+      <c r="A205" s="83" t="s">
         <v>171</v>
       </c>
-      <c r="B205" s="81" t="s">
+      <c r="B205" s="74" t="s">
         <v>172</v>
       </c>
-      <c r="C205" s="80" t="s">
+      <c r="C205" s="77" t="s">
         <v>173</v>
       </c>
-      <c r="D205" s="81"/>
-      <c r="E205" s="81"/>
+      <c r="D205" s="74"/>
+      <c r="E205" s="74"/>
       <c r="F205" s="21" t="s">
         <v>163</v>
       </c>
@@ -8500,13 +8500,13 @@
       </c>
     </row>
     <row r="206" spans="1:7">
-      <c r="A206" s="96"/>
-      <c r="B206" s="81"/>
-      <c r="C206" s="81" t="s">
+      <c r="A206" s="83"/>
+      <c r="B206" s="74"/>
+      <c r="C206" s="74" t="s">
         <v>174</v>
       </c>
-      <c r="D206" s="81"/>
-      <c r="E206" s="81"/>
+      <c r="D206" s="74"/>
+      <c r="E206" s="74"/>
       <c r="F206" s="21" t="s">
         <v>165</v>
       </c>
@@ -8515,15 +8515,15 @@
       </c>
     </row>
     <row r="207" spans="1:7">
-      <c r="A207" s="96"/>
-      <c r="B207" s="81" t="s">
+      <c r="A207" s="83"/>
+      <c r="B207" s="74" t="s">
         <v>176</v>
       </c>
-      <c r="C207" s="81" t="s">
+      <c r="C207" s="74" t="s">
         <v>177</v>
       </c>
-      <c r="D207" s="81"/>
-      <c r="E207" s="81"/>
+      <c r="D207" s="74"/>
+      <c r="E207" s="74"/>
       <c r="F207" s="21" t="s">
         <v>163</v>
       </c>
@@ -8532,13 +8532,13 @@
       </c>
     </row>
     <row r="208" spans="1:7">
-      <c r="A208" s="96"/>
-      <c r="B208" s="81"/>
-      <c r="C208" s="81" t="s">
+      <c r="A208" s="83"/>
+      <c r="B208" s="74"/>
+      <c r="C208" s="74" t="s">
         <v>178</v>
       </c>
-      <c r="D208" s="81"/>
-      <c r="E208" s="81"/>
+      <c r="D208" s="74"/>
+      <c r="E208" s="74"/>
       <c r="F208" s="21" t="s">
         <v>165</v>
       </c>
@@ -8547,17 +8547,17 @@
       </c>
     </row>
     <row r="209" spans="1:7">
-      <c r="A209" s="96" t="s">
+      <c r="A209" s="83" t="s">
         <v>179</v>
       </c>
-      <c r="B209" s="81" t="s">
+      <c r="B209" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="C209" s="80" t="s">
+      <c r="C209" s="77" t="s">
         <v>181</v>
       </c>
-      <c r="D209" s="81"/>
-      <c r="E209" s="81"/>
+      <c r="D209" s="74"/>
+      <c r="E209" s="74"/>
       <c r="F209" s="21" t="s">
         <v>163</v>
       </c>
@@ -8566,13 +8566,13 @@
       </c>
     </row>
     <row r="210" spans="1:7">
-      <c r="A210" s="96"/>
-      <c r="B210" s="81"/>
-      <c r="C210" s="81" t="s">
+      <c r="A210" s="83"/>
+      <c r="B210" s="74"/>
+      <c r="C210" s="74" t="s">
         <v>182</v>
       </c>
-      <c r="D210" s="81"/>
-      <c r="E210" s="81"/>
+      <c r="D210" s="74"/>
+      <c r="E210" s="74"/>
       <c r="F210" s="21" t="s">
         <v>165</v>
       </c>
@@ -8581,15 +8581,15 @@
       </c>
     </row>
     <row r="211" spans="1:7">
-      <c r="A211" s="96"/>
-      <c r="B211" s="81" t="s">
+      <c r="A211" s="83"/>
+      <c r="B211" s="74" t="s">
         <v>183</v>
       </c>
-      <c r="C211" s="80" t="s">
+      <c r="C211" s="77" t="s">
         <v>184</v>
       </c>
-      <c r="D211" s="81"/>
-      <c r="E211" s="81"/>
+      <c r="D211" s="74"/>
+      <c r="E211" s="74"/>
       <c r="F211" s="21" t="s">
         <v>163</v>
       </c>
@@ -8598,13 +8598,13 @@
       </c>
     </row>
     <row r="212" spans="1:7">
-      <c r="A212" s="97"/>
-      <c r="B212" s="82"/>
-      <c r="C212" s="82" t="s">
+      <c r="A212" s="84"/>
+      <c r="B212" s="85"/>
+      <c r="C212" s="85" t="s">
         <v>185</v>
       </c>
-      <c r="D212" s="82"/>
-      <c r="E212" s="82"/>
+      <c r="D212" s="85"/>
+      <c r="E212" s="85"/>
       <c r="F212" s="26" t="s">
         <v>165</v>
       </c>
@@ -8626,12 +8626,12 @@
       <c r="A217" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="B217" s="83" t="s">
+      <c r="B217" s="91" t="s">
         <v>189</v>
       </c>
-      <c r="C217" s="83"/>
-      <c r="D217" s="83"/>
-      <c r="E217" s="83"/>
+      <c r="C217" s="91"/>
+      <c r="D217" s="91"/>
+      <c r="E217" s="91"/>
       <c r="F217" s="34" t="s">
         <v>190</v>
       </c>
@@ -8643,12 +8643,12 @@
       <c r="A218" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="B218" s="84" t="s">
+      <c r="B218" s="92" t="s">
         <v>193</v>
       </c>
-      <c r="C218" s="85"/>
-      <c r="D218" s="85"/>
-      <c r="E218" s="85"/>
+      <c r="C218" s="76"/>
+      <c r="D218" s="76"/>
+      <c r="E218" s="76"/>
       <c r="F218" s="37" t="s">
         <v>62</v>
       </c>
@@ -8660,12 +8660,12 @@
       <c r="A219" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="B219" s="86" t="s">
+      <c r="B219" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="C219" s="87"/>
-      <c r="D219" s="87"/>
-      <c r="E219" s="88"/>
+      <c r="C219" s="88"/>
+      <c r="D219" s="88"/>
+      <c r="E219" s="89"/>
       <c r="F219" s="9" t="s">
         <v>164</v>
       </c>
@@ -8677,12 +8677,12 @@
       <c r="A220" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="B220" s="86" t="s">
+      <c r="B220" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="C220" s="87"/>
-      <c r="D220" s="87"/>
-      <c r="E220" s="88"/>
+      <c r="C220" s="88"/>
+      <c r="D220" s="88"/>
+      <c r="E220" s="89"/>
       <c r="F220" s="13" t="s">
         <v>164</v>
       </c>
@@ -8694,12 +8694,12 @@
       <c r="A221" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="B221" s="89" t="s">
+      <c r="B221" s="73" t="s">
         <v>199</v>
       </c>
-      <c r="C221" s="82"/>
-      <c r="D221" s="82"/>
-      <c r="E221" s="82"/>
+      <c r="C221" s="85"/>
+      <c r="D221" s="85"/>
+      <c r="E221" s="85"/>
       <c r="F221" s="15" t="s">
         <v>164</v>
       </c>
@@ -8761,11 +8761,11 @@
       <c r="C227" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="D227" s="91" t="s">
+      <c r="D227" s="86" t="s">
         <v>206</v>
       </c>
-      <c r="E227" s="91"/>
-      <c r="F227" s="91"/>
+      <c r="E227" s="86"/>
+      <c r="F227" s="86"/>
       <c r="G227" s="30"/>
     </row>
     <row r="228" spans="1:7">
@@ -8778,11 +8778,11 @@
       <c r="C228" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="D228" s="91" t="s">
+      <c r="D228" s="86" t="s">
         <v>207</v>
       </c>
-      <c r="E228" s="91"/>
-      <c r="F228" s="91"/>
+      <c r="E228" s="86"/>
+      <c r="F228" s="86"/>
       <c r="G228" s="30"/>
     </row>
     <row r="229" spans="1:7">
@@ -8795,11 +8795,11 @@
       <c r="C229" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="D229" s="91" t="s">
+      <c r="D229" s="86" t="s">
         <v>208</v>
       </c>
-      <c r="E229" s="91"/>
-      <c r="F229" s="91"/>
+      <c r="E229" s="86"/>
+      <c r="F229" s="86"/>
       <c r="G229" s="30"/>
     </row>
     <row r="230" spans="1:7">
@@ -8812,11 +8812,11 @@
       <c r="C230" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="D230" s="91" t="s">
+      <c r="D230" s="86" t="s">
         <v>209</v>
       </c>
-      <c r="E230" s="91"/>
-      <c r="F230" s="91"/>
+      <c r="E230" s="86"/>
+      <c r="F230" s="86"/>
       <c r="G230" s="30"/>
     </row>
     <row r="231" spans="1:7">
@@ -8829,11 +8829,11 @@
       <c r="C231" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="D231" s="91" t="s">
+      <c r="D231" s="86" t="s">
         <v>210</v>
       </c>
-      <c r="E231" s="91"/>
-      <c r="F231" s="91"/>
+      <c r="E231" s="86"/>
+      <c r="F231" s="86"/>
       <c r="G231" s="30"/>
     </row>
     <row r="232" spans="1:7">
@@ -8846,11 +8846,11 @@
       <c r="C232" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="D232" s="92" t="s">
+      <c r="D232" s="79" t="s">
         <v>211</v>
       </c>
-      <c r="E232" s="93"/>
-      <c r="F232" s="94"/>
+      <c r="E232" s="80"/>
+      <c r="F232" s="81"/>
       <c r="G232" s="31"/>
     </row>
     <row r="233" spans="1:7">
@@ -8863,11 +8863,11 @@
       <c r="C233" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="D233" s="92" t="s">
+      <c r="D233" s="79" t="s">
         <v>212</v>
       </c>
-      <c r="E233" s="93"/>
-      <c r="F233" s="94"/>
+      <c r="E233" s="80"/>
+      <c r="F233" s="81"/>
       <c r="G233" s="31"/>
     </row>
     <row r="234" spans="1:7">
@@ -8880,11 +8880,11 @@
       <c r="C234" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="D234" s="92" t="s">
+      <c r="D234" s="79" t="s">
         <v>213</v>
       </c>
-      <c r="E234" s="93"/>
-      <c r="F234" s="94"/>
+      <c r="E234" s="80"/>
+      <c r="F234" s="81"/>
       <c r="G234" s="31"/>
     </row>
     <row r="235" spans="1:7">
@@ -8948,11 +8948,11 @@
       <c r="C238" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="D238" s="95" t="s">
+      <c r="D238" s="82" t="s">
         <v>217</v>
       </c>
-      <c r="E238" s="95"/>
-      <c r="F238" s="95"/>
+      <c r="E238" s="82"/>
+      <c r="F238" s="82"/>
       <c r="G238" s="32"/>
     </row>
   </sheetData>
@@ -8965,16 +8965,31 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="51">
-    <mergeCell ref="B176:B177"/>
-    <mergeCell ref="B178:B182"/>
-    <mergeCell ref="B197:B198"/>
-    <mergeCell ref="B199:B200"/>
-    <mergeCell ref="B201:B202"/>
-    <mergeCell ref="B147:B159"/>
-    <mergeCell ref="B160:B161"/>
-    <mergeCell ref="B162:B164"/>
-    <mergeCell ref="B165:B172"/>
-    <mergeCell ref="B173:B175"/>
+    <mergeCell ref="F111:N111"/>
+    <mergeCell ref="C196:E196"/>
+    <mergeCell ref="C197:E197"/>
+    <mergeCell ref="C198:E198"/>
+    <mergeCell ref="C199:E199"/>
+    <mergeCell ref="C200:E200"/>
+    <mergeCell ref="C201:E201"/>
+    <mergeCell ref="C202:E202"/>
+    <mergeCell ref="C203:E203"/>
+    <mergeCell ref="C204:E204"/>
+    <mergeCell ref="C205:E205"/>
+    <mergeCell ref="C206:E206"/>
+    <mergeCell ref="C207:E207"/>
+    <mergeCell ref="C208:E208"/>
+    <mergeCell ref="C209:E209"/>
+    <mergeCell ref="C210:E210"/>
+    <mergeCell ref="C211:E211"/>
+    <mergeCell ref="C212:E212"/>
+    <mergeCell ref="B217:E217"/>
+    <mergeCell ref="B218:E218"/>
+    <mergeCell ref="B219:E219"/>
+    <mergeCell ref="B220:E220"/>
+    <mergeCell ref="B221:E221"/>
+    <mergeCell ref="D226:F226"/>
+    <mergeCell ref="D227:F227"/>
     <mergeCell ref="D233:F233"/>
     <mergeCell ref="D234:F234"/>
     <mergeCell ref="D238:F238"/>
@@ -8991,31 +9006,16 @@
     <mergeCell ref="D230:F230"/>
     <mergeCell ref="D231:F231"/>
     <mergeCell ref="D232:F232"/>
-    <mergeCell ref="B219:E219"/>
-    <mergeCell ref="B220:E220"/>
-    <mergeCell ref="B221:E221"/>
-    <mergeCell ref="D226:F226"/>
-    <mergeCell ref="D227:F227"/>
-    <mergeCell ref="C210:E210"/>
-    <mergeCell ref="C211:E211"/>
-    <mergeCell ref="C212:E212"/>
-    <mergeCell ref="B217:E217"/>
-    <mergeCell ref="B218:E218"/>
-    <mergeCell ref="C205:E205"/>
-    <mergeCell ref="C206:E206"/>
-    <mergeCell ref="C207:E207"/>
-    <mergeCell ref="C208:E208"/>
-    <mergeCell ref="C209:E209"/>
-    <mergeCell ref="C200:E200"/>
-    <mergeCell ref="C201:E201"/>
-    <mergeCell ref="C202:E202"/>
-    <mergeCell ref="C203:E203"/>
-    <mergeCell ref="C204:E204"/>
-    <mergeCell ref="F111:N111"/>
-    <mergeCell ref="C196:E196"/>
-    <mergeCell ref="C197:E197"/>
-    <mergeCell ref="C198:E198"/>
-    <mergeCell ref="C199:E199"/>
+    <mergeCell ref="B147:B159"/>
+    <mergeCell ref="B160:B161"/>
+    <mergeCell ref="B162:B164"/>
+    <mergeCell ref="B165:B172"/>
+    <mergeCell ref="B173:B175"/>
+    <mergeCell ref="B176:B177"/>
+    <mergeCell ref="B178:B182"/>
+    <mergeCell ref="B197:B198"/>
+    <mergeCell ref="B199:B200"/>
+    <mergeCell ref="B201:B202"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -9038,15 +9038,15 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}">
-      <selection activeCell="E26" sqref="E26"/>
+    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{16B2C8B3-13FA-43FB-96C1-3763C72619A6}">
       <selection activeCell="E26" sqref="E26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{E811CF45-D5B3-4449-84AE-1514F9E9258F}">
+    <customSheetView guid="{179F0E1F-F6F7-410E-B883-54B8A90BA550}">
+      <selection activeCell="E26" sqref="E26"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
